--- a/excel/FactorialAnalysis_Throughput.xlsx
+++ b/excel/FactorialAnalysis_Throughput.xlsx
@@ -295,7 +295,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -408,6 +408,12 @@
       <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -724,17 +730,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1101,7 +1103,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart121.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1741,11 +1743,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="14146602"/>
-        <c:axId val="91829671"/>
+        <c:axId val="49706094"/>
+        <c:axId val="57780044"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="14146602"/>
+        <c:axId val="49706094"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,12 +1789,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91829671"/>
+        <c:crossAx val="57780044"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91829671"/>
+        <c:axId val="57780044"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,7 +1836,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14146602"/>
+        <c:crossAx val="49706094"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1862,7 +1864,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart122.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2450,11 +2452,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="26207209"/>
-        <c:axId val="2691087"/>
+        <c:axId val="94577709"/>
+        <c:axId val="19787567"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26207209"/>
+        <c:axId val="94577709"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,12 +2498,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2691087"/>
+        <c:crossAx val="19787567"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2691087"/>
+        <c:axId val="19787567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2543,7 +2545,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26207209"/>
+        <c:crossAx val="94577709"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2582,9 +2584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>212040</xdr:colOff>
+      <xdr:colOff>211680</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2593,7 +2595,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13496400" y="9662760"/>
-        <a:ext cx="7566480" cy="3546360"/>
+        <a:ext cx="7566120" cy="3546000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2612,9 +2614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>775440</xdr:colOff>
+      <xdr:colOff>775080</xdr:colOff>
       <xdr:row>174</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2623,7 +2625,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11613960" y="27431280"/>
-        <a:ext cx="7686000" cy="3190320"/>
+        <a:ext cx="7685640" cy="3189960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2637,48 +2639,48 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{6F525A09-C9AA-4ACD-91C3-A5AB31E05F85}">
-  <header guid="{8EA10746-F6C4-4805-979E-C45A70FA1634}" dateTime="2021-01-26T16:06:00.000000000Z" userName=" " r:id="rId1" minRId="1" maxRId="15" maxSheetId="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{3477F28B-D343-47A1-865A-C71FCA758450}">
+  <header guid="{DB0DE62B-4E3E-47F1-9B4C-A28B42090C1C}" dateTime="2021-01-26T16:06:00.000000000Z" userName=" " r:id="rId1" minRId="1" maxRId="15" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{5F90E49D-BDE9-4B5E-A1BB-F2E2023B0C1E}" dateTime="2021-01-26T16:07:00.000000000Z" userName=" " r:id="rId2" minRId="16" maxRId="65" maxSheetId="2">
+  <header guid="{6F5D2B03-D338-4567-9742-8341EEF4F638}" dateTime="2021-01-26T16:07:00.000000000Z" userName=" " r:id="rId2" minRId="16" maxRId="65" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{111DD45D-7D0E-4C2C-B0B6-375DC0F470AA}" dateTime="2021-01-26T16:09:00.000000000Z" userName=" " r:id="rId3" minRId="66" maxRId="70" maxSheetId="2">
+  <header guid="{43193C1C-1CD2-4C86-90F0-595DBA491B1B}" dateTime="2021-01-26T16:09:00.000000000Z" userName=" " r:id="rId3" minRId="66" maxRId="70" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{5604E5B8-BF6C-4227-9FA5-5B0C57376DBA}" dateTime="2021-01-26T16:12:00.000000000Z" userName=" " r:id="rId4" minRId="71" maxRId="150" maxSheetId="2">
+  <header guid="{16A00CEC-9FF4-4009-B9B0-AD2E62F11FC3}" dateTime="2021-01-26T16:12:00.000000000Z" userName=" " r:id="rId4" minRId="71" maxRId="150" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{FFBA2E9B-3DD9-410A-B034-29FB5322CD18}" dateTime="2021-01-26T16:13:00.000000000Z" userName=" " r:id="rId5" minRId="151" maxRId="310" maxSheetId="2">
+  <header guid="{3B19B3AA-3DD7-466C-9C77-762955EE110C}" dateTime="2021-01-26T16:13:00.000000000Z" userName=" " r:id="rId5" minRId="151" maxRId="310" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{7E7A8987-CB4B-4823-B83E-3E671A79A9D1}" dateTime="2021-01-26T16:16:00.000000000Z" userName=" " r:id="rId6" minRId="311" maxRId="315" maxSheetId="2">
+  <header guid="{AA8A20A3-84B2-4BA8-A8BE-8BCB92E376D1}" dateTime="2021-01-26T16:16:00.000000000Z" userName=" " r:id="rId6" minRId="311" maxRId="315" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{7982467A-AECC-4424-84E0-39F66BB4D3A4}" dateTime="2021-01-26T16:20:00.000000000Z" userName=" " r:id="rId7" minRId="316" maxRId="795" maxSheetId="2">
+  <header guid="{BFA2E9E6-B55C-4EF8-8D27-0B7AC6F5CB11}" dateTime="2021-01-26T16:20:00.000000000Z" userName=" " r:id="rId7" minRId="316" maxRId="795" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{494DA3DF-7DC2-47B7-8926-F19EE1DA3109}" dateTime="2021-01-26T16:21:00.000000000Z" userName=" " r:id="rId8" minRId="796" maxRId="880" maxSheetId="2">
+  <header guid="{98453688-244F-48AA-8AEA-9C75EADFFF81}" dateTime="2021-01-26T16:21:00.000000000Z" userName=" " r:id="rId8" minRId="796" maxRId="880" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{6F525A09-C9AA-4ACD-91C3-A5AB31E05F85}" dateTime="2021-01-26T16:22:00.000000000Z" userName=" " r:id="rId9" minRId="881" maxRId="883" maxSheetId="2">
+  <header guid="{3477F28B-D343-47A1-865A-C71FCA758450}" dateTime="2021-01-26T16:22:00.000000000Z" userName=" " r:id="rId9" minRId="881" maxRId="883" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -5259,397 +5261,397 @@
     </nc>
   </rcc>
   <rcc rId="477" ua="false" sId="1">
-    <nc r="AV4" t="n">
+    <nc r="AV4" t="e">
       <f>LOG(AO4,10)</f>
     </nc>
   </rcc>
   <rcc rId="478" ua="false" sId="1">
-    <nc r="AW4" t="n">
+    <nc r="AW4" t="e">
       <f>LOG(AP4,10)</f>
     </nc>
   </rcc>
   <rcc rId="479" ua="false" sId="1">
-    <nc r="AX4" t="n">
+    <nc r="AX4" t="e">
       <f>LOG(AQ4,10)</f>
     </nc>
   </rcc>
   <rcc rId="480" ua="false" sId="1">
-    <nc r="AY4" t="n">
+    <nc r="AY4" t="e">
       <f>LOG(AR4,10)</f>
     </nc>
   </rcc>
   <rcc rId="481" ua="false" sId="1">
-    <nc r="AY5" t="n">
+    <nc r="AY5" t="e">
       <f>LOG(AR5,10)</f>
     </nc>
   </rcc>
   <rcc rId="482" ua="false" sId="1">
-    <nc r="AY6" t="n">
+    <nc r="AY6" t="e">
       <f>LOG(AR6,10)</f>
     </nc>
   </rcc>
   <rcc rId="483" ua="false" sId="1">
-    <nc r="AY7" t="n">
+    <nc r="AY7" t="e">
       <f>LOG(AR7,10)</f>
     </nc>
   </rcc>
   <rcc rId="484" ua="false" sId="1">
-    <nc r="AY8" t="n">
+    <nc r="AY8" t="e">
       <f>LOG(AR8,10)</f>
     </nc>
   </rcc>
   <rcc rId="485" ua="false" sId="1">
-    <nc r="AY9" t="n">
+    <nc r="AY9" t="e">
       <f>LOG(AR9,10)</f>
     </nc>
   </rcc>
   <rcc rId="486" ua="false" sId="1">
-    <nc r="AY10" t="n">
+    <nc r="AY10" t="e">
       <f>LOG(AR10,10)</f>
     </nc>
   </rcc>
   <rcc rId="487" ua="false" sId="1">
-    <nc r="AY11" t="n">
+    <nc r="AY11" t="e">
       <f>LOG(AR11,10)</f>
     </nc>
   </rcc>
   <rcc rId="488" ua="false" sId="1">
-    <nc r="AY12" t="n">
+    <nc r="AY12" t="e">
       <f>LOG(AR12,10)</f>
     </nc>
   </rcc>
   <rcc rId="489" ua="false" sId="1">
-    <nc r="AY13" t="n">
+    <nc r="AY13" t="e">
       <f>LOG(AR13,10)</f>
     </nc>
   </rcc>
   <rcc rId="490" ua="false" sId="1">
-    <nc r="AY14" t="n">
+    <nc r="AY14" t="e">
       <f>LOG(AR14,10)</f>
     </nc>
   </rcc>
   <rcc rId="491" ua="false" sId="1">
-    <nc r="AY15" t="n">
+    <nc r="AY15" t="e">
       <f>LOG(AR15,10)</f>
     </nc>
   </rcc>
   <rcc rId="492" ua="false" sId="1">
-    <nc r="AY16" t="n">
+    <nc r="AY16" t="e">
       <f>LOG(AR16,10)</f>
     </nc>
   </rcc>
   <rcc rId="493" ua="false" sId="1">
-    <nc r="AY17" t="n">
+    <nc r="AY17" t="e">
       <f>LOG(AR17,10)</f>
     </nc>
   </rcc>
   <rcc rId="494" ua="false" sId="1">
-    <nc r="AY18" t="n">
+    <nc r="AY18" t="e">
       <f>LOG(AR18,10)</f>
     </nc>
   </rcc>
   <rcc rId="495" ua="false" sId="1">
-    <nc r="AY19" t="n">
+    <nc r="AY19" t="e">
       <f>LOG(AR19,10)</f>
     </nc>
   </rcc>
   <rcc rId="496" ua="false" sId="1">
-    <nc r="AX5" t="n">
+    <nc r="AX5" t="e">
       <f>LOG(AQ5,10)</f>
     </nc>
   </rcc>
   <rcc rId="497" ua="false" sId="1">
-    <nc r="AX6" t="n">
+    <nc r="AX6" t="e">
       <f>LOG(AQ6,10)</f>
     </nc>
   </rcc>
   <rcc rId="498" ua="false" sId="1">
-    <nc r="AX7" t="n">
+    <nc r="AX7" t="e">
       <f>LOG(AQ7,10)</f>
     </nc>
   </rcc>
   <rcc rId="499" ua="false" sId="1">
-    <nc r="AX8" t="n">
+    <nc r="AX8" t="e">
       <f>LOG(AQ8,10)</f>
     </nc>
   </rcc>
   <rcc rId="500" ua="false" sId="1">
-    <nc r="AX9" t="n">
+    <nc r="AX9" t="e">
       <f>LOG(AQ9,10)</f>
     </nc>
   </rcc>
   <rcc rId="501" ua="false" sId="1">
-    <nc r="AX10" t="n">
+    <nc r="AX10" t="e">
       <f>LOG(AQ10,10)</f>
     </nc>
   </rcc>
   <rcc rId="502" ua="false" sId="1">
-    <nc r="AX11" t="n">
+    <nc r="AX11" t="e">
       <f>LOG(AQ11,10)</f>
     </nc>
   </rcc>
   <rcc rId="503" ua="false" sId="1">
-    <nc r="AX12" t="n">
+    <nc r="AX12" t="e">
       <f>LOG(AQ12,10)</f>
     </nc>
   </rcc>
   <rcc rId="504" ua="false" sId="1">
-    <nc r="AX13" t="n">
+    <nc r="AX13" t="e">
       <f>LOG(AQ13,10)</f>
     </nc>
   </rcc>
   <rcc rId="505" ua="false" sId="1">
-    <nc r="AX14" t="n">
+    <nc r="AX14" t="e">
       <f>LOG(AQ14,10)</f>
     </nc>
   </rcc>
   <rcc rId="506" ua="false" sId="1">
-    <nc r="AX15" t="n">
+    <nc r="AX15" t="e">
       <f>LOG(AQ15,10)</f>
     </nc>
   </rcc>
   <rcc rId="507" ua="false" sId="1">
-    <nc r="AX16" t="n">
+    <nc r="AX16" t="e">
       <f>LOG(AQ16,10)</f>
     </nc>
   </rcc>
   <rcc rId="508" ua="false" sId="1">
-    <nc r="AX17" t="n">
+    <nc r="AX17" t="e">
       <f>LOG(AQ17,10)</f>
     </nc>
   </rcc>
   <rcc rId="509" ua="false" sId="1">
-    <nc r="AX18" t="n">
+    <nc r="AX18" t="e">
       <f>LOG(AQ18,10)</f>
     </nc>
   </rcc>
   <rcc rId="510" ua="false" sId="1">
-    <nc r="AX19" t="n">
+    <nc r="AX19" t="e">
       <f>LOG(AQ19,10)</f>
     </nc>
   </rcc>
   <rcc rId="511" ua="false" sId="1">
-    <nc r="AU5" t="n">
+    <nc r="AU5" t="e">
       <f>LOG(AN5,10)</f>
     </nc>
   </rcc>
   <rcc rId="512" ua="false" sId="1">
-    <nc r="AU6" t="n">
+    <nc r="AU6" t="e">
       <f>LOG(AN6,10)</f>
     </nc>
   </rcc>
   <rcc rId="513" ua="false" sId="1">
-    <nc r="AU7" t="n">
+    <nc r="AU7" t="e">
       <f>LOG(AN7,10)</f>
     </nc>
   </rcc>
   <rcc rId="514" ua="false" sId="1">
-    <nc r="AU8" t="n">
+    <nc r="AU8" t="e">
       <f>LOG(AN8,10)</f>
     </nc>
   </rcc>
   <rcc rId="515" ua="false" sId="1">
-    <nc r="AU9" t="n">
+    <nc r="AU9" t="e">
       <f>LOG(AN9,10)</f>
     </nc>
   </rcc>
   <rcc rId="516" ua="false" sId="1">
-    <nc r="AU10" t="n">
+    <nc r="AU10" t="e">
       <f>LOG(AN10,10)</f>
     </nc>
   </rcc>
   <rcc rId="517" ua="false" sId="1">
-    <nc r="AU11" t="n">
+    <nc r="AU11" t="e">
       <f>LOG(AN11,10)</f>
     </nc>
   </rcc>
   <rcc rId="518" ua="false" sId="1">
-    <nc r="AU12" t="n">
+    <nc r="AU12" t="e">
       <f>LOG(AN12,10)</f>
     </nc>
   </rcc>
   <rcc rId="519" ua="false" sId="1">
-    <nc r="AU13" t="n">
+    <nc r="AU13" t="e">
       <f>LOG(AN13,10)</f>
     </nc>
   </rcc>
   <rcc rId="520" ua="false" sId="1">
-    <nc r="AU14" t="n">
+    <nc r="AU14" t="e">
       <f>LOG(AN14,10)</f>
     </nc>
   </rcc>
   <rcc rId="521" ua="false" sId="1">
-    <nc r="AU15" t="n">
+    <nc r="AU15" t="e">
       <f>LOG(AN15,10)</f>
     </nc>
   </rcc>
   <rcc rId="522" ua="false" sId="1">
-    <nc r="AU16" t="n">
+    <nc r="AU16" t="e">
       <f>LOG(AN16,10)</f>
     </nc>
   </rcc>
   <rcc rId="523" ua="false" sId="1">
-    <nc r="AU17" t="n">
+    <nc r="AU17" t="e">
       <f>LOG(AN17,10)</f>
     </nc>
   </rcc>
   <rcc rId="524" ua="false" sId="1">
-    <nc r="AU18" t="n">
+    <nc r="AU18" t="e">
       <f>LOG(AN18,10)</f>
     </nc>
   </rcc>
   <rcc rId="525" ua="false" sId="1">
-    <nc r="AU19" t="n">
+    <nc r="AU19" t="e">
       <f>LOG(AN19,10)</f>
     </nc>
   </rcc>
   <rcc rId="526" ua="false" sId="1">
-    <nc r="AV5" t="n">
+    <nc r="AV5" t="e">
       <f>LOG(AO5,10)</f>
     </nc>
   </rcc>
   <rcc rId="527" ua="false" sId="1">
-    <nc r="AV6" t="n">
+    <nc r="AV6" t="e">
       <f>LOG(AO6,10)</f>
     </nc>
   </rcc>
   <rcc rId="528" ua="false" sId="1">
-    <nc r="AV7" t="n">
+    <nc r="AV7" t="e">
       <f>LOG(AO7,10)</f>
     </nc>
   </rcc>
   <rcc rId="529" ua="false" sId="1">
-    <nc r="AV8" t="n">
+    <nc r="AV8" t="e">
       <f>LOG(AO8,10)</f>
     </nc>
   </rcc>
   <rcc rId="530" ua="false" sId="1">
-    <nc r="AV9" t="n">
+    <nc r="AV9" t="e">
       <f>LOG(AO9,10)</f>
     </nc>
   </rcc>
   <rcc rId="531" ua="false" sId="1">
-    <nc r="AV10" t="n">
+    <nc r="AV10" t="e">
       <f>LOG(AO10,10)</f>
     </nc>
   </rcc>
   <rcc rId="532" ua="false" sId="1">
-    <nc r="AV11" t="n">
+    <nc r="AV11" t="e">
       <f>LOG(AO11,10)</f>
     </nc>
   </rcc>
   <rcc rId="533" ua="false" sId="1">
-    <nc r="AV12" t="n">
+    <nc r="AV12" t="e">
       <f>LOG(AO12,10)</f>
     </nc>
   </rcc>
   <rcc rId="534" ua="false" sId="1">
-    <nc r="AV13" t="n">
+    <nc r="AV13" t="e">
       <f>LOG(AO13,10)</f>
     </nc>
   </rcc>
   <rcc rId="535" ua="false" sId="1">
-    <nc r="AV14" t="n">
+    <nc r="AV14" t="e">
       <f>LOG(AO14,10)</f>
     </nc>
   </rcc>
   <rcc rId="536" ua="false" sId="1">
-    <nc r="AV15" t="n">
+    <nc r="AV15" t="e">
       <f>LOG(AO15,10)</f>
     </nc>
   </rcc>
   <rcc rId="537" ua="false" sId="1">
-    <nc r="AV16" t="n">
+    <nc r="AV16" t="e">
       <f>LOG(AO16,10)</f>
     </nc>
   </rcc>
   <rcc rId="538" ua="false" sId="1">
-    <nc r="AV17" t="n">
+    <nc r="AV17" t="e">
       <f>LOG(AO17,10)</f>
     </nc>
   </rcc>
   <rcc rId="539" ua="false" sId="1">
-    <nc r="AV18" t="n">
+    <nc r="AV18" t="e">
       <f>LOG(AO18,10)</f>
     </nc>
   </rcc>
   <rcc rId="540" ua="false" sId="1">
-    <nc r="AV19" t="n">
+    <nc r="AV19" t="e">
       <f>LOG(AO19,10)</f>
     </nc>
   </rcc>
   <rcc rId="541" ua="false" sId="1">
-    <nc r="AW5" t="n">
+    <nc r="AW5" t="e">
       <f>LOG(AP5,10)</f>
     </nc>
   </rcc>
   <rcc rId="542" ua="false" sId="1">
-    <nc r="AW6" t="n">
+    <nc r="AW6" t="e">
       <f>LOG(AP6,10)</f>
     </nc>
   </rcc>
   <rcc rId="543" ua="false" sId="1">
-    <nc r="AW7" t="n">
+    <nc r="AW7" t="e">
       <f>LOG(AP7,10)</f>
     </nc>
   </rcc>
   <rcc rId="544" ua="false" sId="1">
-    <nc r="AW8" t="n">
+    <nc r="AW8" t="e">
       <f>LOG(AP8,10)</f>
     </nc>
   </rcc>
   <rcc rId="545" ua="false" sId="1">
-    <nc r="AW9" t="n">
+    <nc r="AW9" t="e">
       <f>LOG(AP9,10)</f>
     </nc>
   </rcc>
   <rcc rId="546" ua="false" sId="1">
-    <nc r="AW10" t="n">
+    <nc r="AW10" t="e">
       <f>LOG(AP10,10)</f>
     </nc>
   </rcc>
   <rcc rId="547" ua="false" sId="1">
-    <nc r="AW11" t="n">
+    <nc r="AW11" t="e">
       <f>LOG(AP11,10)</f>
     </nc>
   </rcc>
   <rcc rId="548" ua="false" sId="1">
-    <nc r="AW12" t="n">
+    <nc r="AW12" t="e">
       <f>LOG(AP12,10)</f>
     </nc>
   </rcc>
   <rcc rId="549" ua="false" sId="1">
-    <nc r="AW13" t="n">
+    <nc r="AW13" t="e">
       <f>LOG(AP13,10)</f>
     </nc>
   </rcc>
   <rcc rId="550" ua="false" sId="1">
-    <nc r="AW14" t="n">
+    <nc r="AW14" t="e">
       <f>LOG(AP14,10)</f>
     </nc>
   </rcc>
   <rcc rId="551" ua="false" sId="1">
-    <nc r="AW15" t="n">
+    <nc r="AW15" t="e">
       <f>LOG(AP15,10)</f>
     </nc>
   </rcc>
   <rcc rId="552" ua="false" sId="1">
-    <nc r="AW16" t="n">
+    <nc r="AW16" t="e">
       <f>LOG(AP16,10)</f>
     </nc>
   </rcc>
   <rcc rId="553" ua="false" sId="1">
-    <nc r="AW17" t="n">
+    <nc r="AW17" t="e">
       <f>LOG(AP17,10)</f>
     </nc>
   </rcc>
   <rcc rId="554" ua="false" sId="1">
-    <nc r="AW18" t="n">
+    <nc r="AW18" t="e">
       <f>LOG(AP18,10)</f>
     </nc>
   </rcc>
   <rcc rId="555" ua="false" sId="1">
-    <nc r="AW19" t="n">
+    <nc r="AW19" t="e">
       <f>LOG(AP19,10)</f>
     </nc>
   </rcc>
@@ -7459,9 +7461,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OLD DATA NOT TRANSFORMED</t>
@@ -7475,9 +7476,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Apploed Log transformation</t>
@@ -7491,9 +7491,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Apploed Log transformation</t>
@@ -7505,9 +7504,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Applied Log transformation</t>
@@ -7529,8 +7527,8 @@
   </sheetPr>
   <dimension ref="B1:AY225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W3" activeCellId="0" sqref="W3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7570,97 +7568,96 @@
       <c r="W3" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="AL3" s="2"/>
       <c r="AN3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="V4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Y4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="Z4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AA4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AB4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AC4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AD4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AE4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AG4" s="0" t="s">
@@ -7672,7 +7669,6 @@
       <c r="AI4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AL4" s="2"/>
       <c r="AN4" s="0" t="n">
         <v>0.24426420754403</v>
       </c>
@@ -7710,107 +7706,107 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="10" t="n">
         <v>-1</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="10" t="n">
         <v>-1</v>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="10" t="n">
         <v>-1</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="10" t="n">
         <v>-1</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="10" t="n">
         <f aca="false">F5*G5</f>
         <v>1</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="10" t="n">
         <f aca="false">F5*H5</f>
         <v>1</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="10" t="n">
         <f aca="false">F5*I5</f>
         <v>1</v>
       </c>
-      <c r="M5" s="11" t="n">
+      <c r="M5" s="10" t="n">
         <f aca="false">G5*H5</f>
         <v>1</v>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="10" t="n">
         <f aca="false">G5*I5</f>
         <v>1</v>
       </c>
-      <c r="O5" s="11" t="n">
+      <c r="O5" s="10" t="n">
         <f aca="false">H5*I5</f>
         <v>1</v>
       </c>
-      <c r="P5" s="11" t="n">
+      <c r="P5" s="10" t="n">
         <f aca="false">F5*G5*H5</f>
         <v>-1</v>
       </c>
-      <c r="Q5" s="11" t="n">
+      <c r="Q5" s="10" t="n">
         <f aca="false">F5*G5*I5</f>
         <v>-1</v>
       </c>
-      <c r="R5" s="11" t="n">
+      <c r="R5" s="10" t="n">
         <f aca="false">F5*H5*I5</f>
         <v>-1</v>
       </c>
-      <c r="S5" s="11" t="n">
+      <c r="S5" s="10" t="n">
         <f aca="false">G5*H5*I5</f>
         <v>-1</v>
       </c>
-      <c r="T5" s="12" t="n">
+      <c r="T5" s="11" t="n">
         <f aca="false">F5*G5*H5*I5</f>
         <v>1</v>
       </c>
-      <c r="U5" s="13" t="n">
+      <c r="U5" s="12" t="n">
         <v>-0.612140166284626</v>
       </c>
-      <c r="V5" s="14" t="n">
+      <c r="V5" s="13" t="n">
         <v>-0.610759574125927</v>
       </c>
-      <c r="W5" s="14" t="n">
+      <c r="W5" s="13" t="n">
         <v>-0.597094378517327</v>
       </c>
-      <c r="X5" s="14" t="n">
+      <c r="X5" s="13" t="n">
         <v>-0.598623586019498</v>
       </c>
-      <c r="Y5" s="14" t="n">
+      <c r="Y5" s="13" t="n">
         <v>-0.602663563821229</v>
       </c>
-      <c r="Z5" s="11" t="n">
+      <c r="Z5" s="10" t="n">
         <f aca="false">AVERAGE(U5:Y5)</f>
         <v>-0.604256253753721</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="10" t="n">
         <f aca="false">U5-$Z5</f>
         <v>-0.00788391253090426</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="10" t="n">
         <f aca="false">V5-$Z5</f>
         <v>-0.00650332037220602</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="10" t="n">
         <f aca="false">W5-$Z5</f>
         <v>0.00716187523639478</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="10" t="n">
         <f aca="false">X5-$Z5</f>
         <v>0.00563266773422344</v>
       </c>
-      <c r="AE5" s="15" t="n">
+      <c r="AE5" s="14" t="n">
         <f aca="false">Y5-$Z5</f>
         <v>0.00159268993249195</v>
       </c>
@@ -7820,10 +7816,9 @@
       <c r="AH5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AI5" s="16" t="n">
+      <c r="AI5" s="15" t="n">
         <v>0.24426420754403</v>
       </c>
-      <c r="AL5" s="2"/>
       <c r="AN5" s="0" t="n">
         <v>0.049608355091384</v>
       </c>
@@ -7861,107 +7856,107 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="17" t="n">
+      <c r="E6" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="18" t="n">
+      <c r="F6" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="G6" s="18" t="n">
+      <c r="G6" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="H6" s="18" t="n">
+      <c r="H6" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="I6" s="18" t="n">
+      <c r="I6" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="18" t="n">
+      <c r="J6" s="17" t="n">
         <f aca="false">F6*G6</f>
         <v>1</v>
       </c>
-      <c r="K6" s="18" t="n">
+      <c r="K6" s="17" t="n">
         <f aca="false">F6*H6</f>
         <v>1</v>
       </c>
-      <c r="L6" s="18" t="n">
+      <c r="L6" s="17" t="n">
         <f aca="false">F6*I6</f>
         <v>-1</v>
       </c>
-      <c r="M6" s="18" t="n">
+      <c r="M6" s="17" t="n">
         <f aca="false">G6*H6</f>
         <v>1</v>
       </c>
-      <c r="N6" s="18" t="n">
+      <c r="N6" s="17" t="n">
         <f aca="false">G6*I6</f>
         <v>-1</v>
       </c>
-      <c r="O6" s="18" t="n">
+      <c r="O6" s="17" t="n">
         <f aca="false">H6*I6</f>
         <v>-1</v>
       </c>
-      <c r="P6" s="18" t="n">
+      <c r="P6" s="17" t="n">
         <f aca="false">F6*G6*H6</f>
         <v>-1</v>
       </c>
-      <c r="Q6" s="18" t="n">
+      <c r="Q6" s="17" t="n">
         <f aca="false">F6*G6*I6</f>
         <v>1</v>
       </c>
-      <c r="R6" s="18" t="n">
+      <c r="R6" s="17" t="n">
         <f aca="false">F6*H6*I6</f>
         <v>1</v>
       </c>
-      <c r="S6" s="18" t="n">
+      <c r="S6" s="17" t="n">
         <f aca="false">G6*H6*I6</f>
         <v>1</v>
       </c>
-      <c r="T6" s="19" t="n">
+      <c r="T6" s="18" t="n">
         <f aca="false">F6*G6*H6*I6</f>
         <v>-1</v>
       </c>
-      <c r="U6" s="20" t="n">
+      <c r="U6" s="19" t="n">
         <v>-1.30444517301579</v>
       </c>
-      <c r="V6" s="21" t="n">
+      <c r="V6" s="20" t="n">
         <v>-1.31279252573626</v>
       </c>
-      <c r="W6" s="21" t="n">
+      <c r="W6" s="20" t="n">
         <v>-1.30493177752821</v>
       </c>
-      <c r="X6" s="21" t="n">
+      <c r="X6" s="20" t="n">
         <v>-1.28402078316624</v>
       </c>
-      <c r="Y6" s="21" t="n">
+      <c r="Y6" s="20" t="n">
         <v>-1.29292729623432</v>
       </c>
-      <c r="Z6" s="18" t="n">
+      <c r="Z6" s="17" t="n">
         <f aca="false">AVERAGE(U6:Y6)</f>
         <v>-1.29982351113616</v>
       </c>
-      <c r="AA6" s="18" t="n">
+      <c r="AA6" s="17" t="n">
         <f aca="false">U6-$Z6</f>
         <v>-0.00462166187962754</v>
       </c>
-      <c r="AB6" s="18" t="n">
+      <c r="AB6" s="17" t="n">
         <f aca="false">V6-$Z6</f>
         <v>-0.0129690146000983</v>
       </c>
-      <c r="AC6" s="18" t="n">
+      <c r="AC6" s="17" t="n">
         <f aca="false">W6-$Z6</f>
         <v>-0.00510826639204853</v>
       </c>
-      <c r="AD6" s="18" t="n">
+      <c r="AD6" s="17" t="n">
         <f aca="false">X6-$Z6</f>
         <v>0.0158027279699293</v>
       </c>
-      <c r="AE6" s="22" t="n">
+      <c r="AE6" s="21" t="n">
         <f aca="false">Y6-$Z6</f>
         <v>0.006896214901845</v>
       </c>
@@ -7971,10 +7966,9 @@
       <c r="AH6" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AI6" s="16" t="n">
+      <c r="AI6" s="15" t="n">
         <v>0.24504194211433</v>
       </c>
-      <c r="AL6" s="2"/>
       <c r="AN6" s="0" t="n">
         <v>0.24398644519749</v>
       </c>
@@ -8012,107 +8006,107 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="17" t="n">
+      <c r="E7" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="G7" s="18" t="n">
+      <c r="G7" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="H7" s="18" t="n">
+      <c r="H7" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="18" t="n">
+      <c r="I7" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="J7" s="18" t="n">
+      <c r="J7" s="17" t="n">
         <f aca="false">F7*G7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="18" t="n">
+      <c r="K7" s="17" t="n">
         <f aca="false">F7*H7</f>
         <v>-1</v>
       </c>
-      <c r="L7" s="18" t="n">
+      <c r="L7" s="17" t="n">
         <f aca="false">F7*I7</f>
         <v>1</v>
       </c>
-      <c r="M7" s="18" t="n">
+      <c r="M7" s="17" t="n">
         <f aca="false">G7*H7</f>
         <v>-1</v>
       </c>
-      <c r="N7" s="18" t="n">
+      <c r="N7" s="17" t="n">
         <f aca="false">G7*I7</f>
         <v>1</v>
       </c>
-      <c r="O7" s="18" t="n">
+      <c r="O7" s="17" t="n">
         <f aca="false">H7*I7</f>
         <v>-1</v>
       </c>
-      <c r="P7" s="18" t="n">
+      <c r="P7" s="17" t="n">
         <f aca="false">F7*G7*H7</f>
         <v>1</v>
       </c>
-      <c r="Q7" s="18" t="n">
+      <c r="Q7" s="17" t="n">
         <f aca="false">F7*G7*I7</f>
         <v>-1</v>
       </c>
-      <c r="R7" s="18" t="n">
+      <c r="R7" s="17" t="n">
         <f aca="false">F7*H7*I7</f>
         <v>1</v>
       </c>
-      <c r="S7" s="18" t="n">
+      <c r="S7" s="17" t="n">
         <f aca="false">G7*H7*I7</f>
         <v>1</v>
       </c>
-      <c r="T7" s="19" t="n">
+      <c r="T7" s="18" t="n">
         <f aca="false">F7*G7*H7*I7</f>
         <v>-1</v>
       </c>
-      <c r="U7" s="20" t="n">
+      <c r="U7" s="19" t="n">
         <v>-0.612634300462303</v>
       </c>
-      <c r="V7" s="21" t="n">
+      <c r="V7" s="20" t="n">
         <v>-0.610956533078022</v>
       </c>
-      <c r="W7" s="21" t="n">
+      <c r="W7" s="20" t="n">
         <v>-0.596808250595327</v>
       </c>
-      <c r="X7" s="21" t="n">
+      <c r="X7" s="20" t="n">
         <v>-0.598910912845657</v>
       </c>
-      <c r="Y7" s="21" t="n">
+      <c r="Y7" s="20" t="n">
         <v>-0.601891141239835</v>
       </c>
-      <c r="Z7" s="18" t="n">
+      <c r="Z7" s="17" t="n">
         <f aca="false">AVERAGE(U7:Y7)</f>
         <v>-0.604240227644229</v>
       </c>
-      <c r="AA7" s="18" t="n">
+      <c r="AA7" s="17" t="n">
         <f aca="false">U7-$Z7</f>
         <v>-0.00839407281807403</v>
       </c>
-      <c r="AB7" s="18" t="n">
+      <c r="AB7" s="17" t="n">
         <f aca="false">V7-$Z7</f>
         <v>-0.00671630543379309</v>
       </c>
-      <c r="AC7" s="18" t="n">
+      <c r="AC7" s="17" t="n">
         <f aca="false">W7-$Z7</f>
         <v>0.00743197704890153</v>
       </c>
-      <c r="AD7" s="18" t="n">
+      <c r="AD7" s="17" t="n">
         <f aca="false">X7-$Z7</f>
         <v>0.00532931479857168</v>
       </c>
-      <c r="AE7" s="22" t="n">
+      <c r="AE7" s="21" t="n">
         <f aca="false">Y7-$Z7</f>
         <v>0.00234908640439391</v>
       </c>
@@ -8122,10 +8116,9 @@
       <c r="AH7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AI7" s="16" t="n">
+      <c r="AI7" s="15" t="n">
         <v>0.25287484028665</v>
       </c>
-      <c r="AL7" s="2"/>
       <c r="AN7" s="0" t="n">
         <v>0.049663907560691</v>
       </c>
@@ -8163,102 +8156,102 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3"/>
-      <c r="E8" s="17" t="n">
+      <c r="B8" s="2"/>
+      <c r="E8" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="18" t="n">
+      <c r="F8" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="G8" s="18" t="n">
+      <c r="G8" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="H8" s="18" t="n">
+      <c r="H8" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="18" t="n">
+      <c r="I8" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="18" t="n">
+      <c r="J8" s="17" t="n">
         <f aca="false">F8*G8</f>
         <v>1</v>
       </c>
-      <c r="K8" s="18" t="n">
+      <c r="K8" s="17" t="n">
         <f aca="false">F8*H8</f>
         <v>-1</v>
       </c>
-      <c r="L8" s="18" t="n">
+      <c r="L8" s="17" t="n">
         <f aca="false">F8*I8</f>
         <v>-1</v>
       </c>
-      <c r="M8" s="18" t="n">
+      <c r="M8" s="17" t="n">
         <f aca="false">G8*H8</f>
         <v>-1</v>
       </c>
-      <c r="N8" s="18" t="n">
+      <c r="N8" s="17" t="n">
         <f aca="false">G8*I8</f>
         <v>-1</v>
       </c>
-      <c r="O8" s="18" t="n">
+      <c r="O8" s="17" t="n">
         <f aca="false">H8*I8</f>
         <v>1</v>
       </c>
-      <c r="P8" s="18" t="n">
+      <c r="P8" s="17" t="n">
         <f aca="false">F8*G8*H8</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="18" t="n">
+      <c r="Q8" s="17" t="n">
         <f aca="false">F8*G8*I8</f>
         <v>1</v>
       </c>
-      <c r="R8" s="18" t="n">
+      <c r="R8" s="17" t="n">
         <f aca="false">F8*H8*I8</f>
         <v>-1</v>
       </c>
-      <c r="S8" s="18" t="n">
+      <c r="S8" s="17" t="n">
         <f aca="false">G8*H8*I8</f>
         <v>-1</v>
       </c>
-      <c r="T8" s="19" t="n">
+      <c r="T8" s="18" t="n">
         <f aca="false">F8*G8*H8*I8</f>
         <v>1</v>
       </c>
-      <c r="U8" s="20" t="n">
+      <c r="U8" s="19" t="n">
         <v>-1.30395911310842</v>
       </c>
-      <c r="V8" s="21" t="n">
+      <c r="V8" s="20" t="n">
         <v>-1.31279252573626</v>
       </c>
-      <c r="W8" s="21" t="n">
+      <c r="W8" s="20" t="n">
         <v>-1.30541892786747</v>
       </c>
-      <c r="X8" s="21" t="n">
+      <c r="X8" s="20" t="n">
         <v>-1.28448502103182</v>
       </c>
-      <c r="Y8" s="21" t="n">
+      <c r="Y8" s="20" t="n">
         <v>-1.29292729623432</v>
       </c>
-      <c r="Z8" s="18" t="n">
+      <c r="Z8" s="17" t="n">
         <f aca="false">AVERAGE(U8:Y8)</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="AA8" s="18" t="n">
+      <c r="AA8" s="17" t="n">
         <f aca="false">U8-$Z8</f>
         <v>-0.00404253631276452</v>
       </c>
-      <c r="AB8" s="18" t="n">
+      <c r="AB8" s="17" t="n">
         <f aca="false">V8-$Z8</f>
         <v>-0.0128759489406043</v>
       </c>
-      <c r="AC8" s="18" t="n">
+      <c r="AC8" s="17" t="n">
         <f aca="false">W8-$Z8</f>
         <v>-0.0055023510718093</v>
       </c>
-      <c r="AD8" s="18" t="n">
+      <c r="AD8" s="17" t="n">
         <f aca="false">X8-$Z8</f>
         <v>0.0154315557638383</v>
       </c>
-      <c r="AE8" s="22" t="n">
+      <c r="AE8" s="21" t="n">
         <f aca="false">Y8-$Z8</f>
         <v>0.00698928056133896</v>
       </c>
@@ -8268,7 +8261,7 @@
       <c r="AH8" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AI8" s="16" t="n">
+      <c r="AI8" s="15" t="n">
         <v>0.25198600077773</v>
       </c>
       <c r="AN8" s="0" t="n">
@@ -8308,101 +8301,101 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="17" t="n">
+      <c r="E9" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="G9" s="18" t="n">
+      <c r="G9" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="18" t="n">
+      <c r="H9" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="I9" s="18" t="n">
+      <c r="I9" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="J9" s="18" t="n">
+      <c r="J9" s="17" t="n">
         <f aca="false">F9*G9</f>
         <v>-1</v>
       </c>
-      <c r="K9" s="18" t="n">
+      <c r="K9" s="17" t="n">
         <f aca="false">F9*H9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="18" t="n">
+      <c r="L9" s="17" t="n">
         <f aca="false">F9*I9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="18" t="n">
+      <c r="M9" s="17" t="n">
         <f aca="false">G9*H9</f>
         <v>-1</v>
       </c>
-      <c r="N9" s="18" t="n">
+      <c r="N9" s="17" t="n">
         <f aca="false">G9*I9</f>
         <v>-1</v>
       </c>
-      <c r="O9" s="18" t="n">
+      <c r="O9" s="17" t="n">
         <f aca="false">H9*I9</f>
         <v>1</v>
       </c>
-      <c r="P9" s="18" t="n">
+      <c r="P9" s="17" t="n">
         <f aca="false">F9*G9*H9</f>
         <v>1</v>
       </c>
-      <c r="Q9" s="18" t="n">
+      <c r="Q9" s="17" t="n">
         <f aca="false">F9*G9*I9</f>
         <v>1</v>
       </c>
-      <c r="R9" s="18" t="n">
+      <c r="R9" s="17" t="n">
         <f aca="false">F9*H9*I9</f>
         <v>-1</v>
       </c>
-      <c r="S9" s="18" t="n">
+      <c r="S9" s="17" t="n">
         <f aca="false">G9*H9*I9</f>
         <v>1</v>
       </c>
-      <c r="T9" s="19" t="n">
+      <c r="T9" s="18" t="n">
         <f aca="false">F9*G9*H9*I9</f>
         <v>-1</v>
       </c>
-      <c r="U9" s="20" t="n">
+      <c r="U9" s="19" t="n">
         <v>-0.612337752494551</v>
       </c>
-      <c r="V9" s="21" t="n">
+      <c r="V9" s="20" t="n">
         <v>-0.610661128136195</v>
       </c>
-      <c r="W9" s="21" t="n">
+      <c r="W9" s="20" t="n">
         <v>-0.597189796397953</v>
       </c>
-      <c r="X9" s="21" t="n">
+      <c r="X9" s="20" t="n">
         <v>-0.598336449161485</v>
       </c>
-      <c r="Y9" s="21" t="n">
+      <c r="Y9" s="20" t="n">
         <v>-0.602277180804725</v>
       </c>
-      <c r="Z9" s="18" t="n">
+      <c r="Z9" s="17" t="n">
         <f aca="false">AVERAGE(U9:Y9)</f>
         <v>-0.604160461398982</v>
       </c>
-      <c r="AA9" s="18" t="n">
+      <c r="AA9" s="17" t="n">
         <f aca="false">U9-$Z9</f>
         <v>-0.00817729109556931</v>
       </c>
-      <c r="AB9" s="18" t="n">
+      <c r="AB9" s="17" t="n">
         <f aca="false">V9-$Z9</f>
         <v>-0.00650066673721306</v>
       </c>
-      <c r="AC9" s="18" t="n">
+      <c r="AC9" s="17" t="n">
         <f aca="false">W9-$Z9</f>
         <v>0.00697066500102839</v>
       </c>
-      <c r="AD9" s="18" t="n">
+      <c r="AD9" s="17" t="n">
         <f aca="false">X9-$Z9</f>
         <v>0.00582401223749685</v>
       </c>
-      <c r="AE9" s="22" t="n">
+      <c r="AE9" s="21" t="n">
         <f aca="false">Y9-$Z9</f>
         <v>0.00188328059425713</v>
       </c>
@@ -8412,7 +8405,7 @@
       <c r="AH9" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AI9" s="16" t="n">
+      <c r="AI9" s="15" t="n">
         <v>0.24965279706683</v>
       </c>
       <c r="AN9" s="0" t="n">
@@ -8452,105 +8445,105 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="17" t="n">
+      <c r="E10" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="18" t="n">
+      <c r="F10" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="G10" s="18" t="n">
+      <c r="G10" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="H10" s="18" t="n">
+      <c r="H10" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="I10" s="18" t="n">
+      <c r="I10" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="18" t="n">
+      <c r="J10" s="17" t="n">
         <f aca="false">F10*G10</f>
         <v>-1</v>
       </c>
-      <c r="K10" s="18" t="n">
+      <c r="K10" s="17" t="n">
         <f aca="false">F10*H10</f>
         <v>1</v>
       </c>
-      <c r="L10" s="18" t="n">
+      <c r="L10" s="17" t="n">
         <f aca="false">F10*I10</f>
         <v>-1</v>
       </c>
-      <c r="M10" s="18" t="n">
+      <c r="M10" s="17" t="n">
         <f aca="false">G10*H10</f>
         <v>-1</v>
       </c>
-      <c r="N10" s="18" t="n">
+      <c r="N10" s="17" t="n">
         <f aca="false">G10*I10</f>
         <v>1</v>
       </c>
-      <c r="O10" s="18" t="n">
+      <c r="O10" s="17" t="n">
         <f aca="false">H10*I10</f>
         <v>-1</v>
       </c>
-      <c r="P10" s="18" t="n">
+      <c r="P10" s="17" t="n">
         <f aca="false">F10*G10*H10</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="18" t="n">
+      <c r="Q10" s="17" t="n">
         <f aca="false">F10*G10*I10</f>
         <v>-1</v>
       </c>
-      <c r="R10" s="18" t="n">
+      <c r="R10" s="17" t="n">
         <f aca="false">F10*H10*I10</f>
         <v>1</v>
       </c>
-      <c r="S10" s="18" t="n">
+      <c r="S10" s="17" t="n">
         <f aca="false">G10*H10*I10</f>
         <v>-1</v>
       </c>
-      <c r="T10" s="19" t="n">
+      <c r="T10" s="18" t="n">
         <f aca="false">F10*G10*H10*I10</f>
         <v>1</v>
       </c>
-      <c r="U10" s="20" t="n">
+      <c r="U10" s="19" t="n">
         <v>-1.30298862224221</v>
       </c>
-      <c r="V10" s="21" t="n">
+      <c r="V10" s="20" t="n">
         <v>-1.31279252573626</v>
       </c>
-      <c r="W10" s="21" t="n">
+      <c r="W10" s="20" t="n">
         <v>-1.30493177752821</v>
       </c>
-      <c r="X10" s="21" t="n">
+      <c r="X10" s="20" t="n">
         <v>-1.28402078316624</v>
       </c>
-      <c r="Y10" s="21" t="n">
+      <c r="Y10" s="20" t="n">
         <v>-1.29292729623432</v>
       </c>
-      <c r="Z10" s="18" t="n">
+      <c r="Z10" s="17" t="n">
         <f aca="false">AVERAGE(U10:Y10)</f>
         <v>-1.29953220098145</v>
       </c>
-      <c r="AA10" s="18" t="n">
+      <c r="AA10" s="17" t="n">
         <f aca="false">U10-$Z10</f>
         <v>-0.00345642126076306</v>
       </c>
-      <c r="AB10" s="18" t="n">
+      <c r="AB10" s="17" t="n">
         <f aca="false">V10-$Z10</f>
         <v>-0.0132603247548144</v>
       </c>
-      <c r="AC10" s="18" t="n">
+      <c r="AC10" s="17" t="n">
         <f aca="false">W10-$Z10</f>
         <v>-0.00539957654676471</v>
       </c>
-      <c r="AD10" s="18" t="n">
+      <c r="AD10" s="17" t="n">
         <f aca="false">X10-$Z10</f>
         <v>0.0155114178152131</v>
       </c>
-      <c r="AE10" s="22" t="n">
+      <c r="AE10" s="21" t="n">
         <f aca="false">Y10-$Z10</f>
         <v>0.00660490474712883</v>
       </c>
-      <c r="AI10" s="16"/>
+      <c r="AI10" s="15"/>
       <c r="AN10" s="0" t="n">
         <v>0.24398644519749</v>
       </c>
@@ -8588,111 +8581,111 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="17" t="n">
+      <c r="E11" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="18" t="n">
+      <c r="F11" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="G11" s="18" t="n">
+      <c r="G11" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="18" t="n">
+      <c r="H11" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="18" t="n">
+      <c r="I11" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="J11" s="18" t="n">
+      <c r="J11" s="17" t="n">
         <f aca="false">F11*G11</f>
         <v>-1</v>
       </c>
-      <c r="K11" s="18" t="n">
+      <c r="K11" s="17" t="n">
         <f aca="false">F11*H11</f>
         <v>-1</v>
       </c>
-      <c r="L11" s="18" t="n">
+      <c r="L11" s="17" t="n">
         <f aca="false">F11*I11</f>
         <v>1</v>
       </c>
-      <c r="M11" s="18" t="n">
+      <c r="M11" s="17" t="n">
         <f aca="false">G11*H11</f>
         <v>1</v>
       </c>
-      <c r="N11" s="18" t="n">
+      <c r="N11" s="17" t="n">
         <f aca="false">G11*I11</f>
         <v>-1</v>
       </c>
-      <c r="O11" s="18" t="n">
+      <c r="O11" s="17" t="n">
         <f aca="false">H11*I11</f>
         <v>-1</v>
       </c>
-      <c r="P11" s="18" t="n">
+      <c r="P11" s="17" t="n">
         <f aca="false">F11*G11*H11</f>
         <v>-1</v>
       </c>
-      <c r="Q11" s="18" t="n">
+      <c r="Q11" s="17" t="n">
         <f aca="false">F11*G11*I11</f>
         <v>1</v>
       </c>
-      <c r="R11" s="18" t="n">
+      <c r="R11" s="17" t="n">
         <f aca="false">F11*H11*I11</f>
         <v>1</v>
       </c>
-      <c r="S11" s="18" t="n">
+      <c r="S11" s="17" t="n">
         <f aca="false">G11*H11*I11</f>
         <v>-1</v>
       </c>
-      <c r="T11" s="19" t="n">
+      <c r="T11" s="18" t="n">
         <f aca="false">F11*G11*H11*I11</f>
         <v>1</v>
       </c>
-      <c r="U11" s="20" t="n">
+      <c r="U11" s="19" t="n">
         <v>-0.612634300462303</v>
       </c>
-      <c r="V11" s="21" t="n">
+      <c r="V11" s="20" t="n">
         <v>-0.610956533078022</v>
       </c>
-      <c r="W11" s="21" t="n">
+      <c r="W11" s="20" t="n">
         <v>-0.596903605625208</v>
       </c>
-      <c r="X11" s="21" t="n">
+      <c r="X11" s="20" t="n">
         <v>-0.598910912845657</v>
       </c>
-      <c r="Y11" s="21" t="n">
+      <c r="Y11" s="20" t="n">
         <v>-0.601891141239835</v>
       </c>
-      <c r="Z11" s="18" t="n">
+      <c r="Z11" s="17" t="n">
         <f aca="false">AVERAGE(U11:Y11)</f>
         <v>-0.604259298650205</v>
       </c>
-      <c r="AA11" s="18" t="n">
+      <c r="AA11" s="17" t="n">
         <f aca="false">U11-$Z11</f>
         <v>-0.00837500181209783</v>
       </c>
-      <c r="AB11" s="18" t="n">
+      <c r="AB11" s="17" t="n">
         <f aca="false">V11-$Z11</f>
         <v>-0.00669723442781689</v>
       </c>
-      <c r="AC11" s="18" t="n">
+      <c r="AC11" s="17" t="n">
         <f aca="false">W11-$Z11</f>
         <v>0.00735569302499717</v>
       </c>
-      <c r="AD11" s="18" t="n">
+      <c r="AD11" s="17" t="n">
         <f aca="false">X11-$Z11</f>
         <v>0.00534838580454788</v>
       </c>
-      <c r="AE11" s="22" t="n">
+      <c r="AE11" s="21" t="n">
         <f aca="false">Y11-$Z11</f>
         <v>0.00236815741037011</v>
       </c>
-      <c r="AG11" s="23" t="s">
+      <c r="AG11" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AH11" s="23" t="s">
+      <c r="AH11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AI11" s="16" t="n">
+      <c r="AI11" s="15" t="n">
         <v>0.049608355091384</v>
       </c>
       <c r="AN11" s="0" t="n">
@@ -8732,101 +8725,101 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="17" t="n">
+      <c r="E12" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="18" t="n">
+      <c r="F12" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="G12" s="18" t="n">
+      <c r="G12" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="18" t="n">
+      <c r="H12" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="18" t="n">
+      <c r="I12" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="J12" s="18" t="n">
+      <c r="J12" s="17" t="n">
         <f aca="false">F12*G12</f>
         <v>-1</v>
       </c>
-      <c r="K12" s="18" t="n">
+      <c r="K12" s="17" t="n">
         <f aca="false">F12*H12</f>
         <v>-1</v>
       </c>
-      <c r="L12" s="18" t="n">
+      <c r="L12" s="17" t="n">
         <f aca="false">F12*I12</f>
         <v>-1</v>
       </c>
-      <c r="M12" s="18" t="n">
+      <c r="M12" s="17" t="n">
         <f aca="false">G12*H12</f>
         <v>1</v>
       </c>
-      <c r="N12" s="18" t="n">
+      <c r="N12" s="17" t="n">
         <f aca="false">G12*I12</f>
         <v>1</v>
       </c>
-      <c r="O12" s="18" t="n">
+      <c r="O12" s="17" t="n">
         <f aca="false">H12*I12</f>
         <v>1</v>
       </c>
-      <c r="P12" s="18" t="n">
+      <c r="P12" s="17" t="n">
         <f aca="false">F12*G12*H12</f>
         <v>-1</v>
       </c>
-      <c r="Q12" s="18" t="n">
+      <c r="Q12" s="17" t="n">
         <f aca="false">F12*G12*I12</f>
         <v>-1</v>
       </c>
-      <c r="R12" s="18" t="n">
+      <c r="R12" s="17" t="n">
         <f aca="false">F12*H12*I12</f>
         <v>-1</v>
       </c>
-      <c r="S12" s="18" t="n">
+      <c r="S12" s="17" t="n">
         <f aca="false">G12*H12*I12</f>
         <v>1</v>
       </c>
-      <c r="T12" s="19" t="n">
+      <c r="T12" s="18" t="n">
         <f aca="false">F12*G12*H12*I12</f>
         <v>-1</v>
       </c>
-      <c r="U12" s="20" t="n">
+      <c r="U12" s="19" t="n">
         <v>-1.30395911310842</v>
       </c>
-      <c r="V12" s="21" t="n">
+      <c r="V12" s="20" t="n">
         <v>-1.31279252573626</v>
       </c>
-      <c r="W12" s="21" t="n">
+      <c r="W12" s="20" t="n">
         <v>-1.30541892786747</v>
       </c>
-      <c r="X12" s="21" t="n">
+      <c r="X12" s="20" t="n">
         <v>-1.28448502103182</v>
       </c>
-      <c r="Y12" s="21" t="n">
+      <c r="Y12" s="20" t="n">
         <v>-1.29292729623432</v>
       </c>
-      <c r="Z12" s="18" t="n">
+      <c r="Z12" s="17" t="n">
         <f aca="false">AVERAGE(U12:Y12)</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="AA12" s="18" t="n">
+      <c r="AA12" s="17" t="n">
         <f aca="false">U12-$Z12</f>
         <v>-0.00404253631276452</v>
       </c>
-      <c r="AB12" s="18" t="n">
+      <c r="AB12" s="17" t="n">
         <f aca="false">V12-$Z12</f>
         <v>-0.0128759489406043</v>
       </c>
-      <c r="AC12" s="18" t="n">
+      <c r="AC12" s="17" t="n">
         <f aca="false">W12-$Z12</f>
         <v>-0.0055023510718093</v>
       </c>
-      <c r="AD12" s="18" t="n">
+      <c r="AD12" s="17" t="n">
         <f aca="false">X12-$Z12</f>
         <v>0.0154315557638383</v>
       </c>
-      <c r="AE12" s="22" t="n">
+      <c r="AE12" s="21" t="n">
         <f aca="false">Y12-$Z12</f>
         <v>0.00698928056133896</v>
       </c>
@@ -8836,7 +8829,7 @@
       <c r="AH12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AI12" s="16" t="n">
+      <c r="AI12" s="15" t="n">
         <v>0.04866396311316</v>
       </c>
       <c r="AN12" s="0" t="n">
@@ -8876,101 +8869,101 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="17" t="n">
+      <c r="E13" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="18" t="n">
+      <c r="F13" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="18" t="n">
+      <c r="G13" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="H13" s="18" t="n">
+      <c r="H13" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="I13" s="18" t="n">
+      <c r="I13" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="J13" s="18" t="n">
+      <c r="J13" s="17" t="n">
         <f aca="false">F13*G13</f>
         <v>-1</v>
       </c>
-      <c r="K13" s="18" t="n">
+      <c r="K13" s="17" t="n">
         <f aca="false">F13*H13</f>
         <v>-1</v>
       </c>
-      <c r="L13" s="18" t="n">
+      <c r="L13" s="17" t="n">
         <f aca="false">F13*I13</f>
         <v>-1</v>
       </c>
-      <c r="M13" s="18" t="n">
+      <c r="M13" s="17" t="n">
         <f aca="false">G13*H13</f>
         <v>1</v>
       </c>
-      <c r="N13" s="18" t="n">
+      <c r="N13" s="17" t="n">
         <f aca="false">G13*I13</f>
         <v>1</v>
       </c>
-      <c r="O13" s="18" t="n">
+      <c r="O13" s="17" t="n">
         <f aca="false">H13*I13</f>
         <v>1</v>
       </c>
-      <c r="P13" s="18" t="n">
+      <c r="P13" s="17" t="n">
         <f aca="false">F13*G13*H13</f>
         <v>1</v>
       </c>
-      <c r="Q13" s="18" t="n">
+      <c r="Q13" s="17" t="n">
         <f aca="false">F13*G13*I13</f>
         <v>1</v>
       </c>
-      <c r="R13" s="18" t="n">
+      <c r="R13" s="17" t="n">
         <f aca="false">F13*H13*I13</f>
         <v>1</v>
       </c>
-      <c r="S13" s="18" t="n">
+      <c r="S13" s="17" t="n">
         <f aca="false">G13*H13*I13</f>
         <v>-1</v>
       </c>
-      <c r="T13" s="19" t="n">
+      <c r="T13" s="18" t="n">
         <f aca="false">F13*G13*H13*I13</f>
         <v>-1</v>
       </c>
-      <c r="U13" s="20" t="n">
+      <c r="U13" s="19" t="n">
         <v>0.180786466737645</v>
       </c>
-      <c r="V13" s="21" t="n">
+      <c r="V13" s="20" t="n">
         <v>0.175181556027692</v>
       </c>
-      <c r="W13" s="21" t="n">
+      <c r="W13" s="20" t="n">
         <v>0.177319951999448</v>
       </c>
-      <c r="X13" s="21" t="n">
+      <c r="X13" s="20" t="n">
         <v>0.174600926782814</v>
       </c>
-      <c r="Y13" s="21" t="n">
+      <c r="Y13" s="20" t="n">
         <v>0.167900073836268</v>
       </c>
-      <c r="Z13" s="18" t="n">
+      <c r="Z13" s="17" t="n">
         <f aca="false">AVERAGE(U13:Y13)</f>
         <v>0.175157795076773</v>
       </c>
-      <c r="AA13" s="18" t="n">
+      <c r="AA13" s="17" t="n">
         <f aca="false">U13-$Z13</f>
         <v>0.00562867166087186</v>
       </c>
-      <c r="AB13" s="18" t="n">
+      <c r="AB13" s="17" t="n">
         <f aca="false">V13-$Z13</f>
         <v>2.37609509190773E-005</v>
       </c>
-      <c r="AC13" s="18" t="n">
+      <c r="AC13" s="17" t="n">
         <f aca="false">W13-$Z13</f>
         <v>0.00216215692267432</v>
       </c>
-      <c r="AD13" s="18" t="n">
+      <c r="AD13" s="17" t="n">
         <f aca="false">X13-$Z13</f>
         <v>-0.000556868293959678</v>
       </c>
-      <c r="AE13" s="22" t="n">
+      <c r="AE13" s="21" t="n">
         <f aca="false">Y13-$Z13</f>
         <v>-0.0072577212405055</v>
       </c>
@@ -8980,7 +8973,7 @@
       <c r="AH13" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AI13" s="16" t="n">
+      <c r="AI13" s="15" t="n">
         <v>0.049552802622077</v>
       </c>
       <c r="AN13" s="0" t="n">
@@ -9020,101 +9013,101 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="17" t="n">
+      <c r="E14" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="18" t="n">
+      <c r="F14" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="18" t="n">
+      <c r="G14" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="H14" s="18" t="n">
+      <c r="H14" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="I14" s="18" t="n">
+      <c r="I14" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="J14" s="18" t="n">
+      <c r="J14" s="17" t="n">
         <f aca="false">F14*G14</f>
         <v>-1</v>
       </c>
-      <c r="K14" s="18" t="n">
+      <c r="K14" s="17" t="n">
         <f aca="false">F14*H14</f>
         <v>-1</v>
       </c>
-      <c r="L14" s="18" t="n">
+      <c r="L14" s="17" t="n">
         <f aca="false">F14*I14</f>
         <v>1</v>
       </c>
-      <c r="M14" s="18" t="n">
+      <c r="M14" s="17" t="n">
         <f aca="false">G14*H14</f>
         <v>1</v>
       </c>
-      <c r="N14" s="18" t="n">
+      <c r="N14" s="17" t="n">
         <f aca="false">G14*I14</f>
         <v>-1</v>
       </c>
-      <c r="O14" s="18" t="n">
+      <c r="O14" s="17" t="n">
         <f aca="false">H14*I14</f>
         <v>-1</v>
       </c>
-      <c r="P14" s="18" t="n">
+      <c r="P14" s="17" t="n">
         <f aca="false">F14*G14*H14</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="18" t="n">
+      <c r="Q14" s="17" t="n">
         <f aca="false">F14*G14*I14</f>
         <v>-1</v>
       </c>
-      <c r="R14" s="18" t="n">
+      <c r="R14" s="17" t="n">
         <f aca="false">F14*H14*I14</f>
         <v>-1</v>
       </c>
-      <c r="S14" s="18" t="n">
+      <c r="S14" s="17" t="n">
         <f aca="false">G14*H14*I14</f>
         <v>1</v>
       </c>
-      <c r="T14" s="19" t="n">
+      <c r="T14" s="18" t="n">
         <f aca="false">F14*G14*H14*I14</f>
         <v>1</v>
       </c>
-      <c r="U14" s="20" t="n">
+      <c r="U14" s="19" t="n">
         <v>-0.533733313546863</v>
       </c>
-      <c r="V14" s="21" t="n">
+      <c r="V14" s="20" t="n">
         <v>-0.530365717711942</v>
       </c>
-      <c r="W14" s="21" t="n">
+      <c r="W14" s="20" t="n">
         <v>-0.518740784741698</v>
       </c>
-      <c r="X14" s="21" t="n">
+      <c r="X14" s="20" t="n">
         <v>-0.52009708348203</v>
       </c>
-      <c r="Y14" s="21" t="n">
+      <c r="Y14" s="20" t="n">
         <v>-0.527755374875787</v>
       </c>
-      <c r="Z14" s="18" t="n">
+      <c r="Z14" s="17" t="n">
         <f aca="false">AVERAGE(U14:Y14)</f>
         <v>-0.526138454871664</v>
       </c>
-      <c r="AA14" s="18" t="n">
+      <c r="AA14" s="17" t="n">
         <f aca="false">U14-$Z14</f>
         <v>-0.00759485867519882</v>
       </c>
-      <c r="AB14" s="18" t="n">
+      <c r="AB14" s="17" t="n">
         <f aca="false">V14-$Z14</f>
         <v>-0.00422726284027841</v>
       </c>
-      <c r="AC14" s="18" t="n">
+      <c r="AC14" s="17" t="n">
         <f aca="false">W14-$Z14</f>
         <v>0.00739767012996606</v>
       </c>
-      <c r="AD14" s="18" t="n">
+      <c r="AD14" s="17" t="n">
         <f aca="false">X14-$Z14</f>
         <v>0.00604137138963401</v>
       </c>
-      <c r="AE14" s="22" t="n">
+      <c r="AE14" s="21" t="n">
         <f aca="false">Y14-$Z14</f>
         <v>-0.00161692000412328</v>
       </c>
@@ -9124,7 +9117,7 @@
       <c r="AH14" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AI14" s="16" t="n">
+      <c r="AI14" s="15" t="n">
         <v>0.051997111271596</v>
       </c>
       <c r="AN14" s="0" t="n">
@@ -9164,101 +9157,101 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="17" t="n">
+      <c r="E15" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="18" t="n">
+      <c r="F15" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="18" t="n">
+      <c r="G15" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="H15" s="18" t="n">
+      <c r="H15" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="18" t="n">
+      <c r="I15" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="J15" s="18" t="n">
+      <c r="J15" s="17" t="n">
         <f aca="false">F15*G15</f>
         <v>-1</v>
       </c>
-      <c r="K15" s="18" t="n">
+      <c r="K15" s="17" t="n">
         <f aca="false">F15*H15</f>
         <v>1</v>
       </c>
-      <c r="L15" s="18" t="n">
+      <c r="L15" s="17" t="n">
         <f aca="false">F15*I15</f>
         <v>-1</v>
       </c>
-      <c r="M15" s="18" t="n">
+      <c r="M15" s="17" t="n">
         <f aca="false">G15*H15</f>
         <v>-1</v>
       </c>
-      <c r="N15" s="18" t="n">
+      <c r="N15" s="17" t="n">
         <f aca="false">G15*I15</f>
         <v>1</v>
       </c>
-      <c r="O15" s="18" t="n">
+      <c r="O15" s="17" t="n">
         <f aca="false">H15*I15</f>
         <v>-1</v>
       </c>
-      <c r="P15" s="18" t="n">
+      <c r="P15" s="17" t="n">
         <f aca="false">F15*G15*H15</f>
         <v>-1</v>
       </c>
-      <c r="Q15" s="18" t="n">
+      <c r="Q15" s="17" t="n">
         <f aca="false">F15*G15*I15</f>
         <v>1</v>
       </c>
-      <c r="R15" s="18" t="n">
+      <c r="R15" s="17" t="n">
         <f aca="false">F15*H15*I15</f>
         <v>-1</v>
       </c>
-      <c r="S15" s="18" t="n">
+      <c r="S15" s="17" t="n">
         <f aca="false">G15*H15*I15</f>
         <v>1</v>
       </c>
-      <c r="T15" s="19" t="n">
+      <c r="T15" s="18" t="n">
         <f aca="false">F15*G15*H15*I15</f>
         <v>1</v>
       </c>
-      <c r="U15" s="20" t="n">
+      <c r="U15" s="19" t="n">
         <v>0.181740087209143</v>
       </c>
-      <c r="V15" s="21" t="n">
+      <c r="V15" s="20" t="n">
         <v>0.175004223880968</v>
       </c>
-      <c r="W15" s="21" t="n">
+      <c r="W15" s="20" t="n">
         <v>0.178984776231972</v>
       </c>
-      <c r="X15" s="21" t="n">
+      <c r="X15" s="20" t="n">
         <v>0.174971973891554</v>
       </c>
-      <c r="Y15" s="21" t="n">
+      <c r="Y15" s="20" t="n">
         <v>0.168014790969552</v>
       </c>
-      <c r="Z15" s="18" t="n">
+      <c r="Z15" s="17" t="n">
         <f aca="false">AVERAGE(U15:Y15)</f>
         <v>0.175743170436638</v>
       </c>
-      <c r="AA15" s="18" t="n">
+      <c r="AA15" s="17" t="n">
         <f aca="false">U15-$Z15</f>
         <v>0.00599691677250516</v>
       </c>
-      <c r="AB15" s="18" t="n">
+      <c r="AB15" s="17" t="n">
         <f aca="false">V15-$Z15</f>
         <v>-0.00073894655567</v>
       </c>
-      <c r="AC15" s="18" t="n">
+      <c r="AC15" s="17" t="n">
         <f aca="false">W15-$Z15</f>
         <v>0.00324160579533425</v>
       </c>
-      <c r="AD15" s="18" t="n">
+      <c r="AD15" s="17" t="n">
         <f aca="false">X15-$Z15</f>
         <v>-0.000771196545083563</v>
       </c>
-      <c r="AE15" s="22" t="n">
+      <c r="AE15" s="21" t="n">
         <f aca="false">Y15-$Z15</f>
         <v>-0.00772837946708574</v>
       </c>
@@ -9268,7 +9261,7 @@
       <c r="AH15" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AI15" s="16" t="n">
+      <c r="AI15" s="15" t="n">
         <v>0.050941614354758</v>
       </c>
       <c r="AN15" s="0" t="n">
@@ -9308,105 +9301,105 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="17" t="n">
+      <c r="E16" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="18" t="n">
+      <c r="F16" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="18" t="n">
+      <c r="G16" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="H16" s="18" t="n">
+      <c r="H16" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="18" t="n">
+      <c r="I16" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="18" t="n">
+      <c r="J16" s="17" t="n">
         <f aca="false">F16*G16</f>
         <v>-1</v>
       </c>
-      <c r="K16" s="18" t="n">
+      <c r="K16" s="17" t="n">
         <f aca="false">F16*H16</f>
         <v>1</v>
       </c>
-      <c r="L16" s="18" t="n">
+      <c r="L16" s="17" t="n">
         <f aca="false">F16*I16</f>
         <v>1</v>
       </c>
-      <c r="M16" s="18" t="n">
+      <c r="M16" s="17" t="n">
         <f aca="false">G16*H16</f>
         <v>-1</v>
       </c>
-      <c r="N16" s="18" t="n">
+      <c r="N16" s="17" t="n">
         <f aca="false">G16*I16</f>
         <v>-1</v>
       </c>
-      <c r="O16" s="18" t="n">
+      <c r="O16" s="17" t="n">
         <f aca="false">H16*I16</f>
         <v>1</v>
       </c>
-      <c r="P16" s="18" t="n">
+      <c r="P16" s="17" t="n">
         <f aca="false">F16*G16*H16</f>
         <v>-1</v>
       </c>
-      <c r="Q16" s="18" t="n">
+      <c r="Q16" s="17" t="n">
         <f aca="false">F16*G16*I16</f>
         <v>-1</v>
       </c>
-      <c r="R16" s="18" t="n">
+      <c r="R16" s="17" t="n">
         <f aca="false">F16*H16*I16</f>
         <v>1</v>
       </c>
-      <c r="S16" s="18" t="n">
+      <c r="S16" s="17" t="n">
         <f aca="false">G16*H16*I16</f>
         <v>-1</v>
       </c>
-      <c r="T16" s="19" t="n">
+      <c r="T16" s="18" t="n">
         <f aca="false">F16*G16*H16*I16</f>
         <v>-1</v>
       </c>
-      <c r="U16" s="20" t="n">
+      <c r="U16" s="19" t="n">
         <v>-0.534063261887067</v>
       </c>
-      <c r="V16" s="21" t="n">
+      <c r="V16" s="20" t="n">
         <v>-0.530611243666978</v>
       </c>
-      <c r="W16" s="21" t="n">
+      <c r="W16" s="20" t="n">
         <v>-0.518501876979975</v>
       </c>
-      <c r="X16" s="21" t="n">
+      <c r="X16" s="20" t="n">
         <v>-0.520336870631895</v>
       </c>
-      <c r="Y16" s="21" t="n">
+      <c r="Y16" s="20" t="n">
         <v>-0.527836711046438</v>
       </c>
-      <c r="Z16" s="18" t="n">
+      <c r="Z16" s="17" t="n">
         <f aca="false">AVERAGE(U16:Y16)</f>
         <v>-0.526269992842471</v>
       </c>
-      <c r="AA16" s="18" t="n">
+      <c r="AA16" s="17" t="n">
         <f aca="false">U16-$Z16</f>
         <v>-0.00779326904459643</v>
       </c>
-      <c r="AB16" s="18" t="n">
+      <c r="AB16" s="17" t="n">
         <f aca="false">V16-$Z16</f>
         <v>-0.00434125082450709</v>
       </c>
-      <c r="AC16" s="18" t="n">
+      <c r="AC16" s="17" t="n">
         <f aca="false">W16-$Z16</f>
         <v>0.00776811586249537</v>
       </c>
-      <c r="AD16" s="18" t="n">
+      <c r="AD16" s="17" t="n">
         <f aca="false">X16-$Z16</f>
         <v>0.00593312221057574</v>
       </c>
-      <c r="AE16" s="22" t="n">
+      <c r="AE16" s="21" t="n">
         <f aca="false">Y16-$Z16</f>
         <v>-0.0015667182039677</v>
       </c>
-      <c r="AI16" s="16"/>
+      <c r="AI16" s="15"/>
       <c r="AN16" s="0" t="n">
         <v>1.5202488750625</v>
       </c>
@@ -9444,101 +9437,101 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="17" t="n">
+      <c r="E17" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="18" t="n">
+      <c r="F17" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="18" t="n">
+      <c r="G17" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="H17" s="18" t="n">
+      <c r="H17" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="I17" s="18" t="n">
+      <c r="I17" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="J17" s="18" t="n">
+      <c r="J17" s="17" t="n">
         <f aca="false">F17*G17</f>
         <v>1</v>
       </c>
-      <c r="K17" s="18" t="n">
+      <c r="K17" s="17" t="n">
         <f aca="false">F17*H17</f>
         <v>-1</v>
       </c>
-      <c r="L17" s="18" t="n">
+      <c r="L17" s="17" t="n">
         <f aca="false">F17*I17</f>
         <v>-1</v>
       </c>
-      <c r="M17" s="18" t="n">
+      <c r="M17" s="17" t="n">
         <f aca="false">G17*H17</f>
         <v>-1</v>
       </c>
-      <c r="N17" s="18" t="n">
+      <c r="N17" s="17" t="n">
         <f aca="false">G17*I17</f>
         <v>-1</v>
       </c>
-      <c r="O17" s="18" t="n">
+      <c r="O17" s="17" t="n">
         <f aca="false">H17*I17</f>
         <v>1</v>
       </c>
-      <c r="P17" s="18" t="n">
+      <c r="P17" s="17" t="n">
         <f aca="false">F17*G17*H17</f>
         <v>-1</v>
       </c>
-      <c r="Q17" s="18" t="n">
+      <c r="Q17" s="17" t="n">
         <f aca="false">F17*G17*I17</f>
         <v>-1</v>
       </c>
-      <c r="R17" s="18" t="n">
+      <c r="R17" s="17" t="n">
         <f aca="false">F17*H17*I17</f>
         <v>1</v>
       </c>
-      <c r="S17" s="18" t="n">
+      <c r="S17" s="17" t="n">
         <f aca="false">G17*H17*I17</f>
         <v>1</v>
       </c>
-      <c r="T17" s="19" t="n">
+      <c r="T17" s="18" t="n">
         <f aca="false">F17*G17*H17*I17</f>
         <v>1</v>
       </c>
-      <c r="U17" s="20" t="n">
+      <c r="U17" s="19" t="n">
         <v>0.181914690720243</v>
       </c>
-      <c r="V17" s="21" t="n">
+      <c r="V17" s="20" t="n">
         <v>0.175181556027692</v>
       </c>
-      <c r="W17" s="21" t="n">
+      <c r="W17" s="20" t="n">
         <v>0.178904882473215</v>
       </c>
-      <c r="X17" s="21" t="n">
+      <c r="X17" s="20" t="n">
         <v>0.175133199895531</v>
       </c>
-      <c r="Y17" s="21" t="n">
+      <c r="Y17" s="20" t="n">
         <v>0.168047561728461</v>
       </c>
-      <c r="Z17" s="18" t="n">
+      <c r="Z17" s="17" t="n">
         <f aca="false">AVERAGE(U17:Y17)</f>
         <v>0.175836378169029</v>
       </c>
-      <c r="AA17" s="18" t="n">
+      <c r="AA17" s="17" t="n">
         <f aca="false">U17-$Z17</f>
         <v>0.00607831255121413</v>
       </c>
-      <c r="AB17" s="18" t="n">
+      <c r="AB17" s="17" t="n">
         <f aca="false">V17-$Z17</f>
         <v>-0.000654822141336137</v>
       </c>
-      <c r="AC17" s="18" t="n">
+      <c r="AC17" s="17" t="n">
         <f aca="false">W17-$Z17</f>
         <v>0.00306850430418648</v>
       </c>
-      <c r="AD17" s="18" t="n">
+      <c r="AD17" s="17" t="n">
         <f aca="false">X17-$Z17</f>
         <v>-0.000703178273497279</v>
       </c>
-      <c r="AE17" s="22" t="n">
+      <c r="AE17" s="21" t="n">
         <f aca="false">Y17-$Z17</f>
         <v>-0.00778881644056725</v>
       </c>
@@ -9548,7 +9541,7 @@
       <c r="AH17" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AI17" s="16" t="n">
+      <c r="AI17" s="15" t="n">
         <v>0.24398644519749</v>
       </c>
       <c r="AN17" s="0" t="n">
@@ -9588,101 +9581,101 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="17" t="n">
+      <c r="E18" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="18" t="n">
+      <c r="F18" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="18" t="n">
+      <c r="G18" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="18" t="n">
+      <c r="H18" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="I18" s="18" t="n">
+      <c r="I18" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="18" t="n">
+      <c r="J18" s="17" t="n">
         <f aca="false">F18*G18</f>
         <v>1</v>
       </c>
-      <c r="K18" s="18" t="n">
+      <c r="K18" s="17" t="n">
         <f aca="false">F18*H18</f>
         <v>-1</v>
       </c>
-      <c r="L18" s="18" t="n">
+      <c r="L18" s="17" t="n">
         <f aca="false">F18*I18</f>
         <v>1</v>
       </c>
-      <c r="M18" s="18" t="n">
+      <c r="M18" s="17" t="n">
         <f aca="false">G18*H18</f>
         <v>-1</v>
       </c>
-      <c r="N18" s="18" t="n">
+      <c r="N18" s="17" t="n">
         <f aca="false">G18*I18</f>
         <v>1</v>
       </c>
-      <c r="O18" s="18" t="n">
+      <c r="O18" s="17" t="n">
         <f aca="false">H18*I18</f>
         <v>-1</v>
       </c>
-      <c r="P18" s="18" t="n">
+      <c r="P18" s="17" t="n">
         <f aca="false">F18*G18*H18</f>
         <v>-1</v>
       </c>
-      <c r="Q18" s="18" t="n">
+      <c r="Q18" s="17" t="n">
         <f aca="false">F18*G18*I18</f>
         <v>1</v>
       </c>
-      <c r="R18" s="18" t="n">
+      <c r="R18" s="17" t="n">
         <f aca="false">F18*H18*I18</f>
         <v>-1</v>
       </c>
-      <c r="S18" s="18" t="n">
+      <c r="S18" s="17" t="n">
         <f aca="false">G18*H18*I18</f>
         <v>-1</v>
       </c>
-      <c r="T18" s="19" t="n">
+      <c r="T18" s="18" t="n">
         <f aca="false">F18*G18*H18*I18</f>
         <v>-1</v>
       </c>
-      <c r="U18" s="20" t="n">
+      <c r="U18" s="19" t="n">
         <v>-0.533733313546863</v>
       </c>
-      <c r="V18" s="21" t="n">
+      <c r="V18" s="20" t="n">
         <v>-0.530529386258023</v>
       </c>
-      <c r="W18" s="21" t="n">
+      <c r="W18" s="20" t="n">
         <v>-0.518661134217523</v>
       </c>
-      <c r="X18" s="21" t="n">
+      <c r="X18" s="20" t="n">
         <v>-0.520017183843882</v>
       </c>
-      <c r="Y18" s="21" t="n">
+      <c r="Y18" s="20" t="n">
         <v>-0.527836711046438</v>
       </c>
-      <c r="Z18" s="18" t="n">
+      <c r="Z18" s="17" t="n">
         <f aca="false">AVERAGE(U18:Y18)</f>
         <v>-0.526155545782546</v>
       </c>
-      <c r="AA18" s="18" t="n">
+      <c r="AA18" s="17" t="n">
         <f aca="false">U18-$Z18</f>
         <v>-0.00757776776431673</v>
       </c>
-      <c r="AB18" s="18" t="n">
+      <c r="AB18" s="17" t="n">
         <f aca="false">V18-$Z18</f>
         <v>-0.00437384047547706</v>
       </c>
-      <c r="AC18" s="18" t="n">
+      <c r="AC18" s="17" t="n">
         <f aca="false">W18-$Z18</f>
         <v>0.00749441156502306</v>
       </c>
-      <c r="AD18" s="18" t="n">
+      <c r="AD18" s="17" t="n">
         <f aca="false">X18-$Z18</f>
         <v>0.00613836193866346</v>
       </c>
-      <c r="AE18" s="22" t="n">
+      <c r="AE18" s="21" t="n">
         <f aca="false">Y18-$Z18</f>
         <v>-0.00168116526389273</v>
       </c>
@@ -9692,7 +9685,7 @@
       <c r="AH18" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AI18" s="16" t="n">
+      <c r="AI18" s="15" t="n">
         <v>0.24493083717571</v>
       </c>
       <c r="AN18" s="0" t="n">
@@ -9732,101 +9725,101 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="17" t="n">
+      <c r="E19" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="18" t="n">
+      <c r="G19" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="H19" s="18" t="n">
+      <c r="H19" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="18" t="n">
+      <c r="I19" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="J19" s="18" t="n">
+      <c r="J19" s="17" t="n">
         <f aca="false">F19*G19</f>
         <v>1</v>
       </c>
-      <c r="K19" s="18" t="n">
+      <c r="K19" s="17" t="n">
         <f aca="false">F19*H19</f>
         <v>1</v>
       </c>
-      <c r="L19" s="18" t="n">
+      <c r="L19" s="17" t="n">
         <f aca="false">F19*I19</f>
         <v>-1</v>
       </c>
-      <c r="M19" s="18" t="n">
+      <c r="M19" s="17" t="n">
         <f aca="false">G19*H19</f>
         <v>1</v>
       </c>
-      <c r="N19" s="18" t="n">
+      <c r="N19" s="17" t="n">
         <f aca="false">G19*I19</f>
         <v>-1</v>
       </c>
-      <c r="O19" s="18" t="n">
+      <c r="O19" s="17" t="n">
         <f aca="false">H19*I19</f>
         <v>-1</v>
       </c>
-      <c r="P19" s="18" t="n">
+      <c r="P19" s="17" t="n">
         <f aca="false">F19*G19*H19</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="18" t="n">
+      <c r="Q19" s="17" t="n">
         <f aca="false">F19*G19*I19</f>
         <v>-1</v>
       </c>
-      <c r="R19" s="18" t="n">
+      <c r="R19" s="17" t="n">
         <f aca="false">F19*H19*I19</f>
         <v>-1</v>
       </c>
-      <c r="S19" s="18" t="n">
+      <c r="S19" s="17" t="n">
         <f aca="false">G19*H19*I19</f>
         <v>-1</v>
       </c>
-      <c r="T19" s="19" t="n">
+      <c r="T19" s="18" t="n">
         <f aca="false">F19*G19*H19*I19</f>
         <v>-1</v>
       </c>
-      <c r="U19" s="20" t="n">
+      <c r="U19" s="19" t="n">
         <v>0.181914690720243</v>
       </c>
-      <c r="V19" s="21" t="n">
+      <c r="V19" s="20" t="n">
         <v>0.175117079988254</v>
       </c>
-      <c r="W19" s="21" t="n">
+      <c r="W19" s="20" t="n">
         <v>0.178681101726761</v>
       </c>
-      <c r="X19" s="21" t="n">
+      <c r="X19" s="20" t="n">
         <v>0.174971973891554</v>
       </c>
-      <c r="Y19" s="21" t="n">
+      <c r="Y19" s="20" t="n">
         <v>0.167900073836268</v>
       </c>
-      <c r="Z19" s="18" t="n">
+      <c r="Z19" s="17" t="n">
         <f aca="false">AVERAGE(U19:Y19)</f>
         <v>0.175716984032616</v>
       </c>
-      <c r="AA19" s="18" t="n">
+      <c r="AA19" s="17" t="n">
         <f aca="false">U19-$Z19</f>
         <v>0.00619770668762662</v>
       </c>
-      <c r="AB19" s="18" t="n">
+      <c r="AB19" s="17" t="n">
         <f aca="false">V19-$Z19</f>
         <v>-0.00059990404436161</v>
       </c>
-      <c r="AC19" s="18" t="n">
+      <c r="AC19" s="17" t="n">
         <f aca="false">W19-$Z19</f>
         <v>0.00296411769414484</v>
       </c>
-      <c r="AD19" s="18" t="n">
+      <c r="AD19" s="17" t="n">
         <f aca="false">X19-$Z19</f>
         <v>-0.000745010141061708</v>
       </c>
-      <c r="AE19" s="22" t="n">
+      <c r="AE19" s="21" t="n">
         <f aca="false">Y19-$Z19</f>
         <v>-0.00781691019634823</v>
       </c>
@@ -9836,7 +9829,7 @@
       <c r="AH19" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AI19" s="16" t="n">
+      <c r="AI19" s="15" t="n">
         <v>0.25304149769457</v>
       </c>
       <c r="AN19" s="0" t="n">
@@ -9876,101 +9869,101 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="24" t="n">
+      <c r="E20" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="25" t="n">
+      <c r="F20" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="25" t="n">
+      <c r="G20" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="25" t="n">
+      <c r="H20" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="25" t="n">
+      <c r="I20" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="25" t="n">
+      <c r="J20" s="24" t="n">
         <f aca="false">F20*G20</f>
         <v>1</v>
       </c>
-      <c r="K20" s="25" t="n">
+      <c r="K20" s="24" t="n">
         <f aca="false">F20*H20</f>
         <v>1</v>
       </c>
-      <c r="L20" s="25" t="n">
+      <c r="L20" s="24" t="n">
         <f aca="false">F20*I20</f>
         <v>1</v>
       </c>
-      <c r="M20" s="25" t="n">
+      <c r="M20" s="24" t="n">
         <f aca="false">G20*H20</f>
         <v>1</v>
       </c>
-      <c r="N20" s="25" t="n">
+      <c r="N20" s="24" t="n">
         <f aca="false">G20*I20</f>
         <v>1</v>
       </c>
-      <c r="O20" s="25" t="n">
+      <c r="O20" s="24" t="n">
         <f aca="false">H20*I20</f>
         <v>1</v>
       </c>
-      <c r="P20" s="25" t="n">
+      <c r="P20" s="24" t="n">
         <f aca="false">F20*G20*H20</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="25" t="n">
+      <c r="Q20" s="24" t="n">
         <f aca="false">F20*G20*I20</f>
         <v>1</v>
       </c>
-      <c r="R20" s="25" t="n">
+      <c r="R20" s="24" t="n">
         <f aca="false">F20*H20*I20</f>
         <v>1</v>
       </c>
-      <c r="S20" s="25" t="n">
+      <c r="S20" s="24" t="n">
         <f aca="false">G20*H20*I20</f>
         <v>1</v>
       </c>
-      <c r="T20" s="26" t="n">
+      <c r="T20" s="25" t="n">
         <f aca="false">F20*G20*H20*I20</f>
         <v>1</v>
       </c>
-      <c r="U20" s="27" t="n">
+      <c r="U20" s="26" t="n">
         <v>-0.533980751298442</v>
       </c>
-      <c r="V20" s="28" t="n">
+      <c r="V20" s="27" t="n">
         <v>-0.530611243666978</v>
       </c>
-      <c r="W20" s="28" t="n">
+      <c r="W20" s="27" t="n">
         <v>-0.518501876979975</v>
       </c>
-      <c r="X20" s="28" t="n">
+      <c r="X20" s="27" t="n">
         <v>-0.519937298902624</v>
       </c>
-      <c r="Y20" s="28" t="n">
+      <c r="Y20" s="27" t="n">
         <v>-0.527755374875787</v>
       </c>
-      <c r="Z20" s="25" t="n">
+      <c r="Z20" s="24" t="n">
         <f aca="false">AVERAGE(U20:Y20)</f>
         <v>-0.526157309144761</v>
       </c>
-      <c r="AA20" s="25" t="n">
+      <c r="AA20" s="24" t="n">
         <f aca="false">U20-$Z20</f>
         <v>-0.00782344215368036</v>
       </c>
-      <c r="AB20" s="25" t="n">
+      <c r="AB20" s="24" t="n">
         <f aca="false">V20-$Z20</f>
         <v>-0.00445393452221665</v>
       </c>
-      <c r="AC20" s="25" t="n">
+      <c r="AC20" s="24" t="n">
         <f aca="false">W20-$Z20</f>
         <v>0.00765543216478581</v>
       </c>
-      <c r="AD20" s="25" t="n">
+      <c r="AD20" s="24" t="n">
         <f aca="false">X20-$Z20</f>
         <v>0.00622001024213692</v>
       </c>
-      <c r="AE20" s="29" t="n">
+      <c r="AE20" s="28" t="n">
         <f aca="false">Y20-$Z20</f>
         <v>-0.00159806573102572</v>
       </c>
@@ -9980,32 +9973,32 @@
       <c r="AH20" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AI20" s="16" t="n">
+      <c r="AI20" s="15" t="n">
         <v>0.25181934336981</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y21" s="30" t="s">
+      <c r="Y21" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="31" t="n">
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="30" t="n">
         <f aca="false">SUM(AA5:AA20)</f>
         <v>-0.0558811639881396</v>
       </c>
-      <c r="AB21" s="31" t="n">
+      <c r="AB21" s="30" t="n">
         <f aca="false">SUM(AB5:AB20)</f>
         <v>-0.0977649646600782</v>
       </c>
-      <c r="AC21" s="31" t="n">
+      <c r="AC21" s="30" t="n">
         <f aca="false">SUM(AC5:AC20)</f>
         <v>0.0491596796675002</v>
       </c>
-      <c r="AD21" s="31" t="n">
+      <c r="AD21" s="30" t="n">
         <f aca="false">SUM(AD5:AD20)</f>
         <v>0.105868250415067</v>
       </c>
-      <c r="AE21" s="15" t="n">
+      <c r="AE21" s="14" t="n">
         <f aca="false">SUM(AE5:AE20)</f>
         <v>-0.00138180143435129</v>
       </c>
@@ -10015,42 +10008,42 @@
       <c r="AH21" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AI21" s="16" t="n">
+      <c r="AI21" s="15" t="n">
         <v>0.25009721682129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="15"/>
-      <c r="AI22" s="16"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="14"/>
+      <c r="AI22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y23" s="32" t="s">
+      <c r="Y23" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="33" t="n">
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="32" t="n">
         <f aca="false">AVERAGE(AA5:AA20)</f>
         <v>-0.00349257274925873</v>
       </c>
-      <c r="AB23" s="33" t="n">
+      <c r="AB23" s="32" t="n">
         <f aca="false">AVERAGE(AB5:AB20)</f>
         <v>-0.00611031029125489</v>
       </c>
-      <c r="AC23" s="33" t="n">
+      <c r="AC23" s="32" t="n">
         <f aca="false">AVERAGE(AC5:AC20)</f>
         <v>0.00307247997921876</v>
       </c>
-      <c r="AD23" s="33" t="n">
+      <c r="AD23" s="32" t="n">
         <f aca="false">AVERAGE(AD5:AD20)</f>
         <v>0.00661676565094167</v>
       </c>
-      <c r="AE23" s="29" t="n">
+      <c r="AE23" s="28" t="n">
         <f aca="false">AVERAGE(AE5:AE20)</f>
         <v>-8.63625896469558E-005</v>
       </c>
@@ -10060,25 +10053,25 @@
       <c r="AH23" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AI23" s="16" t="n">
+      <c r="AI23" s="15" t="n">
         <v>0.049663907560691</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="29"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="28"/>
       <c r="AG24" s="0" t="s">
         <v>47</v>
       </c>
       <c r="AH24" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AI24" s="16" t="n">
+      <c r="AI24" s="15" t="n">
         <v>0.04866396311316</v>
       </c>
     </row>
@@ -10089,7 +10082,7 @@
       <c r="AH25" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AI25" s="16" t="n">
+      <c r="AI25" s="15" t="n">
         <v>0.049497250152769</v>
       </c>
     </row>
@@ -10100,7 +10093,7 @@
       <c r="AH26" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AI26" s="16" t="n">
+      <c r="AI26" s="15" t="n">
         <v>0.051941558802289</v>
       </c>
     </row>
@@ -10123,153 +10116,153 @@
       <c r="AH27" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AI27" s="16" t="n">
+      <c r="AI27" s="15" t="n">
         <v>0.050941614354758</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="35" t="s">
+      <c r="I28" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="35" t="s">
+      <c r="J28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="35" t="s">
+      <c r="K28" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L28" s="35" t="s">
+      <c r="L28" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="35" t="s">
+      <c r="M28" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N28" s="35" t="s">
+      <c r="N28" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="35" t="s">
+      <c r="O28" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="P28" s="35" t="s">
+      <c r="P28" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="Q28" s="35" t="s">
+      <c r="Q28" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="R28" s="35" t="s">
+      <c r="R28" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="S28" s="35" t="s">
+      <c r="S28" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="T28" s="36" t="s">
+      <c r="T28" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="V28" s="37" t="s">
+      <c r="V28" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="W28" s="38" t="s">
+      <c r="W28" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AI28" s="16"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AI28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="10" t="n">
+      <c r="E29" s="9" t="n">
         <f aca="false">E5*$Z5</f>
         <v>-0.604256253753721</v>
       </c>
-      <c r="F29" s="11" t="n">
+      <c r="F29" s="10" t="n">
         <f aca="false">F5*$Z5</f>
         <v>0.604256253753721</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="10" t="n">
         <f aca="false">G5*$Z5</f>
         <v>0.604256253753721</v>
       </c>
-      <c r="H29" s="11" t="n">
+      <c r="H29" s="10" t="n">
         <f aca="false">H5*$Z5</f>
         <v>0.604256253753721</v>
       </c>
-      <c r="I29" s="11" t="n">
+      <c r="I29" s="10" t="n">
         <f aca="false">I5*$Z5</f>
         <v>0.604256253753721</v>
       </c>
-      <c r="J29" s="11" t="n">
+      <c r="J29" s="10" t="n">
         <f aca="false">J5*$Z5</f>
         <v>-0.604256253753721</v>
       </c>
-      <c r="K29" s="11" t="n">
+      <c r="K29" s="10" t="n">
         <f aca="false">K5*$Z5</f>
         <v>-0.604256253753721</v>
       </c>
-      <c r="L29" s="11" t="n">
+      <c r="L29" s="10" t="n">
         <f aca="false">L5*$Z5</f>
         <v>-0.604256253753721</v>
       </c>
-      <c r="M29" s="11" t="n">
+      <c r="M29" s="10" t="n">
         <f aca="false">M5*$Z5</f>
         <v>-0.604256253753721</v>
       </c>
-      <c r="N29" s="11" t="n">
+      <c r="N29" s="10" t="n">
         <f aca="false">N5*$Z5</f>
         <v>-0.604256253753721</v>
       </c>
-      <c r="O29" s="11" t="n">
+      <c r="O29" s="10" t="n">
         <f aca="false">O5*$Z5</f>
         <v>-0.604256253753721</v>
       </c>
-      <c r="P29" s="11" t="n">
+      <c r="P29" s="10" t="n">
         <f aca="false">P5*$Z5</f>
         <v>0.604256253753721</v>
       </c>
-      <c r="Q29" s="11" t="n">
+      <c r="Q29" s="10" t="n">
         <f aca="false">Q5*$Z5</f>
         <v>0.604256253753721</v>
       </c>
-      <c r="R29" s="11" t="n">
+      <c r="R29" s="10" t="n">
         <f aca="false">R5*$Z5</f>
         <v>0.604256253753721</v>
       </c>
-      <c r="S29" s="11" t="n">
+      <c r="S29" s="10" t="n">
         <f aca="false">S5*$Z5</f>
         <v>0.604256253753721</v>
       </c>
-      <c r="T29" s="15" t="n">
+      <c r="T29" s="14" t="n">
         <f aca="false">T5*$Z5</f>
         <v>-0.604256253753721</v>
       </c>
-      <c r="W29" s="10" t="n">
+      <c r="W29" s="9" t="n">
         <f aca="false">AA5^2</f>
         <v>6.21560767949492E-005</v>
       </c>
-      <c r="X29" s="11" t="n">
+      <c r="X29" s="10" t="n">
         <f aca="false">AB5^2</f>
         <v>4.22931758635499E-005</v>
       </c>
-      <c r="Y29" s="11" t="n">
+      <c r="Y29" s="10" t="n">
         <f aca="false">AC5^2</f>
         <v>5.12924569016847E-005</v>
       </c>
-      <c r="Z29" s="11" t="n">
+      <c r="Z29" s="10" t="n">
         <f aca="false">AD5^2</f>
         <v>3.17269458041618E-005</v>
       </c>
-      <c r="AA29" s="15" t="n">
+      <c r="AA29" s="14" t="n">
         <f aca="false">AE5^2</f>
         <v>2.53666122106122E-006</v>
       </c>
@@ -10279,92 +10272,92 @@
       <c r="AH29" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AI29" s="16" t="n">
+      <c r="AI29" s="15" t="n">
         <v>0.24415310260541</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="17" t="n">
+      <c r="E30" s="16" t="n">
         <f aca="false">E6*$Z6</f>
         <v>-1.29982351113616</v>
       </c>
-      <c r="F30" s="18" t="n">
+      <c r="F30" s="17" t="n">
         <f aca="false">F6*$Z6</f>
         <v>1.29982351113616</v>
       </c>
-      <c r="G30" s="18" t="n">
+      <c r="G30" s="17" t="n">
         <f aca="false">G6*$Z6</f>
         <v>1.29982351113616</v>
       </c>
-      <c r="H30" s="18" t="n">
+      <c r="H30" s="17" t="n">
         <f aca="false">H6*$Z6</f>
         <v>1.29982351113616</v>
       </c>
-      <c r="I30" s="18" t="n">
+      <c r="I30" s="17" t="n">
         <f aca="false">I6*$Z6</f>
         <v>-1.29982351113616</v>
       </c>
-      <c r="J30" s="18" t="n">
+      <c r="J30" s="17" t="n">
         <f aca="false">J6*$Z6</f>
         <v>-1.29982351113616</v>
       </c>
-      <c r="K30" s="18" t="n">
+      <c r="K30" s="17" t="n">
         <f aca="false">K6*$Z6</f>
         <v>-1.29982351113616</v>
       </c>
-      <c r="L30" s="18" t="n">
+      <c r="L30" s="17" t="n">
         <f aca="false">L6*$Z6</f>
         <v>1.29982351113616</v>
       </c>
-      <c r="M30" s="18" t="n">
+      <c r="M30" s="17" t="n">
         <f aca="false">M6*$Z6</f>
         <v>-1.29982351113616</v>
       </c>
-      <c r="N30" s="18" t="n">
+      <c r="N30" s="17" t="n">
         <f aca="false">N6*$Z6</f>
         <v>1.29982351113616</v>
       </c>
-      <c r="O30" s="18" t="n">
+      <c r="O30" s="17" t="n">
         <f aca="false">O6*$Z6</f>
         <v>1.29982351113616</v>
       </c>
-      <c r="P30" s="18" t="n">
+      <c r="P30" s="17" t="n">
         <f aca="false">P6*$Z6</f>
         <v>1.29982351113616</v>
       </c>
-      <c r="Q30" s="18" t="n">
+      <c r="Q30" s="17" t="n">
         <f aca="false">Q6*$Z6</f>
         <v>-1.29982351113616</v>
       </c>
-      <c r="R30" s="18" t="n">
+      <c r="R30" s="17" t="n">
         <f aca="false">R6*$Z6</f>
         <v>-1.29982351113616</v>
       </c>
-      <c r="S30" s="18" t="n">
+      <c r="S30" s="17" t="n">
         <f aca="false">S6*$Z6</f>
         <v>-1.29982351113616</v>
       </c>
-      <c r="T30" s="22" t="n">
+      <c r="T30" s="21" t="n">
         <f aca="false">T6*$Z6</f>
         <v>1.29982351113616</v>
       </c>
-      <c r="W30" s="17" t="n">
+      <c r="W30" s="16" t="n">
         <f aca="false">AA6^2</f>
         <v>2.13597585296023E-005</v>
       </c>
-      <c r="X30" s="18" t="n">
+      <c r="X30" s="17" t="n">
         <f aca="false">AB6^2</f>
         <v>0.000168195339697562</v>
       </c>
-      <c r="Y30" s="18" t="n">
+      <c r="Y30" s="17" t="n">
         <f aca="false">AC6^2</f>
         <v>2.60943855321325E-005</v>
       </c>
-      <c r="Z30" s="18" t="n">
+      <c r="Z30" s="17" t="n">
         <f aca="false">AD6^2</f>
         <v>0.000249726211291586</v>
       </c>
-      <c r="AA30" s="22" t="n">
+      <c r="AA30" s="21" t="n">
         <f aca="false">AE6^2</f>
         <v>4.7557779972429E-005</v>
       </c>
@@ -10374,92 +10367,92 @@
       <c r="AH30" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AI30" s="16" t="n">
+      <c r="AI30" s="15" t="n">
         <v>0.24509749458363</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="17" t="n">
+      <c r="E31" s="16" t="n">
         <f aca="false">E7*$Z7</f>
         <v>-0.604240227644229</v>
       </c>
-      <c r="F31" s="18" t="n">
+      <c r="F31" s="17" t="n">
         <f aca="false">F7*$Z7</f>
         <v>0.604240227644229</v>
       </c>
-      <c r="G31" s="18" t="n">
+      <c r="G31" s="17" t="n">
         <f aca="false">G7*$Z7</f>
         <v>0.604240227644229</v>
       </c>
-      <c r="H31" s="18" t="n">
+      <c r="H31" s="17" t="n">
         <f aca="false">H7*$Z7</f>
         <v>-0.604240227644229</v>
       </c>
-      <c r="I31" s="18" t="n">
+      <c r="I31" s="17" t="n">
         <f aca="false">I7*$Z7</f>
         <v>0.604240227644229</v>
       </c>
-      <c r="J31" s="18" t="n">
+      <c r="J31" s="17" t="n">
         <f aca="false">J7*$Z7</f>
         <v>-0.604240227644229</v>
       </c>
-      <c r="K31" s="18" t="n">
+      <c r="K31" s="17" t="n">
         <f aca="false">K7*$Z7</f>
         <v>0.604240227644229</v>
       </c>
-      <c r="L31" s="18" t="n">
+      <c r="L31" s="17" t="n">
         <f aca="false">L7*$Z7</f>
         <v>-0.604240227644229</v>
       </c>
-      <c r="M31" s="18" t="n">
+      <c r="M31" s="17" t="n">
         <f aca="false">M7*$Z7</f>
         <v>0.604240227644229</v>
       </c>
-      <c r="N31" s="18" t="n">
+      <c r="N31" s="17" t="n">
         <f aca="false">N7*$Z7</f>
         <v>-0.604240227644229</v>
       </c>
-      <c r="O31" s="18" t="n">
+      <c r="O31" s="17" t="n">
         <f aca="false">O7*$Z7</f>
         <v>0.604240227644229</v>
       </c>
-      <c r="P31" s="18" t="n">
+      <c r="P31" s="17" t="n">
         <f aca="false">P7*$Z7</f>
         <v>-0.604240227644229</v>
       </c>
-      <c r="Q31" s="18" t="n">
+      <c r="Q31" s="17" t="n">
         <f aca="false">Q7*$Z7</f>
         <v>0.604240227644229</v>
       </c>
-      <c r="R31" s="18" t="n">
+      <c r="R31" s="17" t="n">
         <f aca="false">R7*$Z7</f>
         <v>-0.604240227644229</v>
       </c>
-      <c r="S31" s="18" t="n">
+      <c r="S31" s="17" t="n">
         <f aca="false">S7*$Z7</f>
         <v>-0.604240227644229</v>
       </c>
-      <c r="T31" s="22" t="n">
+      <c r="T31" s="21" t="n">
         <f aca="false">T7*$Z7</f>
         <v>0.604240227644229</v>
       </c>
-      <c r="W31" s="17" t="n">
+      <c r="W31" s="16" t="n">
         <f aca="false">AA7^2</f>
         <v>7.04604584751293E-005</v>
       </c>
-      <c r="X31" s="18" t="n">
+      <c r="X31" s="17" t="n">
         <f aca="false">AB7^2</f>
         <v>4.51087586799986E-005</v>
       </c>
-      <c r="Y31" s="18" t="n">
+      <c r="Y31" s="17" t="n">
         <f aca="false">AC7^2</f>
         <v>5.52342828553991E-005</v>
       </c>
-      <c r="Z31" s="18" t="n">
+      <c r="Z31" s="17" t="n">
         <f aca="false">AD7^2</f>
         <v>2.84015962222751E-005</v>
       </c>
-      <c r="AA31" s="22" t="n">
+      <c r="AA31" s="21" t="n">
         <f aca="false">AE7^2</f>
         <v>5.5182069353083E-006</v>
       </c>
@@ -10469,92 +10462,92 @@
       <c r="AH31" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AI31" s="16" t="n">
+      <c r="AI31" s="15" t="n">
         <v>0.25281928781734</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="17" t="n">
+      <c r="E32" s="16" t="n">
         <f aca="false">E8*$Z8</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="F32" s="18" t="n">
+      <c r="F32" s="17" t="n">
         <f aca="false">F8*$Z8</f>
         <v>1.29991657679566</v>
       </c>
-      <c r="G32" s="18" t="n">
+      <c r="G32" s="17" t="n">
         <f aca="false">G8*$Z8</f>
         <v>1.29991657679566</v>
       </c>
-      <c r="H32" s="18" t="n">
+      <c r="H32" s="17" t="n">
         <f aca="false">H8*$Z8</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="I32" s="18" t="n">
+      <c r="I32" s="17" t="n">
         <f aca="false">I8*$Z8</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="J32" s="18" t="n">
+      <c r="J32" s="17" t="n">
         <f aca="false">J8*$Z8</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="K32" s="18" t="n">
+      <c r="K32" s="17" t="n">
         <f aca="false">K8*$Z8</f>
         <v>1.29991657679566</v>
       </c>
-      <c r="L32" s="18" t="n">
+      <c r="L32" s="17" t="n">
         <f aca="false">L8*$Z8</f>
         <v>1.29991657679566</v>
       </c>
-      <c r="M32" s="18" t="n">
+      <c r="M32" s="17" t="n">
         <f aca="false">M8*$Z8</f>
         <v>1.29991657679566</v>
       </c>
-      <c r="N32" s="18" t="n">
+      <c r="N32" s="17" t="n">
         <f aca="false">N8*$Z8</f>
         <v>1.29991657679566</v>
       </c>
-      <c r="O32" s="18" t="n">
+      <c r="O32" s="17" t="n">
         <f aca="false">O8*$Z8</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="P32" s="18" t="n">
+      <c r="P32" s="17" t="n">
         <f aca="false">P8*$Z8</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="Q32" s="18" t="n">
+      <c r="Q32" s="17" t="n">
         <f aca="false">Q8*$Z8</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="R32" s="18" t="n">
+      <c r="R32" s="17" t="n">
         <f aca="false">R8*$Z8</f>
         <v>1.29991657679566</v>
       </c>
-      <c r="S32" s="18" t="n">
+      <c r="S32" s="17" t="n">
         <f aca="false">S8*$Z8</f>
         <v>1.29991657679566</v>
       </c>
-      <c r="T32" s="22" t="n">
+      <c r="T32" s="21" t="n">
         <f aca="false">T8*$Z8</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="W32" s="17" t="n">
+      <c r="W32" s="16" t="n">
         <f aca="false">AA8^2</f>
         <v>1.63420998400198E-005</v>
       </c>
-      <c r="X32" s="18" t="n">
+      <c r="X32" s="17" t="n">
         <f aca="false">AB8^2</f>
         <v>0.000165790061121049</v>
       </c>
-      <c r="Y32" s="18" t="n">
+      <c r="Y32" s="17" t="n">
         <f aca="false">AC8^2</f>
         <v>3.02758673174409E-005</v>
       </c>
-      <c r="Z32" s="18" t="n">
+      <c r="Z32" s="17" t="n">
         <f aca="false">AD8^2</f>
         <v>0.00023813291329245</v>
       </c>
-      <c r="AA32" s="22" t="n">
+      <c r="AA32" s="21" t="n">
         <f aca="false">AE8^2</f>
         <v>4.88500427651107E-005</v>
       </c>
@@ -10564,92 +10557,92 @@
       <c r="AH32" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AI32" s="16" t="n">
+      <c r="AI32" s="15" t="n">
         <v>0.25215265818566</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="17" t="n">
+      <c r="E33" s="16" t="n">
         <f aca="false">E9*$Z9</f>
         <v>-0.604160461398982</v>
       </c>
-      <c r="F33" s="18" t="n">
+      <c r="F33" s="17" t="n">
         <f aca="false">F9*$Z9</f>
         <v>0.604160461398982</v>
       </c>
-      <c r="G33" s="18" t="n">
+      <c r="G33" s="17" t="n">
         <f aca="false">G9*$Z9</f>
         <v>-0.604160461398982</v>
       </c>
-      <c r="H33" s="18" t="n">
+      <c r="H33" s="17" t="n">
         <f aca="false">H9*$Z9</f>
         <v>0.604160461398982</v>
       </c>
-      <c r="I33" s="18" t="n">
+      <c r="I33" s="17" t="n">
         <f aca="false">I9*$Z9</f>
         <v>0.604160461398982</v>
       </c>
-      <c r="J33" s="18" t="n">
+      <c r="J33" s="17" t="n">
         <f aca="false">J9*$Z9</f>
         <v>0.604160461398982</v>
       </c>
-      <c r="K33" s="18" t="n">
+      <c r="K33" s="17" t="n">
         <f aca="false">K9*$Z9</f>
         <v>-0.604160461398982</v>
       </c>
-      <c r="L33" s="18" t="n">
+      <c r="L33" s="17" t="n">
         <f aca="false">L9*$Z9</f>
         <v>-0.604160461398982</v>
       </c>
-      <c r="M33" s="18" t="n">
+      <c r="M33" s="17" t="n">
         <f aca="false">M9*$Z9</f>
         <v>0.604160461398982</v>
       </c>
-      <c r="N33" s="18" t="n">
+      <c r="N33" s="17" t="n">
         <f aca="false">N9*$Z9</f>
         <v>0.604160461398982</v>
       </c>
-      <c r="O33" s="18" t="n">
+      <c r="O33" s="17" t="n">
         <f aca="false">O9*$Z9</f>
         <v>-0.604160461398982</v>
       </c>
-      <c r="P33" s="18" t="n">
+      <c r="P33" s="17" t="n">
         <f aca="false">P9*$Z9</f>
         <v>-0.604160461398982</v>
       </c>
-      <c r="Q33" s="18" t="n">
+      <c r="Q33" s="17" t="n">
         <f aca="false">Q9*$Z9</f>
         <v>-0.604160461398982</v>
       </c>
-      <c r="R33" s="18" t="n">
+      <c r="R33" s="17" t="n">
         <f aca="false">R9*$Z9</f>
         <v>0.604160461398982</v>
       </c>
-      <c r="S33" s="18" t="n">
+      <c r="S33" s="17" t="n">
         <f aca="false">S9*$Z9</f>
         <v>-0.604160461398982</v>
       </c>
-      <c r="T33" s="22" t="n">
+      <c r="T33" s="21" t="n">
         <f aca="false">T9*$Z9</f>
         <v>0.604160461398982</v>
       </c>
-      <c r="W33" s="17" t="n">
+      <c r="W33" s="16" t="n">
         <f aca="false">AA9^2</f>
         <v>6.68680896616771E-005</v>
       </c>
-      <c r="X33" s="18" t="n">
+      <c r="X33" s="17" t="n">
         <f aca="false">AB9^2</f>
         <v>4.22586680283083E-005</v>
       </c>
-      <c r="Y33" s="18" t="n">
+      <c r="Y33" s="17" t="n">
         <f aca="false">AC9^2</f>
         <v>4.85901705565621E-005</v>
       </c>
-      <c r="Z33" s="18" t="n">
+      <c r="Z33" s="17" t="n">
         <f aca="false">AD9^2</f>
         <v>3.3919118542513E-005</v>
       </c>
-      <c r="AA33" s="22" t="n">
+      <c r="AA33" s="21" t="n">
         <f aca="false">AE9^2</f>
         <v>3.54674579670549E-006</v>
       </c>
@@ -10659,178 +10652,178 @@
       <c r="AH33" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AI33" s="16" t="n">
+      <c r="AI33" s="15" t="n">
         <v>0.24987500694406</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="17" t="n">
+      <c r="E34" s="16" t="n">
         <f aca="false">E10*$Z10</f>
         <v>-1.29953220098145</v>
       </c>
-      <c r="F34" s="18" t="n">
+      <c r="F34" s="17" t="n">
         <f aca="false">F10*$Z10</f>
         <v>1.29953220098145</v>
       </c>
-      <c r="G34" s="18" t="n">
+      <c r="G34" s="17" t="n">
         <f aca="false">G10*$Z10</f>
         <v>-1.29953220098145</v>
       </c>
-      <c r="H34" s="18" t="n">
+      <c r="H34" s="17" t="n">
         <f aca="false">H10*$Z10</f>
         <v>1.29953220098145</v>
       </c>
-      <c r="I34" s="18" t="n">
+      <c r="I34" s="17" t="n">
         <f aca="false">I10*$Z10</f>
         <v>-1.29953220098145</v>
       </c>
-      <c r="J34" s="18" t="n">
+      <c r="J34" s="17" t="n">
         <f aca="false">J10*$Z10</f>
         <v>1.29953220098145</v>
       </c>
-      <c r="K34" s="18" t="n">
+      <c r="K34" s="17" t="n">
         <f aca="false">K10*$Z10</f>
         <v>-1.29953220098145</v>
       </c>
-      <c r="L34" s="18" t="n">
+      <c r="L34" s="17" t="n">
         <f aca="false">L10*$Z10</f>
         <v>1.29953220098145</v>
       </c>
-      <c r="M34" s="18" t="n">
+      <c r="M34" s="17" t="n">
         <f aca="false">M10*$Z10</f>
         <v>1.29953220098145</v>
       </c>
-      <c r="N34" s="18" t="n">
+      <c r="N34" s="17" t="n">
         <f aca="false">N10*$Z10</f>
         <v>-1.29953220098145</v>
       </c>
-      <c r="O34" s="18" t="n">
+      <c r="O34" s="17" t="n">
         <f aca="false">O10*$Z10</f>
         <v>1.29953220098145</v>
       </c>
-      <c r="P34" s="18" t="n">
+      <c r="P34" s="17" t="n">
         <f aca="false">P10*$Z10</f>
         <v>-1.29953220098145</v>
       </c>
-      <c r="Q34" s="18" t="n">
+      <c r="Q34" s="17" t="n">
         <f aca="false">Q10*$Z10</f>
         <v>1.29953220098145</v>
       </c>
-      <c r="R34" s="18" t="n">
+      <c r="R34" s="17" t="n">
         <f aca="false">R10*$Z10</f>
         <v>-1.29953220098145</v>
       </c>
-      <c r="S34" s="18" t="n">
+      <c r="S34" s="17" t="n">
         <f aca="false">S10*$Z10</f>
         <v>1.29953220098145</v>
       </c>
-      <c r="T34" s="22" t="n">
+      <c r="T34" s="21" t="n">
         <f aca="false">T10*$Z10</f>
         <v>-1.29953220098145</v>
       </c>
-      <c r="W34" s="17" t="n">
+      <c r="W34" s="16" t="n">
         <f aca="false">AA10^2</f>
         <v>1.19468479318549E-005</v>
       </c>
-      <c r="X34" s="18" t="n">
+      <c r="X34" s="17" t="n">
         <f aca="false">AB10^2</f>
         <v>0.000175836212603144</v>
       </c>
-      <c r="Y34" s="18" t="n">
+      <c r="Y34" s="17" t="n">
         <f aca="false">AC10^2</f>
         <v>2.91554268843715E-005</v>
       </c>
-      <c r="Z34" s="18" t="n">
+      <c r="Z34" s="17" t="n">
         <f aca="false">AD10^2</f>
         <v>0.000240604082638112</v>
       </c>
-      <c r="AA34" s="22" t="n">
+      <c r="AA34" s="21" t="n">
         <f aca="false">AE10^2</f>
         <v>4.36247667186449E-005</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="17" t="n">
+      <c r="E35" s="16" t="n">
         <f aca="false">E11*$Z11</f>
         <v>-0.604259298650205</v>
       </c>
-      <c r="F35" s="18" t="n">
+      <c r="F35" s="17" t="n">
         <f aca="false">F11*$Z11</f>
         <v>0.604259298650205</v>
       </c>
-      <c r="G35" s="18" t="n">
+      <c r="G35" s="17" t="n">
         <f aca="false">G11*$Z11</f>
         <v>-0.604259298650205</v>
       </c>
-      <c r="H35" s="18" t="n">
+      <c r="H35" s="17" t="n">
         <f aca="false">H11*$Z11</f>
         <v>-0.604259298650205</v>
       </c>
-      <c r="I35" s="18" t="n">
+      <c r="I35" s="17" t="n">
         <f aca="false">I11*$Z11</f>
         <v>0.604259298650205</v>
       </c>
-      <c r="J35" s="18" t="n">
+      <c r="J35" s="17" t="n">
         <f aca="false">J11*$Z11</f>
         <v>0.604259298650205</v>
       </c>
-      <c r="K35" s="18" t="n">
+      <c r="K35" s="17" t="n">
         <f aca="false">K11*$Z11</f>
         <v>0.604259298650205</v>
       </c>
-      <c r="L35" s="18" t="n">
+      <c r="L35" s="17" t="n">
         <f aca="false">L11*$Z11</f>
         <v>-0.604259298650205</v>
       </c>
-      <c r="M35" s="18" t="n">
+      <c r="M35" s="17" t="n">
         <f aca="false">M11*$Z11</f>
         <v>-0.604259298650205</v>
       </c>
-      <c r="N35" s="18" t="n">
+      <c r="N35" s="17" t="n">
         <f aca="false">N11*$Z11</f>
         <v>0.604259298650205</v>
       </c>
-      <c r="O35" s="18" t="n">
+      <c r="O35" s="17" t="n">
         <f aca="false">O11*$Z11</f>
         <v>0.604259298650205</v>
       </c>
-      <c r="P35" s="18" t="n">
+      <c r="P35" s="17" t="n">
         <f aca="false">P11*$Z11</f>
         <v>0.604259298650205</v>
       </c>
-      <c r="Q35" s="18" t="n">
+      <c r="Q35" s="17" t="n">
         <f aca="false">Q11*$Z11</f>
         <v>-0.604259298650205</v>
       </c>
-      <c r="R35" s="18" t="n">
+      <c r="R35" s="17" t="n">
         <f aca="false">R11*$Z11</f>
         <v>-0.604259298650205</v>
       </c>
-      <c r="S35" s="18" t="n">
+      <c r="S35" s="17" t="n">
         <f aca="false">S11*$Z11</f>
         <v>0.604259298650205</v>
       </c>
-      <c r="T35" s="22" t="n">
+      <c r="T35" s="21" t="n">
         <f aca="false">T11*$Z11</f>
         <v>-0.604259298650205</v>
       </c>
-      <c r="W35" s="17" t="n">
+      <c r="W35" s="16" t="n">
         <f aca="false">AA11^2</f>
         <v>7.01406553526419E-005</v>
       </c>
-      <c r="X35" s="18" t="n">
+      <c r="X35" s="17" t="n">
         <f aca="false">AB11^2</f>
         <v>4.48529489811358E-005</v>
       </c>
-      <c r="Y35" s="18" t="n">
+      <c r="Y35" s="17" t="n">
         <f aca="false">AC11^2</f>
         <v>5.4106219877992E-005</v>
       </c>
-      <c r="Z35" s="18" t="n">
+      <c r="Z35" s="17" t="n">
         <f aca="false">AD11^2</f>
         <v>2.86052307142893E-005</v>
       </c>
-      <c r="AA35" s="22" t="n">
+      <c r="AA35" s="21" t="n">
         <f aca="false">AE11^2</f>
         <v>5.60816952029086E-006</v>
       </c>
@@ -10840,92 +10833,92 @@
       <c r="AH35" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AI35" s="16" t="n">
+      <c r="AI35" s="15" t="n">
         <v>0.049775012499306</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="17" t="n">
+      <c r="E36" s="16" t="n">
         <f aca="false">E12*$Z12</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="17" t="n">
         <f aca="false">F12*$Z12</f>
         <v>1.29991657679566</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="17" t="n">
         <f aca="false">G12*$Z12</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="H36" s="18" t="n">
+      <c r="H36" s="17" t="n">
         <f aca="false">H12*$Z12</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="I36" s="18" t="n">
+      <c r="I36" s="17" t="n">
         <f aca="false">I12*$Z12</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="J36" s="18" t="n">
+      <c r="J36" s="17" t="n">
         <f aca="false">J12*$Z12</f>
         <v>1.29991657679566</v>
       </c>
-      <c r="K36" s="18" t="n">
+      <c r="K36" s="17" t="n">
         <f aca="false">K12*$Z12</f>
         <v>1.29991657679566</v>
       </c>
-      <c r="L36" s="18" t="n">
+      <c r="L36" s="17" t="n">
         <f aca="false">L12*$Z12</f>
         <v>1.29991657679566</v>
       </c>
-      <c r="M36" s="18" t="n">
+      <c r="M36" s="17" t="n">
         <f aca="false">M12*$Z12</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="N36" s="18" t="n">
+      <c r="N36" s="17" t="n">
         <f aca="false">N12*$Z12</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="O36" s="18" t="n">
+      <c r="O36" s="17" t="n">
         <f aca="false">O12*$Z12</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="P36" s="18" t="n">
+      <c r="P36" s="17" t="n">
         <f aca="false">P12*$Z12</f>
         <v>1.29991657679566</v>
       </c>
-      <c r="Q36" s="18" t="n">
+      <c r="Q36" s="17" t="n">
         <f aca="false">Q12*$Z12</f>
         <v>1.29991657679566</v>
       </c>
-      <c r="R36" s="18" t="n">
+      <c r="R36" s="17" t="n">
         <f aca="false">R12*$Z12</f>
         <v>1.29991657679566</v>
       </c>
-      <c r="S36" s="18" t="n">
+      <c r="S36" s="17" t="n">
         <f aca="false">S12*$Z12</f>
         <v>-1.29991657679566</v>
       </c>
-      <c r="T36" s="22" t="n">
+      <c r="T36" s="21" t="n">
         <f aca="false">T12*$Z12</f>
         <v>1.29991657679566</v>
       </c>
-      <c r="W36" s="17" t="n">
+      <c r="W36" s="16" t="n">
         <f aca="false">AA12^2</f>
         <v>1.63420998400198E-005</v>
       </c>
-      <c r="X36" s="18" t="n">
+      <c r="X36" s="17" t="n">
         <f aca="false">AB12^2</f>
         <v>0.000165790061121049</v>
       </c>
-      <c r="Y36" s="18" t="n">
+      <c r="Y36" s="17" t="n">
         <f aca="false">AC12^2</f>
         <v>3.02758673174409E-005</v>
       </c>
-      <c r="Z36" s="18" t="n">
+      <c r="Z36" s="17" t="n">
         <f aca="false">AD12^2</f>
         <v>0.00023813291329245</v>
       </c>
-      <c r="AA36" s="22" t="n">
+      <c r="AA36" s="21" t="n">
         <f aca="false">AE12^2</f>
         <v>4.88500427651107E-005</v>
       </c>
@@ -10935,92 +10928,92 @@
       <c r="AH36" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AI36" s="16" t="n">
+      <c r="AI36" s="15" t="n">
         <v>0.04866396311316</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="17" t="n">
+      <c r="E37" s="16" t="n">
         <f aca="false">E13*$Z13</f>
         <v>0.175157795076773</v>
       </c>
-      <c r="F37" s="18" t="n">
+      <c r="F37" s="17" t="n">
         <f aca="false">F13*$Z13</f>
         <v>0.175157795076773</v>
       </c>
-      <c r="G37" s="18" t="n">
+      <c r="G37" s="17" t="n">
         <f aca="false">G13*$Z13</f>
         <v>-0.175157795076773</v>
       </c>
-      <c r="H37" s="18" t="n">
+      <c r="H37" s="17" t="n">
         <f aca="false">H13*$Z13</f>
         <v>-0.175157795076773</v>
       </c>
-      <c r="I37" s="18" t="n">
+      <c r="I37" s="17" t="n">
         <f aca="false">I13*$Z13</f>
         <v>-0.175157795076773</v>
       </c>
-      <c r="J37" s="18" t="n">
+      <c r="J37" s="17" t="n">
         <f aca="false">J13*$Z13</f>
         <v>-0.175157795076773</v>
       </c>
-      <c r="K37" s="18" t="n">
+      <c r="K37" s="17" t="n">
         <f aca="false">K13*$Z13</f>
         <v>-0.175157795076773</v>
       </c>
-      <c r="L37" s="18" t="n">
+      <c r="L37" s="17" t="n">
         <f aca="false">L13*$Z13</f>
         <v>-0.175157795076773</v>
       </c>
-      <c r="M37" s="18" t="n">
+      <c r="M37" s="17" t="n">
         <f aca="false">M13*$Z13</f>
         <v>0.175157795076773</v>
       </c>
-      <c r="N37" s="18" t="n">
+      <c r="N37" s="17" t="n">
         <f aca="false">N13*$Z13</f>
         <v>0.175157795076773</v>
       </c>
-      <c r="O37" s="18" t="n">
+      <c r="O37" s="17" t="n">
         <f aca="false">O13*$Z13</f>
         <v>0.175157795076773</v>
       </c>
-      <c r="P37" s="18" t="n">
+      <c r="P37" s="17" t="n">
         <f aca="false">P13*$Z13</f>
         <v>0.175157795076773</v>
       </c>
-      <c r="Q37" s="18" t="n">
+      <c r="Q37" s="17" t="n">
         <f aca="false">Q13*$Z13</f>
         <v>0.175157795076773</v>
       </c>
-      <c r="R37" s="18" t="n">
+      <c r="R37" s="17" t="n">
         <f aca="false">R13*$Z13</f>
         <v>0.175157795076773</v>
       </c>
-      <c r="S37" s="18" t="n">
+      <c r="S37" s="17" t="n">
         <f aca="false">S13*$Z13</f>
         <v>-0.175157795076773</v>
       </c>
-      <c r="T37" s="22" t="n">
+      <c r="T37" s="21" t="n">
         <f aca="false">T13*$Z13</f>
         <v>-0.175157795076773</v>
       </c>
-      <c r="W37" s="17" t="n">
+      <c r="W37" s="16" t="n">
         <f aca="false">AA13^2</f>
         <v>3.1681944665902E-005</v>
       </c>
-      <c r="X37" s="18" t="n">
+      <c r="X37" s="17" t="n">
         <f aca="false">AB13^2</f>
         <v>5.64582788578799E-010</v>
       </c>
-      <c r="Y37" s="18" t="n">
+      <c r="Y37" s="17" t="n">
         <f aca="false">AC13^2</f>
         <v>4.67492255826851E-006</v>
       </c>
-      <c r="Z37" s="18" t="n">
+      <c r="Z37" s="17" t="n">
         <f aca="false">AD13^2</f>
         <v>3.10102296817562E-007</v>
       </c>
-      <c r="AA37" s="22" t="n">
+      <c r="AA37" s="21" t="n">
         <f aca="false">AE13^2</f>
         <v>5.26745176048847E-005</v>
       </c>
@@ -11030,92 +11023,92 @@
       <c r="AH37" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AI37" s="16" t="n">
+      <c r="AI37" s="15" t="n">
         <v>0.049552802622077</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="17" t="n">
+      <c r="E38" s="16" t="n">
         <f aca="false">E14*$Z14</f>
         <v>-0.526138454871664</v>
       </c>
-      <c r="F38" s="18" t="n">
+      <c r="F38" s="17" t="n">
         <f aca="false">F14*$Z14</f>
         <v>-0.526138454871664</v>
       </c>
-      <c r="G38" s="18" t="n">
+      <c r="G38" s="17" t="n">
         <f aca="false">G14*$Z14</f>
         <v>0.526138454871664</v>
       </c>
-      <c r="H38" s="18" t="n">
+      <c r="H38" s="17" t="n">
         <f aca="false">H14*$Z14</f>
         <v>0.526138454871664</v>
       </c>
-      <c r="I38" s="18" t="n">
+      <c r="I38" s="17" t="n">
         <f aca="false">I14*$Z14</f>
         <v>-0.526138454871664</v>
       </c>
-      <c r="J38" s="18" t="n">
+      <c r="J38" s="17" t="n">
         <f aca="false">J14*$Z14</f>
         <v>0.526138454871664</v>
       </c>
-      <c r="K38" s="18" t="n">
+      <c r="K38" s="17" t="n">
         <f aca="false">K14*$Z14</f>
         <v>0.526138454871664</v>
       </c>
-      <c r="L38" s="18" t="n">
+      <c r="L38" s="17" t="n">
         <f aca="false">L14*$Z14</f>
         <v>-0.526138454871664</v>
       </c>
-      <c r="M38" s="18" t="n">
+      <c r="M38" s="17" t="n">
         <f aca="false">M14*$Z14</f>
         <v>-0.526138454871664</v>
       </c>
-      <c r="N38" s="18" t="n">
+      <c r="N38" s="17" t="n">
         <f aca="false">N14*$Z14</f>
         <v>0.526138454871664</v>
       </c>
-      <c r="O38" s="18" t="n">
+      <c r="O38" s="17" t="n">
         <f aca="false">O14*$Z14</f>
         <v>0.526138454871664</v>
       </c>
-      <c r="P38" s="18" t="n">
+      <c r="P38" s="17" t="n">
         <f aca="false">P14*$Z14</f>
         <v>-0.526138454871664</v>
       </c>
-      <c r="Q38" s="18" t="n">
+      <c r="Q38" s="17" t="n">
         <f aca="false">Q14*$Z14</f>
         <v>0.526138454871664</v>
       </c>
-      <c r="R38" s="18" t="n">
+      <c r="R38" s="17" t="n">
         <f aca="false">R14*$Z14</f>
         <v>0.526138454871664</v>
       </c>
-      <c r="S38" s="18" t="n">
+      <c r="S38" s="17" t="n">
         <f aca="false">S14*$Z14</f>
         <v>-0.526138454871664</v>
       </c>
-      <c r="T38" s="22" t="n">
+      <c r="T38" s="21" t="n">
         <f aca="false">T14*$Z14</f>
         <v>-0.526138454871664</v>
       </c>
-      <c r="W38" s="17" t="n">
+      <c r="W38" s="16" t="n">
         <f aca="false">AA14^2</f>
         <v>5.76818782962428E-005</v>
       </c>
-      <c r="X38" s="18" t="n">
+      <c r="X38" s="17" t="n">
         <f aca="false">AB14^2</f>
         <v>1.78697511207987E-005</v>
       </c>
-      <c r="Y38" s="18" t="n">
+      <c r="Y38" s="17" t="n">
         <f aca="false">AC14^2</f>
         <v>5.47255233517921E-005</v>
       </c>
-      <c r="Z38" s="18" t="n">
+      <c r="Z38" s="17" t="n">
         <f aca="false">AD14^2</f>
         <v>3.64981682674884E-005</v>
       </c>
-      <c r="AA38" s="22" t="n">
+      <c r="AA38" s="21" t="n">
         <f aca="false">AE14^2</f>
         <v>2.61443029973402E-006</v>
       </c>
@@ -11125,92 +11118,92 @@
       <c r="AH38" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AI38" s="16" t="n">
+      <c r="AI38" s="15" t="n">
         <v>0.051997111271596</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="17" t="n">
+      <c r="E39" s="16" t="n">
         <f aca="false">E15*$Z15</f>
         <v>0.175743170436638</v>
       </c>
-      <c r="F39" s="18" t="n">
+      <c r="F39" s="17" t="n">
         <f aca="false">F15*$Z15</f>
         <v>0.175743170436638</v>
       </c>
-      <c r="G39" s="18" t="n">
+      <c r="G39" s="17" t="n">
         <f aca="false">G15*$Z15</f>
         <v>-0.175743170436638</v>
       </c>
-      <c r="H39" s="18" t="n">
+      <c r="H39" s="17" t="n">
         <f aca="false">H15*$Z15</f>
         <v>0.175743170436638</v>
       </c>
-      <c r="I39" s="18" t="n">
+      <c r="I39" s="17" t="n">
         <f aca="false">I15*$Z15</f>
         <v>-0.175743170436638</v>
       </c>
-      <c r="J39" s="18" t="n">
+      <c r="J39" s="17" t="n">
         <f aca="false">J15*$Z15</f>
         <v>-0.175743170436638</v>
       </c>
-      <c r="K39" s="18" t="n">
+      <c r="K39" s="17" t="n">
         <f aca="false">K15*$Z15</f>
         <v>0.175743170436638</v>
       </c>
-      <c r="L39" s="18" t="n">
+      <c r="L39" s="17" t="n">
         <f aca="false">L15*$Z15</f>
         <v>-0.175743170436638</v>
       </c>
-      <c r="M39" s="18" t="n">
+      <c r="M39" s="17" t="n">
         <f aca="false">M15*$Z15</f>
         <v>-0.175743170436638</v>
       </c>
-      <c r="N39" s="18" t="n">
+      <c r="N39" s="17" t="n">
         <f aca="false">N15*$Z15</f>
         <v>0.175743170436638</v>
       </c>
-      <c r="O39" s="18" t="n">
+      <c r="O39" s="17" t="n">
         <f aca="false">O15*$Z15</f>
         <v>-0.175743170436638</v>
       </c>
-      <c r="P39" s="18" t="n">
+      <c r="P39" s="17" t="n">
         <f aca="false">P15*$Z15</f>
         <v>-0.175743170436638</v>
       </c>
-      <c r="Q39" s="18" t="n">
+      <c r="Q39" s="17" t="n">
         <f aca="false">Q15*$Z15</f>
         <v>0.175743170436638</v>
       </c>
-      <c r="R39" s="18" t="n">
+      <c r="R39" s="17" t="n">
         <f aca="false">R15*$Z15</f>
         <v>-0.175743170436638</v>
       </c>
-      <c r="S39" s="18" t="n">
+      <c r="S39" s="17" t="n">
         <f aca="false">S15*$Z15</f>
         <v>0.175743170436638</v>
       </c>
-      <c r="T39" s="22" t="n">
+      <c r="T39" s="21" t="n">
         <f aca="false">T15*$Z15</f>
         <v>0.175743170436638</v>
       </c>
-      <c r="W39" s="17" t="n">
+      <c r="W39" s="16" t="n">
         <f aca="false">AA15^2</f>
         <v>3.59630107763537E-005</v>
       </c>
-      <c r="X39" s="18" t="n">
+      <c r="X39" s="17" t="n">
         <f aca="false">AB15^2</f>
         <v>5.46042012136557E-007</v>
       </c>
-      <c r="Y39" s="18" t="n">
+      <c r="Y39" s="17" t="n">
         <f aca="false">AC15^2</f>
         <v>1.05080081323446E-005</v>
       </c>
-      <c r="Z39" s="18" t="n">
+      <c r="Z39" s="17" t="n">
         <f aca="false">AD15^2</f>
         <v>5.94744111148825E-007</v>
       </c>
-      <c r="AA39" s="22" t="n">
+      <c r="AA39" s="21" t="n">
         <f aca="false">AE15^2</f>
         <v>5.97278491872724E-005</v>
       </c>
@@ -11220,179 +11213,179 @@
       <c r="AH39" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AI39" s="16" t="n">
+      <c r="AI39" s="15" t="n">
         <v>0.050941614354758</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="17" t="n">
+      <c r="E40" s="16" t="n">
         <f aca="false">E16*$Z16</f>
         <v>-0.526269992842471</v>
       </c>
-      <c r="F40" s="18" t="n">
+      <c r="F40" s="17" t="n">
         <f aca="false">F16*$Z16</f>
         <v>-0.526269992842471</v>
       </c>
-      <c r="G40" s="18" t="n">
+      <c r="G40" s="17" t="n">
         <f aca="false">G16*$Z16</f>
         <v>0.526269992842471</v>
       </c>
-      <c r="H40" s="18" t="n">
+      <c r="H40" s="17" t="n">
         <f aca="false">H16*$Z16</f>
         <v>-0.526269992842471</v>
       </c>
-      <c r="I40" s="18" t="n">
+      <c r="I40" s="17" t="n">
         <f aca="false">I16*$Z16</f>
         <v>-0.526269992842471</v>
       </c>
-      <c r="J40" s="18" t="n">
+      <c r="J40" s="17" t="n">
         <f aca="false">J16*$Z16</f>
         <v>0.526269992842471</v>
       </c>
-      <c r="K40" s="18" t="n">
+      <c r="K40" s="17" t="n">
         <f aca="false">K16*$Z16</f>
         <v>-0.526269992842471</v>
       </c>
-      <c r="L40" s="18" t="n">
+      <c r="L40" s="17" t="n">
         <f aca="false">L16*$Z16</f>
         <v>-0.526269992842471</v>
       </c>
-      <c r="M40" s="18" t="n">
+      <c r="M40" s="17" t="n">
         <f aca="false">M16*$Z16</f>
         <v>0.526269992842471</v>
       </c>
-      <c r="N40" s="18" t="n">
+      <c r="N40" s="17" t="n">
         <f aca="false">N16*$Z16</f>
         <v>0.526269992842471</v>
       </c>
-      <c r="O40" s="18" t="n">
+      <c r="O40" s="17" t="n">
         <f aca="false">O16*$Z16</f>
         <v>-0.526269992842471</v>
       </c>
-      <c r="P40" s="18" t="n">
+      <c r="P40" s="17" t="n">
         <f aca="false">P16*$Z16</f>
         <v>0.526269992842471</v>
       </c>
-      <c r="Q40" s="18" t="n">
+      <c r="Q40" s="17" t="n">
         <f aca="false">Q16*$Z16</f>
         <v>0.526269992842471</v>
       </c>
-      <c r="R40" s="18" t="n">
+      <c r="R40" s="17" t="n">
         <f aca="false">R16*$Z16</f>
         <v>-0.526269992842471</v>
       </c>
-      <c r="S40" s="18" t="n">
+      <c r="S40" s="17" t="n">
         <f aca="false">S16*$Z16</f>
         <v>0.526269992842471</v>
       </c>
-      <c r="T40" s="22" t="n">
+      <c r="T40" s="21" t="n">
         <f aca="false">T16*$Z16</f>
         <v>0.526269992842471</v>
       </c>
-      <c r="W40" s="17" t="n">
+      <c r="W40" s="16" t="n">
         <f aca="false">AA16^2</f>
         <v>6.07350424014649E-005</v>
       </c>
-      <c r="X40" s="18" t="n">
+      <c r="X40" s="17" t="n">
         <f aca="false">AB16^2</f>
         <v>1.88464587212835E-005</v>
       </c>
-      <c r="Y40" s="18" t="n">
+      <c r="Y40" s="17" t="n">
         <f aca="false">AC16^2</f>
         <v>6.03436240531522E-005</v>
       </c>
-      <c r="Z40" s="18" t="n">
+      <c r="Z40" s="17" t="n">
         <f aca="false">AD16^2</f>
         <v>3.52019391656271E-005</v>
       </c>
-      <c r="AA40" s="22" t="n">
+      <c r="AA40" s="21" t="n">
         <f aca="false">AE16^2</f>
         <v>2.45460593064377E-006</v>
       </c>
-      <c r="AI40" s="16"/>
+      <c r="AI40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="17" t="n">
+      <c r="E41" s="16" t="n">
         <f aca="false">E17*$Z17</f>
         <v>0.175836378169029</v>
       </c>
-      <c r="F41" s="18" t="n">
+      <c r="F41" s="17" t="n">
         <f aca="false">F17*$Z17</f>
         <v>0.175836378169029</v>
       </c>
-      <c r="G41" s="18" t="n">
+      <c r="G41" s="17" t="n">
         <f aca="false">G17*$Z17</f>
         <v>0.175836378169029</v>
       </c>
-      <c r="H41" s="18" t="n">
+      <c r="H41" s="17" t="n">
         <f aca="false">H17*$Z17</f>
         <v>-0.175836378169029</v>
       </c>
-      <c r="I41" s="18" t="n">
+      <c r="I41" s="17" t="n">
         <f aca="false">I17*$Z17</f>
         <v>-0.175836378169029</v>
       </c>
-      <c r="J41" s="18" t="n">
+      <c r="J41" s="17" t="n">
         <f aca="false">J17*$Z17</f>
         <v>0.175836378169029</v>
       </c>
-      <c r="K41" s="18" t="n">
+      <c r="K41" s="17" t="n">
         <f aca="false">K17*$Z17</f>
         <v>-0.175836378169029</v>
       </c>
-      <c r="L41" s="18" t="n">
+      <c r="L41" s="17" t="n">
         <f aca="false">L17*$Z17</f>
         <v>-0.175836378169029</v>
       </c>
-      <c r="M41" s="18" t="n">
+      <c r="M41" s="17" t="n">
         <f aca="false">M17*$Z17</f>
         <v>-0.175836378169029</v>
       </c>
-      <c r="N41" s="18" t="n">
+      <c r="N41" s="17" t="n">
         <f aca="false">N17*$Z17</f>
         <v>-0.175836378169029</v>
       </c>
-      <c r="O41" s="18" t="n">
+      <c r="O41" s="17" t="n">
         <f aca="false">O17*$Z17</f>
         <v>0.175836378169029</v>
       </c>
-      <c r="P41" s="18" t="n">
+      <c r="P41" s="17" t="n">
         <f aca="false">P17*$Z17</f>
         <v>-0.175836378169029</v>
       </c>
-      <c r="Q41" s="18" t="n">
+      <c r="Q41" s="17" t="n">
         <f aca="false">Q17*$Z17</f>
         <v>-0.175836378169029</v>
       </c>
-      <c r="R41" s="18" t="n">
+      <c r="R41" s="17" t="n">
         <f aca="false">R17*$Z17</f>
         <v>0.175836378169029</v>
       </c>
-      <c r="S41" s="18" t="n">
+      <c r="S41" s="17" t="n">
         <f aca="false">S17*$Z17</f>
         <v>0.175836378169029</v>
       </c>
-      <c r="T41" s="22" t="n">
+      <c r="T41" s="21" t="n">
         <f aca="false">T17*$Z17</f>
         <v>0.175836378169029</v>
       </c>
-      <c r="W41" s="17" t="n">
+      <c r="W41" s="16" t="n">
         <f aca="false">AA17^2</f>
         <v>3.69458834702473E-005</v>
       </c>
-      <c r="X41" s="18" t="n">
+      <c r="X41" s="17" t="n">
         <f aca="false">AB17^2</f>
         <v>4.28792036784043E-007</v>
       </c>
-      <c r="Y41" s="18" t="n">
+      <c r="Y41" s="17" t="n">
         <f aca="false">AC17^2</f>
         <v>9.41571866481096E-006</v>
       </c>
-      <c r="Z41" s="18" t="n">
+      <c r="Z41" s="17" t="n">
         <f aca="false">AD17^2</f>
         <v>4.94459684318614E-007</v>
       </c>
-      <c r="AA41" s="22" t="n">
+      <c r="AA41" s="21" t="n">
         <f aca="false">AE17^2</f>
         <v>6.06656615448507E-005</v>
       </c>
@@ -11402,92 +11395,92 @@
       <c r="AH41" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AI41" s="16" t="n">
+      <c r="AI41" s="15" t="n">
         <v>0.24398644519749</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="17" t="n">
+      <c r="E42" s="16" t="n">
         <f aca="false">E18*$Z18</f>
         <v>-0.526155545782546</v>
       </c>
-      <c r="F42" s="18" t="n">
+      <c r="F42" s="17" t="n">
         <f aca="false">F18*$Z18</f>
         <v>-0.526155545782546</v>
       </c>
-      <c r="G42" s="18" t="n">
+      <c r="G42" s="17" t="n">
         <f aca="false">G18*$Z18</f>
         <v>-0.526155545782546</v>
       </c>
-      <c r="H42" s="18" t="n">
+      <c r="H42" s="17" t="n">
         <f aca="false">H18*$Z18</f>
         <v>0.526155545782546</v>
       </c>
-      <c r="I42" s="18" t="n">
+      <c r="I42" s="17" t="n">
         <f aca="false">I18*$Z18</f>
         <v>-0.526155545782546</v>
       </c>
-      <c r="J42" s="18" t="n">
+      <c r="J42" s="17" t="n">
         <f aca="false">J18*$Z18</f>
         <v>-0.526155545782546</v>
       </c>
-      <c r="K42" s="18" t="n">
+      <c r="K42" s="17" t="n">
         <f aca="false">K18*$Z18</f>
         <v>0.526155545782546</v>
       </c>
-      <c r="L42" s="18" t="n">
+      <c r="L42" s="17" t="n">
         <f aca="false">L18*$Z18</f>
         <v>-0.526155545782546</v>
       </c>
-      <c r="M42" s="18" t="n">
+      <c r="M42" s="17" t="n">
         <f aca="false">M18*$Z18</f>
         <v>0.526155545782546</v>
       </c>
-      <c r="N42" s="18" t="n">
+      <c r="N42" s="17" t="n">
         <f aca="false">N18*$Z18</f>
         <v>-0.526155545782546</v>
       </c>
-      <c r="O42" s="18" t="n">
+      <c r="O42" s="17" t="n">
         <f aca="false">O18*$Z18</f>
         <v>0.526155545782546</v>
       </c>
-      <c r="P42" s="18" t="n">
+      <c r="P42" s="17" t="n">
         <f aca="false">P18*$Z18</f>
         <v>0.526155545782546</v>
       </c>
-      <c r="Q42" s="18" t="n">
+      <c r="Q42" s="17" t="n">
         <f aca="false">Q18*$Z18</f>
         <v>-0.526155545782546</v>
       </c>
-      <c r="R42" s="18" t="n">
+      <c r="R42" s="17" t="n">
         <f aca="false">R18*$Z18</f>
         <v>0.526155545782546</v>
       </c>
-      <c r="S42" s="18" t="n">
+      <c r="S42" s="17" t="n">
         <f aca="false">S18*$Z18</f>
         <v>0.526155545782546</v>
       </c>
-      <c r="T42" s="22" t="n">
+      <c r="T42" s="21" t="n">
         <f aca="false">T18*$Z18</f>
         <v>0.526155545782546</v>
       </c>
-      <c r="W42" s="17" t="n">
+      <c r="W42" s="16" t="n">
         <f aca="false">AA18^2</f>
         <v>5.74225642899178E-005</v>
       </c>
-      <c r="X42" s="18" t="n">
+      <c r="X42" s="17" t="n">
         <f aca="false">AB18^2</f>
         <v>1.91304805049214E-005</v>
       </c>
-      <c r="Y42" s="18" t="n">
+      <c r="Y42" s="17" t="n">
         <f aca="false">AC18^2</f>
         <v>5.61662047059514E-005</v>
       </c>
-      <c r="Z42" s="18" t="n">
+      <c r="Z42" s="17" t="n">
         <f aca="false">AD18^2</f>
         <v>3.76794872900322E-005</v>
       </c>
-      <c r="AA42" s="22" t="n">
+      <c r="AA42" s="21" t="n">
         <f aca="false">AE18^2</f>
         <v>2.8263166445195E-006</v>
       </c>
@@ -11497,448 +11490,448 @@
       <c r="AH42" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AI42" s="16" t="n">
+      <c r="AI42" s="15" t="n">
         <v>0.24493083717571</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="17" t="n">
+      <c r="E43" s="16" t="n">
         <f aca="false">E19*$Z19</f>
         <v>0.175716984032616</v>
       </c>
-      <c r="F43" s="18" t="n">
+      <c r="F43" s="17" t="n">
         <f aca="false">F19*$Z19</f>
         <v>0.175716984032616</v>
       </c>
-      <c r="G43" s="18" t="n">
+      <c r="G43" s="17" t="n">
         <f aca="false">G19*$Z19</f>
         <v>0.175716984032616</v>
       </c>
-      <c r="H43" s="18" t="n">
+      <c r="H43" s="17" t="n">
         <f aca="false">H19*$Z19</f>
         <v>0.175716984032616</v>
       </c>
-      <c r="I43" s="18" t="n">
+      <c r="I43" s="17" t="n">
         <f aca="false">I19*$Z19</f>
         <v>-0.175716984032616</v>
       </c>
-      <c r="J43" s="18" t="n">
+      <c r="J43" s="17" t="n">
         <f aca="false">J19*$Z19</f>
         <v>0.175716984032616</v>
       </c>
-      <c r="K43" s="18" t="n">
+      <c r="K43" s="17" t="n">
         <f aca="false">K19*$Z19</f>
         <v>0.175716984032616</v>
       </c>
-      <c r="L43" s="18" t="n">
+      <c r="L43" s="17" t="n">
         <f aca="false">L19*$Z19</f>
         <v>-0.175716984032616</v>
       </c>
-      <c r="M43" s="18" t="n">
+      <c r="M43" s="17" t="n">
         <f aca="false">M19*$Z19</f>
         <v>0.175716984032616</v>
       </c>
-      <c r="N43" s="18" t="n">
+      <c r="N43" s="17" t="n">
         <f aca="false">N19*$Z19</f>
         <v>-0.175716984032616</v>
       </c>
-      <c r="O43" s="18" t="n">
+      <c r="O43" s="17" t="n">
         <f aca="false">O19*$Z19</f>
         <v>-0.175716984032616</v>
       </c>
-      <c r="P43" s="18" t="n">
+      <c r="P43" s="17" t="n">
         <f aca="false">P19*$Z19</f>
         <v>0.175716984032616</v>
       </c>
-      <c r="Q43" s="18" t="n">
+      <c r="Q43" s="17" t="n">
         <f aca="false">Q19*$Z19</f>
         <v>-0.175716984032616</v>
       </c>
-      <c r="R43" s="18" t="n">
+      <c r="R43" s="17" t="n">
         <f aca="false">R19*$Z19</f>
         <v>-0.175716984032616</v>
       </c>
-      <c r="S43" s="18" t="n">
+      <c r="S43" s="17" t="n">
         <f aca="false">S19*$Z19</f>
         <v>-0.175716984032616</v>
       </c>
-      <c r="T43" s="22" t="n">
+      <c r="T43" s="21" t="n">
         <f aca="false">T19*$Z19</f>
         <v>-0.175716984032616</v>
       </c>
-      <c r="W43" s="17" t="n">
+      <c r="W43" s="16" t="n">
         <f aca="false">AA19^2</f>
         <v>3.84115681858517E-005</v>
       </c>
-      <c r="X43" s="18" t="n">
+      <c r="X43" s="17" t="n">
         <f aca="false">AB19^2</f>
         <v>3.59884862441416E-007</v>
       </c>
-      <c r="Y43" s="18" t="n">
+      <c r="Y43" s="17" t="n">
         <f aca="false">AC19^2</f>
         <v>8.78599370474253E-006</v>
       </c>
-      <c r="Z43" s="18" t="n">
+      <c r="Z43" s="17" t="n">
         <f aca="false">AD19^2</f>
         <v>5.55040110284786E-007</v>
       </c>
-      <c r="AA43" s="22" t="n">
+      <c r="AA43" s="21" t="n">
         <f aca="false">AE19^2</f>
         <v>6.11040850177729E-005</v>
       </c>
-      <c r="AC43" s="39" t="s">
+      <c r="AC43" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="AD43" s="39"/>
+      <c r="AD43" s="38"/>
       <c r="AG43" s="0" t="s">
         <v>55</v>
       </c>
       <c r="AH43" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AI43" s="16" t="n">
+      <c r="AI43" s="15" t="n">
         <v>0.25298594522527</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="24" t="n">
+      <c r="E44" s="23" t="n">
         <f aca="false">E20*$Z20</f>
         <v>-0.526157309144761</v>
       </c>
-      <c r="F44" s="25" t="n">
+      <c r="F44" s="24" t="n">
         <f aca="false">F20*$Z20</f>
         <v>-0.526157309144761</v>
       </c>
-      <c r="G44" s="25" t="n">
+      <c r="G44" s="24" t="n">
         <f aca="false">G20*$Z20</f>
         <v>-0.526157309144761</v>
       </c>
-      <c r="H44" s="25" t="n">
+      <c r="H44" s="24" t="n">
         <f aca="false">H20*$Z20</f>
         <v>-0.526157309144761</v>
       </c>
-      <c r="I44" s="25" t="n">
+      <c r="I44" s="24" t="n">
         <f aca="false">I20*$Z20</f>
         <v>-0.526157309144761</v>
       </c>
-      <c r="J44" s="25" t="n">
+      <c r="J44" s="24" t="n">
         <f aca="false">J20*$Z20</f>
         <v>-0.526157309144761</v>
       </c>
-      <c r="K44" s="25" t="n">
+      <c r="K44" s="24" t="n">
         <f aca="false">K20*$Z20</f>
         <v>-0.526157309144761</v>
       </c>
-      <c r="L44" s="25" t="n">
+      <c r="L44" s="24" t="n">
         <f aca="false">L20*$Z20</f>
         <v>-0.526157309144761</v>
       </c>
-      <c r="M44" s="25" t="n">
+      <c r="M44" s="24" t="n">
         <f aca="false">M20*$Z20</f>
         <v>-0.526157309144761</v>
       </c>
-      <c r="N44" s="25" t="n">
+      <c r="N44" s="24" t="n">
         <f aca="false">N20*$Z20</f>
         <v>-0.526157309144761</v>
       </c>
-      <c r="O44" s="25" t="n">
+      <c r="O44" s="24" t="n">
         <f aca="false">O20*$Z20</f>
         <v>-0.526157309144761</v>
       </c>
-      <c r="P44" s="25" t="n">
+      <c r="P44" s="24" t="n">
         <f aca="false">P20*$Z20</f>
         <v>-0.526157309144761</v>
       </c>
-      <c r="Q44" s="25" t="n">
+      <c r="Q44" s="24" t="n">
         <f aca="false">Q20*$Z20</f>
         <v>-0.526157309144761</v>
       </c>
-      <c r="R44" s="25" t="n">
+      <c r="R44" s="24" t="n">
         <f aca="false">R20*$Z20</f>
         <v>-0.526157309144761</v>
       </c>
-      <c r="S44" s="25" t="n">
+      <c r="S44" s="24" t="n">
         <f aca="false">S20*$Z20</f>
         <v>-0.526157309144761</v>
       </c>
-      <c r="T44" s="29" t="n">
+      <c r="T44" s="28" t="n">
         <f aca="false">T20*$Z20</f>
         <v>-0.526157309144761</v>
       </c>
-      <c r="W44" s="24" t="n">
+      <c r="W44" s="23" t="n">
         <f aca="false">AA20^2</f>
         <v>6.12062471319828E-005</v>
       </c>
-      <c r="X44" s="25" t="n">
+      <c r="X44" s="24" t="n">
         <f aca="false">AB20^2</f>
         <v>1.98375327281933E-005</v>
       </c>
-      <c r="Y44" s="25" t="n">
+      <c r="Y44" s="24" t="n">
         <f aca="false">AC20^2</f>
         <v>5.86056416296372E-005</v>
       </c>
-      <c r="Z44" s="25" t="n">
+      <c r="Z44" s="24" t="n">
         <f aca="false">AD20^2</f>
         <v>3.86885274122882E-005</v>
       </c>
-      <c r="AA44" s="29" t="n">
+      <c r="AA44" s="28" t="n">
         <f aca="false">AE20^2</f>
         <v>2.55381408067877E-006</v>
       </c>
-      <c r="AC44" s="39"/>
-      <c r="AD44" s="39"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="38"/>
       <c r="AG44" s="0" t="s">
         <v>55</v>
       </c>
       <c r="AH44" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AI44" s="16" t="n">
+      <c r="AI44" s="15" t="n">
         <v>0.25181934336981</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="10" t="n">
+      <c r="E45" s="9" t="n">
         <f aca="false">SUM(E29:E44)</f>
         <v>-9.01837208208245</v>
       </c>
-      <c r="F45" s="41" t="n">
+      <c r="F45" s="40" t="n">
         <f aca="false">SUM(F29:F44)</f>
         <v>6.21383813222968</v>
       </c>
-      <c r="G45" s="41" t="n">
+      <c r="G45" s="40" t="n">
         <f aca="false">SUM(G29:G44)</f>
         <v>0.00111602097854091</v>
       </c>
-      <c r="H45" s="41" t="n">
+      <c r="H45" s="40" t="n">
         <f aca="false">SUM(H29:H44)</f>
         <v>-0.000227572725005731</v>
       </c>
-      <c r="I45" s="41" t="n">
+      <c r="I45" s="40" t="n">
         <f aca="false">SUM(I29:I44)</f>
         <v>-5.58944825461829</v>
       </c>
-      <c r="J45" s="41" t="n">
+      <c r="J45" s="40" t="n">
         <f aca="false">SUM(J29:J44)</f>
         <v>0.000379957971580858</v>
       </c>
-      <c r="K45" s="41" t="n">
+      <c r="K45" s="40" t="n">
         <f aca="false">SUM(K29:K44)</f>
         <v>0.000892932505864641</v>
       </c>
-      <c r="L45" s="41" t="n">
+      <c r="L45" s="40" t="n">
         <f aca="false">SUM(L29:L44)</f>
         <v>-0.0249030060947042</v>
       </c>
-      <c r="M45" s="41" t="n">
+      <c r="M45" s="40" t="n">
         <f aca="false">SUM(M29:M44)</f>
         <v>-0.00098116840311735</v>
       </c>
-      <c r="N45" s="41" t="n">
+      <c r="N45" s="40" t="n">
         <f aca="false">SUM(N29:N44)</f>
         <v>-0.000342215095453291</v>
       </c>
-      <c r="O45" s="41" t="n">
+      <c r="O45" s="40" t="n">
         <f aca="false">SUM(O29:O44)</f>
         <v>-0.000993912888447523</v>
       </c>
-      <c r="P45" s="41" t="n">
+      <c r="P45" s="40" t="n">
         <f aca="false">SUM(P29:P44)</f>
         <v>-0.000168821372253603</v>
       </c>
-      <c r="Q45" s="41" t="n">
+      <c r="Q45" s="40" t="n">
         <f aca="false">SUM(Q29:Q44)</f>
         <v>-0.000771392707358598</v>
       </c>
-      <c r="R45" s="41" t="n">
+      <c r="R45" s="40" t="n">
         <f aca="false">SUM(R29:R44)</f>
         <v>-0.000204652224501722</v>
       </c>
-      <c r="S45" s="41" t="n">
+      <c r="S45" s="40" t="n">
         <f aca="false">SUM(S29:S44)</f>
         <v>0.000658097310868411</v>
       </c>
-      <c r="T45" s="42" t="n">
+      <c r="T45" s="41" t="n">
         <f aca="false">SUM(T29:T44)</f>
         <v>0.00101099089886914</v>
       </c>
-      <c r="W45" s="43" t="s">
+      <c r="W45" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="44" t="n">
+      <c r="X45" s="42"/>
+      <c r="Y45" s="43" t="n">
         <f aca="false">SUM(W29:AA44)</f>
         <v>0.00392104444849358</v>
       </c>
-      <c r="AC45" s="45" t="n">
+      <c r="AC45" s="44" t="n">
         <f aca="false">SUM(F47:T47,Y45)</f>
         <v>21.833403141823</v>
       </c>
-      <c r="AD45" s="45"/>
+      <c r="AD45" s="44"/>
       <c r="AG45" s="0" t="s">
         <v>55</v>
       </c>
       <c r="AH45" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AI45" s="16" t="n">
+      <c r="AI45" s="15" t="n">
         <v>0.25009721682129</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="17" t="n">
+      <c r="E46" s="16" t="n">
         <f aca="false">E45/16</f>
         <v>-0.563648255130153</v>
       </c>
-      <c r="F46" s="46" t="n">
+      <c r="F46" s="45" t="n">
         <f aca="false">F45/16</f>
         <v>0.388364883264355</v>
       </c>
-      <c r="G46" s="46" t="n">
+      <c r="G46" s="45" t="n">
         <f aca="false">G45/16</f>
         <v>6.97513111588069E-005</v>
       </c>
-      <c r="H46" s="46" t="n">
+      <c r="H46" s="45" t="n">
         <f aca="false">H45/16</f>
         <v>-1.42232953128582E-005</v>
       </c>
-      <c r="I46" s="46" t="n">
+      <c r="I46" s="45" t="n">
         <f aca="false">I45/16</f>
         <v>-0.349340515913643</v>
       </c>
-      <c r="J46" s="46" t="n">
+      <c r="J46" s="45" t="n">
         <f aca="false">J45/16</f>
         <v>2.37473732238036E-005</v>
       </c>
-      <c r="K46" s="46" t="n">
+      <c r="K46" s="45" t="n">
         <f aca="false">K45/16</f>
         <v>5.58082816165401E-005</v>
       </c>
-      <c r="L46" s="46" t="n">
+      <c r="L46" s="45" t="n">
         <f aca="false">L45/16</f>
         <v>-0.00155643788091901</v>
       </c>
-      <c r="M46" s="46" t="n">
+      <c r="M46" s="45" t="n">
         <f aca="false">M45/16</f>
         <v>-6.13230251948343E-005</v>
       </c>
-      <c r="N46" s="46" t="n">
+      <c r="N46" s="45" t="n">
         <f aca="false">N45/16</f>
         <v>-2.13884434658307E-005</v>
       </c>
-      <c r="O46" s="46" t="n">
+      <c r="O46" s="45" t="n">
         <f aca="false">O45/16</f>
         <v>-6.21195555279702E-005</v>
       </c>
-      <c r="P46" s="46" t="n">
+      <c r="P46" s="45" t="n">
         <f aca="false">P45/16</f>
         <v>-1.05513357658502E-005</v>
       </c>
-      <c r="Q46" s="46" t="n">
+      <c r="Q46" s="45" t="n">
         <f aca="false">Q45/16</f>
         <v>-4.82120442099124E-005</v>
       </c>
-      <c r="R46" s="46" t="n">
+      <c r="R46" s="45" t="n">
         <f aca="false">R45/16</f>
         <v>-1.27907640313576E-005</v>
       </c>
-      <c r="S46" s="46" t="n">
+      <c r="S46" s="45" t="n">
         <f aca="false">S45/16</f>
         <v>4.11310819292757E-005</v>
       </c>
-      <c r="T46" s="47" t="n">
+      <c r="T46" s="46" t="n">
         <f aca="false">T45/16</f>
         <v>6.31869311793209E-005</v>
       </c>
-      <c r="V46" s="48"/>
-      <c r="W46" s="49" t="s">
+      <c r="V46" s="47"/>
+      <c r="W46" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="X46" s="49"/>
-      <c r="Y46" s="50" t="n">
+      <c r="X46" s="48"/>
+      <c r="Y46" s="49" t="n">
         <f aca="false">(Y45/AC45)*100</f>
         <v>0.0179589247861348</v>
       </c>
-      <c r="AC46" s="45"/>
-      <c r="AD46" s="45"/>
-      <c r="AI46" s="16"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="44"/>
+      <c r="AI46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="46" t="n">
+      <c r="E47" s="16"/>
+      <c r="F47" s="45" t="n">
         <f aca="false">16*5*(F46^2)</f>
         <v>12.0661826042349</v>
       </c>
-      <c r="G47" s="46" t="n">
+      <c r="G47" s="45" t="n">
         <f aca="false">16*5*(G46^2)</f>
         <v>3.89219632669816E-007</v>
       </c>
-      <c r="H47" s="46" t="n">
+      <c r="H47" s="45" t="n">
         <f aca="false">16*5*(H46^2)</f>
         <v>1.61841703645419E-008</v>
       </c>
-      <c r="I47" s="46" t="n">
+      <c r="I47" s="45" t="n">
         <f aca="false">16*5*(I46^2)</f>
         <v>9.76310368470483</v>
       </c>
-      <c r="J47" s="46" t="n">
+      <c r="J47" s="45" t="n">
         <f aca="false">16*5*(J46^2)</f>
         <v>4.51150188024499E-008</v>
       </c>
-      <c r="K47" s="46" t="n">
+      <c r="K47" s="45" t="n">
         <f aca="false">16*5*(K46^2)</f>
         <v>2.49165143759283E-007</v>
       </c>
-      <c r="L47" s="46" t="n">
+      <c r="L47" s="45" t="n">
         <f aca="false">16*5*(L46^2)</f>
         <v>0.000193799910172773</v>
       </c>
-      <c r="M47" s="46" t="n">
+      <c r="M47" s="45" t="n">
         <f aca="false">16*5*(M46^2)</f>
         <v>3.00841073523703E-007</v>
       </c>
-      <c r="N47" s="46" t="n">
+      <c r="N47" s="45" t="n">
         <f aca="false">16*5*(N46^2)</f>
         <v>3.65972411112828E-008</v>
       </c>
-      <c r="O47" s="46" t="n">
+      <c r="O47" s="45" t="n">
         <f aca="false">16*5*(O46^2)</f>
         <v>3.08707134319406E-007</v>
       </c>
-      <c r="P47" s="46" t="n">
+      <c r="P47" s="45" t="n">
         <f aca="false">16*5*(P46^2)</f>
         <v>8.9064549154967E-009</v>
       </c>
-      <c r="Q47" s="46" t="n">
+      <c r="Q47" s="45" t="n">
         <f aca="false">16*5*(Q46^2)</f>
         <v>1.85952096551884E-007</v>
       </c>
-      <c r="R47" s="46" t="n">
+      <c r="R47" s="45" t="n">
         <f aca="false">16*5*(R46^2)</f>
         <v>1.30882915604698E-008</v>
       </c>
-      <c r="S47" s="46" t="n">
+      <c r="S47" s="45" t="n">
         <f aca="false">16*5*(S46^2)</f>
         <v>1.35341272053823E-007</v>
       </c>
-      <c r="T47" s="47" t="n">
+      <c r="T47" s="46" t="n">
         <f aca="false">16*5*(T46^2)</f>
         <v>3.19407061748819E-007</v>
       </c>
-      <c r="W47" s="51" t="s">
+      <c r="W47" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="X47" s="51"/>
-      <c r="Y47" s="52" t="n">
+      <c r="X47" s="50"/>
+      <c r="Y47" s="51" t="n">
         <f aca="false">Y45/(2^2*(4))</f>
         <v>0.000245065278030849</v>
       </c>
@@ -11948,234 +11941,234 @@
       <c r="AH47" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AI47" s="16" t="n">
+      <c r="AI47" s="15" t="n">
         <v>0.049663907560691</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="53" t="s">
+      <c r="D48" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="54" t="n">
+      <c r="E48" s="23"/>
+      <c r="F48" s="53" t="n">
         <f aca="false">(F47/$AC$45)*100</f>
         <v>55.2647817926355</v>
       </c>
-      <c r="G48" s="54" t="n">
+      <c r="G48" s="53" t="n">
         <f aca="false">(G47/$AC$45)*100</f>
         <v>1.78267964064771E-006</v>
       </c>
-      <c r="H48" s="54" t="n">
+      <c r="H48" s="53" t="n">
         <f aca="false">(H47/$AC$45)*100</f>
         <v>7.41257341304726E-008</v>
       </c>
-      <c r="I48" s="54" t="n">
+      <c r="I48" s="53" t="n">
         <f aca="false">(I47/$AC$45)*100</f>
         <v>44.7163624529202</v>
       </c>
-      <c r="J48" s="54" t="n">
+      <c r="J48" s="53" t="n">
         <f aca="false">(J47/$AC$45)*100</f>
         <v>2.06633013229302E-007</v>
       </c>
-      <c r="K48" s="54" t="n">
+      <c r="K48" s="53" t="n">
         <f aca="false">(K47/$AC$45)*100</f>
         <v>1.14121075006395E-006</v>
       </c>
-      <c r="L48" s="54" t="n">
+      <c r="L48" s="53" t="n">
         <f aca="false">(L47/$AC$45)*100</f>
         <v>0.000887630338311941</v>
       </c>
-      <c r="M48" s="54" t="n">
+      <c r="M48" s="53" t="n">
         <f aca="false">(M47/$AC$45)*100</f>
         <v>1.37789364108533E-006</v>
       </c>
-      <c r="N48" s="54" t="n">
+      <c r="N48" s="53" t="n">
         <f aca="false">(N47/$AC$45)*100</f>
         <v>1.67620415716041E-007</v>
       </c>
-      <c r="O48" s="54" t="n">
+      <c r="O48" s="53" t="n">
         <f aca="false">(O47/$AC$45)*100</f>
         <v>1.4139212852625E-006</v>
       </c>
-      <c r="P48" s="54" t="n">
+      <c r="P48" s="53" t="n">
         <f aca="false">(P47/$AC$45)*100</f>
         <v>4.07927928488433E-008</v>
       </c>
-      <c r="Q48" s="54" t="n">
+      <c r="Q48" s="53" t="n">
         <f aca="false">(Q47/$AC$45)*100</f>
         <v>8.51686268714029E-007</v>
       </c>
-      <c r="R48" s="54" t="n">
+      <c r="R48" s="53" t="n">
         <f aca="false">(R47/$AC$45)*100</f>
         <v>5.9946181891354E-008</v>
       </c>
-      <c r="S48" s="54" t="n">
+      <c r="S48" s="53" t="n">
         <f aca="false">(S47/$AC$45)*100</f>
         <v>6.19881706826409E-007</v>
       </c>
-      <c r="T48" s="55" t="n">
+      <c r="T48" s="54" t="n">
         <f aca="false">(T47/$AC$45)*100</f>
         <v>1.46292842977364E-006</v>
       </c>
-      <c r="V48" s="48"/>
-      <c r="W48" s="48"/>
-      <c r="X48" s="48"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="47"/>
+      <c r="X48" s="47"/>
       <c r="AG48" s="0" t="s">
         <v>63</v>
       </c>
       <c r="AH48" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AI48" s="16" t="n">
+      <c r="AI48" s="15" t="n">
         <v>0.04866396311316</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="56" t="n">
+      <c r="E49" s="55" t="n">
         <f aca="false">E46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.564229116707991</v>
       </c>
-      <c r="F49" s="57" t="n">
+      <c r="F49" s="56" t="n">
         <f aca="false">F46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.387784021686517</v>
       </c>
-      <c r="G49" s="57" t="n">
+      <c r="G49" s="56" t="n">
         <f aca="false">G46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.000511110266679169</v>
       </c>
-      <c r="H49" s="57" t="n">
+      <c r="H49" s="56" t="n">
         <f aca="false">H46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.000595084873150834</v>
       </c>
-      <c r="I49" s="57" t="n">
+      <c r="I49" s="56" t="n">
         <f aca="false">I46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.349921377491481</v>
       </c>
-      <c r="J49" s="57" t="n">
+      <c r="J49" s="56" t="n">
         <f aca="false">J46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.000557114204614172</v>
       </c>
-      <c r="K49" s="57" t="n">
+      <c r="K49" s="56" t="n">
         <f aca="false">K46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.000525053296221436</v>
       </c>
-      <c r="L49" s="57" t="n">
+      <c r="L49" s="56" t="n">
         <f aca="false">L46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.00213729945875699</v>
       </c>
-      <c r="M49" s="57" t="n">
+      <c r="M49" s="56" t="n">
         <f aca="false">M46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.00064218460303281</v>
       </c>
-      <c r="N49" s="57" t="n">
+      <c r="N49" s="56" t="n">
         <f aca="false">N46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.000602250021303807</v>
       </c>
-      <c r="O49" s="57" t="n">
+      <c r="O49" s="56" t="n">
         <f aca="false">O46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.000642981133365946</v>
       </c>
-      <c r="P49" s="57" t="n">
+      <c r="P49" s="56" t="n">
         <f aca="false">P46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.000591412913603826</v>
       </c>
-      <c r="Q49" s="57" t="n">
+      <c r="Q49" s="56" t="n">
         <f aca="false">Q46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.000629073622047888</v>
       </c>
-      <c r="R49" s="57" t="n">
+      <c r="R49" s="56" t="n">
         <f aca="false">R46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.000593652341869334</v>
       </c>
-      <c r="S49" s="57" t="n">
+      <c r="S49" s="56" t="n">
         <f aca="false">S46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.0005397304959087</v>
       </c>
-      <c r="T49" s="58" t="n">
+      <c r="T49" s="57" t="n">
         <f aca="false">T46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.000517674646658655</v>
       </c>
-      <c r="W49" s="59" t="s">
+      <c r="W49" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="X49" s="59"/>
-      <c r="Y49" s="59"/>
+      <c r="X49" s="58"/>
+      <c r="Y49" s="58"/>
       <c r="AG49" s="0" t="s">
         <v>63</v>
       </c>
       <c r="AH49" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AI49" s="16" t="n">
+      <c r="AI49" s="15" t="n">
         <v>0.049497250152769</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="40"/>
-      <c r="E50" s="60" t="n">
+      <c r="D50" s="39"/>
+      <c r="E50" s="59" t="n">
         <f aca="false">E46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.563067393552315</v>
       </c>
-      <c r="F50" s="61" t="n">
+      <c r="F50" s="60" t="n">
         <f aca="false">F46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.388945744842193</v>
       </c>
-      <c r="G50" s="61" t="n">
+      <c r="G50" s="60" t="n">
         <f aca="false">G46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.000650612888996783</v>
       </c>
-      <c r="H50" s="61" t="n">
+      <c r="H50" s="60" t="n">
         <f aca="false">H46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.000566638282525118</v>
       </c>
-      <c r="I50" s="61" t="n">
+      <c r="I50" s="60" t="n">
         <f aca="false">I46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.348759654335805</v>
       </c>
-      <c r="J50" s="61" t="n">
+      <c r="J50" s="60" t="n">
         <f aca="false">J46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.00060460895106178</v>
       </c>
-      <c r="K50" s="61" t="n">
+      <c r="K50" s="60" t="n">
         <f aca="false">K46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.000636669859454516</v>
       </c>
-      <c r="L50" s="61" t="n">
+      <c r="L50" s="60" t="n">
         <f aca="false">L46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.000975576303081036</v>
       </c>
-      <c r="M50" s="61" t="n">
+      <c r="M50" s="60" t="n">
         <f aca="false">M46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.000519538552643142</v>
       </c>
-      <c r="N50" s="61" t="n">
+      <c r="N50" s="60" t="n">
         <f aca="false">N46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.000559473134372145</v>
       </c>
-      <c r="O50" s="61" t="n">
+      <c r="O50" s="60" t="n">
         <f aca="false">O46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.000518742022310006</v>
       </c>
-      <c r="P50" s="61" t="n">
+      <c r="P50" s="60" t="n">
         <f aca="false">P46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.000570310242072126</v>
       </c>
-      <c r="Q50" s="61" t="n">
+      <c r="Q50" s="60" t="n">
         <f aca="false">Q46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.000532649533628064</v>
       </c>
-      <c r="R50" s="61" t="n">
+      <c r="R50" s="60" t="n">
         <f aca="false">R46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.000568070813806618</v>
       </c>
-      <c r="S50" s="61" t="n">
+      <c r="S50" s="60" t="n">
         <f aca="false">S46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.000621992659767252</v>
       </c>
-      <c r="T50" s="62" t="n">
+      <c r="T50" s="61" t="n">
         <f aca="false">T46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.000644048509017297</v>
       </c>
@@ -12191,7 +12184,7 @@
       <c r="AH50" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AI50" s="16" t="n">
+      <c r="AI50" s="15" t="n">
         <v>0.051941558802289</v>
       </c>
     </row>
@@ -12202,69 +12195,69 @@
       <c r="AH51" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AI51" s="16" t="n">
+      <c r="AI51" s="15" t="n">
         <v>0.050941614354758</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AI52" s="16"/>
+      <c r="AI52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C53" s="63"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="65" t="s">
+      <c r="C53" s="62"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
       <c r="AG53" s="0" t="s">
         <v>68</v>
       </c>
       <c r="AH53" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AI53" s="16" t="n">
+      <c r="AI53" s="15" t="n">
         <v>1.5163046497417</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
       <c r="AG54" s="0" t="s">
         <v>68</v>
       </c>
       <c r="AH54" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AI54" s="16" t="n">
+      <c r="AI54" s="15" t="n">
         <v>1.4968612854841</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
       <c r="AG55" s="0" t="s">
         <v>68</v>
       </c>
       <c r="AH55" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AI55" s="16" t="n">
+      <c r="AI55" s="15" t="n">
         <v>1.504249763902</v>
       </c>
     </row>
@@ -12275,24 +12268,24 @@
       <c r="AH56" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AI56" s="16" t="n">
+      <c r="AI56" s="15" t="n">
         <v>1.4948613965891</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="66" t="s">
+      <c r="E57" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="67" t="s">
+      <c r="F57" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G57" s="67" t="s">
+      <c r="G57" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="H57" s="67" t="s">
+      <c r="H57" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="I57" s="68" t="s">
+      <c r="I57" s="67" t="s">
         <v>73</v>
       </c>
       <c r="AG57" s="0" t="s">
@@ -12301,48 +12294,48 @@
       <c r="AH57" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AI57" s="16" t="n">
+      <c r="AI57" s="15" t="n">
         <v>1.4719737792345</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E58" s="69" t="n">
+      <c r="E58" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="F58" s="70" t="n">
+      <c r="F58" s="69" t="n">
         <f aca="false">(E58-0.5)/$E$137</f>
         <v>0.00625</v>
       </c>
-      <c r="G58" s="70" t="n">
+      <c r="G58" s="69" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F58)</f>
         <v>-2.49770547441237</v>
       </c>
-      <c r="H58" s="18" t="n">
+      <c r="H58" s="17" t="n">
         <v>-0.0132603247548144</v>
       </c>
-      <c r="I58" s="44" t="n">
+      <c r="I58" s="43" t="n">
         <f aca="false">AA5</f>
         <v>-0.00788391253090426</v>
       </c>
-      <c r="AI58" s="16"/>
+      <c r="AI58" s="15"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E59" s="17" t="n">
+      <c r="E59" s="16" t="n">
         <f aca="false">E58+1</f>
         <v>2</v>
       </c>
-      <c r="F59" s="18" t="n">
+      <c r="F59" s="17" t="n">
         <f aca="false">(E59-0.5)/$E$137</f>
         <v>0.01875</v>
       </c>
-      <c r="G59" s="18" t="n">
+      <c r="G59" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F59)</f>
         <v>-2.08027845252527</v>
       </c>
-      <c r="H59" s="25" t="n">
+      <c r="H59" s="24" t="n">
         <v>-0.0129690146000983</v>
       </c>
-      <c r="I59" s="22" t="n">
+      <c r="I59" s="21" t="n">
         <f aca="false">AA6</f>
         <v>-0.00462166187962754</v>
       </c>
@@ -12352,27 +12345,27 @@
       <c r="AH59" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AI59" s="16" t="n">
+      <c r="AI59" s="15" t="n">
         <v>0.29259485584134</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E60" s="17" t="n">
+      <c r="E60" s="16" t="n">
         <f aca="false">E59+1</f>
         <v>3</v>
       </c>
-      <c r="F60" s="18" t="n">
+      <c r="F60" s="17" t="n">
         <f aca="false">(E60-0.5)/$E$137</f>
         <v>0.03125</v>
       </c>
-      <c r="G60" s="18" t="n">
+      <c r="G60" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F60)</f>
         <v>-1.86273186742165</v>
       </c>
-      <c r="H60" s="18" t="n">
+      <c r="H60" s="17" t="n">
         <v>-0.0128759489406043</v>
       </c>
-      <c r="I60" s="22" t="n">
+      <c r="I60" s="21" t="n">
         <f aca="false">AA7</f>
         <v>-0.00839407281807403</v>
       </c>
@@ -12382,27 +12375,27 @@
       <c r="AH60" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AI60" s="16" t="n">
+      <c r="AI60" s="15" t="n">
         <v>0.29487250708294</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E61" s="17" t="n">
+      <c r="E61" s="16" t="n">
         <f aca="false">E60+1</f>
         <v>4</v>
       </c>
-      <c r="F61" s="18" t="n">
+      <c r="F61" s="17" t="n">
         <f aca="false">(E61-0.5)/$E$137</f>
         <v>0.04375</v>
       </c>
-      <c r="G61" s="18" t="n">
+      <c r="G61" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F61)</f>
         <v>-1.7087352578229</v>
       </c>
-      <c r="H61" s="18" t="n">
+      <c r="H61" s="17" t="n">
         <v>-0.0128759489406043</v>
       </c>
-      <c r="I61" s="22" t="n">
+      <c r="I61" s="21" t="n">
         <f aca="false">AA8</f>
         <v>-0.00404253631276452</v>
       </c>
@@ -12412,27 +12405,27 @@
       <c r="AH61" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AI61" s="16" t="n">
+      <c r="AI61" s="15" t="n">
         <v>0.30287206266319</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E62" s="17" t="n">
+      <c r="E62" s="16" t="n">
         <f aca="false">E61+1</f>
         <v>5</v>
       </c>
-      <c r="F62" s="18" t="n">
+      <c r="F62" s="17" t="n">
         <f aca="false">(E62-0.5)/$E$137</f>
         <v>0.05625</v>
       </c>
-      <c r="G62" s="18" t="n">
+      <c r="G62" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F62)</f>
         <v>-1.58705583229031</v>
       </c>
-      <c r="H62" s="18" t="n">
+      <c r="H62" s="17" t="n">
         <v>-0.00839407281807403</v>
       </c>
-      <c r="I62" s="22" t="n">
+      <c r="I62" s="21" t="n">
         <f aca="false">AA9</f>
         <v>-0.00817729109556931</v>
       </c>
@@ -12442,27 +12435,27 @@
       <c r="AH62" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AI62" s="16" t="n">
+      <c r="AI62" s="15" t="n">
         <v>0.30192767068496</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="17" t="n">
+      <c r="E63" s="16" t="n">
         <f aca="false">E62+1</f>
         <v>6</v>
       </c>
-      <c r="F63" s="18" t="n">
+      <c r="F63" s="17" t="n">
         <f aca="false">(E63-0.5)/$E$137</f>
         <v>0.06875</v>
       </c>
-      <c r="G63" s="18" t="n">
+      <c r="G63" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F63)</f>
         <v>-1.48516545690268</v>
       </c>
-      <c r="H63" s="18" t="n">
+      <c r="H63" s="17" t="n">
         <v>-0.00837500181209783</v>
       </c>
-      <c r="I63" s="22" t="n">
+      <c r="I63" s="21" t="n">
         <f aca="false">AA10</f>
         <v>-0.00345642126076306</v>
       </c>
@@ -12472,49 +12465,49 @@
       <c r="AH63" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AI63" s="16" t="n">
+      <c r="AI63" s="15" t="n">
         <v>0.29665018610077</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E64" s="17" t="n">
+      <c r="E64" s="16" t="n">
         <f aca="false">E63+1</f>
         <v>7</v>
       </c>
-      <c r="F64" s="18" t="n">
+      <c r="F64" s="17" t="n">
         <f aca="false">(E64-0.5)/$E$137</f>
         <v>0.08125</v>
       </c>
-      <c r="G64" s="18" t="n">
+      <c r="G64" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F64)</f>
         <v>-1.39671264539045</v>
       </c>
-      <c r="H64" s="18" t="n">
+      <c r="H64" s="17" t="n">
         <v>-0.00817729109556931</v>
       </c>
-      <c r="I64" s="22" t="n">
+      <c r="I64" s="21" t="n">
         <f aca="false">AA11</f>
         <v>-0.00837500181209783</v>
       </c>
-      <c r="AI64" s="16"/>
+      <c r="AI64" s="15"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="17" t="n">
+      <c r="E65" s="16" t="n">
         <f aca="false">E64+1</f>
         <v>8</v>
       </c>
-      <c r="F65" s="18" t="n">
+      <c r="F65" s="17" t="n">
         <f aca="false">(E65-0.5)/$E$137</f>
         <v>0.09375</v>
       </c>
-      <c r="G65" s="18" t="n">
+      <c r="G65" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F65)</f>
         <v>-1.31801089730354</v>
       </c>
-      <c r="H65" s="18" t="n">
+      <c r="H65" s="17" t="n">
         <v>-0.00788391253090426</v>
       </c>
-      <c r="I65" s="22" t="n">
+      <c r="I65" s="21" t="n">
         <f aca="false">AA12</f>
         <v>-0.00404253631276452</v>
       </c>
@@ -12524,27 +12517,27 @@
       <c r="AH65" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AI65" s="16" t="n">
+      <c r="AI65" s="15" t="n">
         <v>1.5196377979001</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="17" t="n">
+      <c r="E66" s="16" t="n">
         <f aca="false">E65+1</f>
         <v>9</v>
       </c>
-      <c r="F66" s="18" t="n">
+      <c r="F66" s="17" t="n">
         <f aca="false">(E66-0.5)/$E$137</f>
         <v>0.10625</v>
       </c>
-      <c r="G66" s="18" t="n">
+      <c r="G66" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F66)</f>
         <v>-1.24672049837958</v>
       </c>
-      <c r="H66" s="18" t="n">
+      <c r="H66" s="17" t="n">
         <v>-0.00782344215368036</v>
       </c>
-      <c r="I66" s="22" t="n">
+      <c r="I66" s="21" t="n">
         <f aca="false">AA13</f>
         <v>0.00562867166087186</v>
       </c>
@@ -12554,27 +12547,27 @@
       <c r="AH66" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AI66" s="16" t="n">
+      <c r="AI66" s="15" t="n">
         <v>1.4962502083218</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="17" t="n">
+      <c r="E67" s="16" t="n">
         <f aca="false">E66+1</f>
         <v>10</v>
       </c>
-      <c r="F67" s="18" t="n">
+      <c r="F67" s="17" t="n">
         <f aca="false">(E67-0.5)/$E$137</f>
         <v>0.11875</v>
       </c>
-      <c r="G67" s="18" t="n">
+      <c r="G67" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F67)</f>
         <v>-1.18125862097704</v>
       </c>
-      <c r="H67" s="18" t="n">
+      <c r="H67" s="17" t="n">
         <v>-0.00781691019634823</v>
       </c>
-      <c r="I67" s="22" t="n">
+      <c r="I67" s="21" t="n">
         <f aca="false">AA14</f>
         <v>-0.00759485867519882</v>
       </c>
@@ -12584,27 +12577,27 @@
       <c r="AH67" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AI67" s="16" t="n">
+      <c r="AI67" s="15" t="n">
         <v>1.51002722071</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E68" s="17" t="n">
+      <c r="E68" s="16" t="n">
         <f aca="false">E67+1</f>
         <v>11</v>
       </c>
-      <c r="F68" s="18" t="n">
+      <c r="F68" s="17" t="n">
         <f aca="false">(E68-0.5)/$E$137</f>
         <v>0.13125</v>
       </c>
-      <c r="G68" s="18" t="n">
+      <c r="G68" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F68)</f>
         <v>-1.1205017670747</v>
       </c>
-      <c r="H68" s="18" t="n">
+      <c r="H68" s="17" t="n">
         <v>-0.00779326904459643</v>
       </c>
-      <c r="I68" s="22" t="n">
+      <c r="I68" s="21" t="n">
         <f aca="false">AA15</f>
         <v>0.00599691677250516</v>
       </c>
@@ -12614,27 +12607,27 @@
       <c r="AH68" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AI68" s="16" t="n">
+      <c r="AI68" s="15" t="n">
         <v>1.4961391033831</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="17" t="n">
+      <c r="E69" s="16" t="n">
         <f aca="false">E68+1</f>
         <v>12</v>
       </c>
-      <c r="F69" s="18" t="n">
+      <c r="F69" s="17" t="n">
         <f aca="false">(E69-0.5)/$E$137</f>
         <v>0.14375</v>
       </c>
-      <c r="G69" s="18" t="n">
+      <c r="G69" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F69)</f>
         <v>-1.06362193833772</v>
       </c>
-      <c r="H69" s="18" t="n">
+      <c r="H69" s="17" t="n">
         <v>-0.00778881644056725</v>
       </c>
-      <c r="I69" s="22" t="n">
+      <c r="I69" s="21" t="n">
         <f aca="false">AA16</f>
         <v>-0.00779326904459643</v>
       </c>
@@ -12644,49 +12637,49 @@
       <c r="AH69" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AI69" s="16" t="n">
+      <c r="AI69" s="15" t="n">
         <v>1.4723626465196</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="17" t="n">
+      <c r="E70" s="16" t="n">
         <f aca="false">E69+1</f>
         <v>13</v>
       </c>
-      <c r="F70" s="18" t="n">
+      <c r="F70" s="17" t="n">
         <f aca="false">(E70-0.5)/$E$137</f>
         <v>0.15625</v>
       </c>
-      <c r="G70" s="18" t="n">
+      <c r="G70" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F70)</f>
         <v>-1.00999016924958</v>
       </c>
-      <c r="H70" s="71" t="n">
+      <c r="H70" s="70" t="n">
         <v>-0.00772837946708574</v>
       </c>
-      <c r="I70" s="22" t="n">
+      <c r="I70" s="21" t="n">
         <f aca="false">AA17</f>
         <v>0.00607831255121413</v>
       </c>
-      <c r="AI70" s="16"/>
+      <c r="AI70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="17" t="n">
+      <c r="E71" s="16" t="n">
         <f aca="false">E70+1</f>
         <v>14</v>
       </c>
-      <c r="F71" s="18" t="n">
+      <c r="F71" s="17" t="n">
         <f aca="false">(E71-0.5)/$E$137</f>
         <v>0.16875</v>
       </c>
-      <c r="G71" s="18" t="n">
+      <c r="G71" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F71)</f>
         <v>-0.959116617227602</v>
       </c>
-      <c r="H71" s="18" t="n">
+      <c r="H71" s="17" t="n">
         <v>-0.00759485867519882</v>
       </c>
-      <c r="I71" s="22" t="n">
+      <c r="I71" s="21" t="n">
         <f aca="false">AA18</f>
         <v>-0.00757776776431673</v>
       </c>
@@ -12696,27 +12689,27 @@
       <c r="AH71" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AI71" s="16" t="n">
+      <c r="AI71" s="15" t="n">
         <v>0.29237264596411</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="17" t="n">
+      <c r="E72" s="16" t="n">
         <f aca="false">E71+1</f>
         <v>15</v>
       </c>
-      <c r="F72" s="18" t="n">
+      <c r="F72" s="17" t="n">
         <f aca="false">(E72-0.5)/$E$137</f>
         <v>0.18125</v>
       </c>
-      <c r="G72" s="18" t="n">
+      <c r="G72" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F72)</f>
         <v>-0.91061170687247</v>
       </c>
-      <c r="H72" s="18" t="n">
+      <c r="H72" s="17" t="n">
         <v>-0.00757776776431673</v>
       </c>
-      <c r="I72" s="22" t="n">
+      <c r="I72" s="21" t="n">
         <f aca="false">AA19</f>
         <v>0.00619770668762662</v>
       </c>
@@ -12726,27 +12719,27 @@
       <c r="AH72" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AI72" s="16" t="n">
+      <c r="AI72" s="15" t="n">
         <v>0.29470584967502</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="17" t="n">
+      <c r="E73" s="16" t="n">
         <f aca="false">E72+1</f>
         <v>16</v>
       </c>
-      <c r="F73" s="18" t="n">
+      <c r="F73" s="17" t="n">
         <f aca="false">(E73-0.5)/$E$137</f>
         <v>0.19375</v>
       </c>
-      <c r="G73" s="18" t="n">
+      <c r="G73" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F73)</f>
         <v>-0.864160004318308</v>
       </c>
-      <c r="H73" s="18" t="n">
+      <c r="H73" s="17" t="n">
         <v>-0.0072577212405055</v>
       </c>
-      <c r="I73" s="22" t="n">
+      <c r="I73" s="21" t="n">
         <f aca="false">AA20</f>
         <v>-0.00782344215368036</v>
       </c>
@@ -12756,27 +12749,27 @@
       <c r="AH73" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AI73" s="16" t="n">
+      <c r="AI73" s="15" t="n">
         <v>0.30303872007111</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="17" t="n">
+      <c r="E74" s="16" t="n">
         <f aca="false">E73+1</f>
         <v>17</v>
       </c>
-      <c r="F74" s="18" t="n">
+      <c r="F74" s="17" t="n">
         <f aca="false">(E74-0.5)/$E$137</f>
         <v>0.20625</v>
       </c>
-      <c r="G74" s="18" t="n">
+      <c r="G74" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F74)</f>
         <v>-0.819502107568254</v>
       </c>
-      <c r="H74" s="18" t="n">
+      <c r="H74" s="17" t="n">
         <v>-0.00671630543379309</v>
       </c>
-      <c r="I74" s="22" t="n">
+      <c r="I74" s="21" t="n">
         <f aca="false">AB5</f>
         <v>-0.00650332037220602</v>
       </c>
@@ -12786,27 +12779,27 @@
       <c r="AH74" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AI74" s="16" t="n">
+      <c r="AI74" s="15" t="n">
         <v>0.30176101327704</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="17" t="n">
+      <c r="E75" s="16" t="n">
         <f aca="false">E74+1</f>
         <v>18</v>
       </c>
-      <c r="F75" s="18" t="n">
+      <c r="F75" s="17" t="n">
         <f aca="false">(E75-0.5)/$E$137</f>
         <v>0.21875</v>
       </c>
-      <c r="G75" s="18" t="n">
+      <c r="G75" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F75)</f>
         <v>-0.776421761147928</v>
       </c>
-      <c r="H75" s="18" t="n">
+      <c r="H75" s="17" t="n">
         <v>-0.00669723442781689</v>
       </c>
-      <c r="I75" s="22" t="n">
+      <c r="I75" s="21" t="n">
         <f aca="false">AB6</f>
         <v>-0.0129690146000983</v>
       </c>
@@ -12816,49 +12809,49 @@
       <c r="AH75" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AI75" s="16" t="n">
+      <c r="AI75" s="15" t="n">
         <v>0.29659463363146</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="17" t="n">
+      <c r="E76" s="16" t="n">
         <f aca="false">E75+1</f>
         <v>19</v>
       </c>
-      <c r="F76" s="18" t="n">
+      <c r="F76" s="17" t="n">
         <f aca="false">(E76-0.5)/$E$137</f>
         <v>0.23125</v>
       </c>
-      <c r="G76" s="18" t="n">
+      <c r="G76" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F76)</f>
         <v>-0.734736477807254</v>
       </c>
-      <c r="H76" s="18" t="n">
+      <c r="H76" s="17" t="n">
         <v>-0.00650332037220602</v>
       </c>
-      <c r="I76" s="22" t="n">
+      <c r="I76" s="21" t="n">
         <f aca="false">AB7</f>
         <v>-0.00671630543379309</v>
       </c>
-      <c r="AI76" s="16"/>
+      <c r="AI76" s="15"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="17" t="n">
+      <c r="E77" s="16" t="n">
         <f aca="false">E76+1</f>
         <v>20</v>
       </c>
-      <c r="F77" s="18" t="n">
+      <c r="F77" s="17" t="n">
         <f aca="false">(E77-0.5)/$E$137</f>
         <v>0.24375</v>
       </c>
-      <c r="G77" s="18" t="n">
+      <c r="G77" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F77)</f>
         <v>-0.694290575703083</v>
       </c>
-      <c r="H77" s="18" t="n">
+      <c r="H77" s="17" t="n">
         <v>-0.00650066673721306</v>
       </c>
-      <c r="I77" s="22" t="n">
+      <c r="I77" s="21" t="n">
         <f aca="false">AB8</f>
         <v>-0.0128759489406043</v>
       </c>
@@ -12868,224 +12861,224 @@
       <c r="AH77" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AI77" s="16" t="n">
+      <c r="AI77" s="15" t="n">
         <v>1.5202488750625</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E78" s="17" t="n">
+      <c r="E78" s="16" t="n">
         <f aca="false">E77+1</f>
         <v>21</v>
       </c>
-      <c r="F78" s="18" t="n">
+      <c r="F78" s="17" t="n">
         <f aca="false">(E78-0.5)/$E$137</f>
         <v>0.25625</v>
       </c>
-      <c r="G78" s="18" t="n">
+      <c r="G78" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F78)</f>
         <v>-0.654949917100686</v>
       </c>
-      <c r="H78" s="18" t="n">
+      <c r="H78" s="17" t="n">
         <v>-0.0055023510718093</v>
       </c>
-      <c r="I78" s="22" t="n">
+      <c r="I78" s="21" t="n">
         <f aca="false">AB9</f>
         <v>-0.00650066673721306</v>
       </c>
-      <c r="M78" s="72" t="s">
+      <c r="M78" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="N78" s="72"/>
-      <c r="O78" s="72"/>
-      <c r="P78" s="72"/>
-      <c r="Q78" s="72"/>
-      <c r="R78" s="72"/>
-      <c r="S78" s="72"/>
-      <c r="T78" s="72"/>
-      <c r="U78" s="72"/>
-      <c r="V78" s="72"/>
+      <c r="N78" s="71"/>
+      <c r="O78" s="71"/>
+      <c r="P78" s="71"/>
+      <c r="Q78" s="71"/>
+      <c r="R78" s="71"/>
+      <c r="S78" s="71"/>
+      <c r="T78" s="71"/>
+      <c r="U78" s="71"/>
+      <c r="V78" s="71"/>
       <c r="AG78" s="0" t="s">
         <v>77</v>
       </c>
       <c r="AH78" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AI78" s="16" t="n">
+      <c r="AI78" s="15" t="n">
         <v>1.4968612854841</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E79" s="17" t="n">
+      <c r="E79" s="16" t="n">
         <f aca="false">E78+1</f>
         <v>22</v>
       </c>
-      <c r="F79" s="18" t="n">
+      <c r="F79" s="17" t="n">
         <f aca="false">(E79-0.5)/$E$137</f>
         <v>0.26875</v>
       </c>
-      <c r="G79" s="18" t="n">
+      <c r="G79" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F79)</f>
         <v>-0.61659786971703</v>
       </c>
-      <c r="H79" s="18" t="n">
+      <c r="H79" s="17" t="n">
         <v>-0.0055023510718093</v>
       </c>
-      <c r="I79" s="22" t="n">
+      <c r="I79" s="21" t="n">
         <f aca="false">AB10</f>
         <v>-0.0132603247548144</v>
       </c>
-      <c r="M79" s="73" t="s">
+      <c r="M79" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="N79" s="73"/>
-      <c r="O79" s="73"/>
-      <c r="P79" s="73"/>
-      <c r="Q79" s="73"/>
-      <c r="R79" s="73"/>
-      <c r="S79" s="73"/>
-      <c r="T79" s="73"/>
-      <c r="U79" s="73"/>
-      <c r="V79" s="73"/>
+      <c r="N79" s="72"/>
+      <c r="O79" s="72"/>
+      <c r="P79" s="72"/>
+      <c r="Q79" s="72"/>
+      <c r="R79" s="72"/>
+      <c r="S79" s="72"/>
+      <c r="T79" s="72"/>
+      <c r="U79" s="72"/>
+      <c r="V79" s="72"/>
       <c r="AG79" s="0" t="s">
         <v>77</v>
       </c>
       <c r="AH79" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AI79" s="16" t="n">
+      <c r="AI79" s="15" t="n">
         <v>1.5097494583634</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="17" t="n">
+      <c r="E80" s="16" t="n">
         <f aca="false">E79+1</f>
         <v>23</v>
       </c>
-      <c r="F80" s="18" t="n">
+      <c r="F80" s="17" t="n">
         <f aca="false">(E80-0.5)/$E$137</f>
         <v>0.28125</v>
       </c>
-      <c r="G80" s="18" t="n">
+      <c r="G80" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F80)</f>
         <v>-0.579132162255556</v>
       </c>
-      <c r="H80" s="18" t="n">
+      <c r="H80" s="17" t="n">
         <v>-0.00539957654676471</v>
       </c>
-      <c r="I80" s="22" t="n">
+      <c r="I80" s="21" t="n">
         <f aca="false">AB11</f>
         <v>-0.00669723442781689</v>
       </c>
-      <c r="M80" s="73"/>
-      <c r="N80" s="73"/>
-      <c r="O80" s="73"/>
-      <c r="P80" s="73"/>
-      <c r="Q80" s="73"/>
-      <c r="R80" s="73"/>
-      <c r="S80" s="73"/>
-      <c r="T80" s="73"/>
-      <c r="U80" s="73"/>
-      <c r="V80" s="73"/>
+      <c r="M80" s="72"/>
+      <c r="N80" s="72"/>
+      <c r="O80" s="72"/>
+      <c r="P80" s="72"/>
+      <c r="Q80" s="72"/>
+      <c r="R80" s="72"/>
+      <c r="S80" s="72"/>
+      <c r="T80" s="72"/>
+      <c r="U80" s="72"/>
+      <c r="V80" s="72"/>
       <c r="AG80" s="0" t="s">
         <v>77</v>
       </c>
       <c r="AH80" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AI80" s="16" t="n">
+      <c r="AI80" s="15" t="n">
         <v>1.4966946280762</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="17" t="n">
+      <c r="E81" s="16" t="n">
         <f aca="false">E80+1</f>
         <v>24</v>
       </c>
-      <c r="F81" s="18" t="n">
+      <c r="F81" s="17" t="n">
         <f aca="false">(E81-0.5)/$E$137</f>
         <v>0.29375</v>
       </c>
-      <c r="G81" s="18" t="n">
+      <c r="G81" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F81)</f>
         <v>-0.542462404312549</v>
       </c>
-      <c r="H81" s="18" t="n">
+      <c r="H81" s="17" t="n">
         <v>-0.00510826639204853</v>
       </c>
-      <c r="I81" s="22" t="n">
+      <c r="I81" s="21" t="n">
         <f aca="false">AB12</f>
         <v>-0.0128759489406043</v>
       </c>
-      <c r="M81" s="74" t="s">
+      <c r="M81" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="N81" s="74"/>
-      <c r="O81" s="74"/>
-      <c r="P81" s="74"/>
-      <c r="Q81" s="74"/>
-      <c r="R81" s="74"/>
-      <c r="S81" s="74"/>
-      <c r="T81" s="74"/>
-      <c r="U81" s="74"/>
-      <c r="V81" s="74"/>
+      <c r="N81" s="73"/>
+      <c r="O81" s="73"/>
+      <c r="P81" s="73"/>
+      <c r="Q81" s="73"/>
+      <c r="R81" s="73"/>
+      <c r="S81" s="73"/>
+      <c r="T81" s="73"/>
+      <c r="U81" s="73"/>
+      <c r="V81" s="73"/>
       <c r="AG81" s="0" t="s">
         <v>77</v>
       </c>
       <c r="AH81" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AI81" s="16" t="n">
+      <c r="AI81" s="15" t="n">
         <v>1.4724737514583</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="17" t="n">
+      <c r="E82" s="16" t="n">
         <f aca="false">E81+1</f>
         <v>25</v>
       </c>
-      <c r="F82" s="18" t="n">
+      <c r="F82" s="17" t="n">
         <f aca="false">(E82-0.5)/$E$137</f>
         <v>0.30625</v>
       </c>
-      <c r="G82" s="18" t="n">
+      <c r="G82" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F82)</f>
         <v>-0.506508106929111</v>
       </c>
-      <c r="H82" s="18" t="n">
+      <c r="H82" s="17" t="n">
         <v>-0.00462166187962754</v>
       </c>
-      <c r="I82" s="22" t="n">
+      <c r="I82" s="21" t="n">
         <f aca="false">AB13</f>
         <v>2.37609509190773E-005</v>
       </c>
-      <c r="M82" s="74"/>
-      <c r="N82" s="74"/>
-      <c r="O82" s="74"/>
-      <c r="P82" s="74"/>
-      <c r="Q82" s="74"/>
-      <c r="R82" s="74"/>
-      <c r="S82" s="74"/>
-      <c r="T82" s="74"/>
-      <c r="U82" s="74"/>
-      <c r="V82" s="74"/>
+      <c r="M82" s="73"/>
+      <c r="N82" s="73"/>
+      <c r="O82" s="73"/>
+      <c r="P82" s="73"/>
+      <c r="Q82" s="73"/>
+      <c r="R82" s="73"/>
+      <c r="S82" s="73"/>
+      <c r="T82" s="73"/>
+      <c r="U82" s="73"/>
+      <c r="V82" s="73"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="17" t="n">
+      <c r="E83" s="16" t="n">
         <f aca="false">E82+1</f>
         <v>26</v>
       </c>
-      <c r="F83" s="18" t="n">
+      <c r="F83" s="17" t="n">
         <f aca="false">(E83-0.5)/$E$137</f>
         <v>0.31875</v>
       </c>
-      <c r="G83" s="18" t="n">
+      <c r="G83" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F83)</f>
         <v>-0.471197085229966</v>
       </c>
-      <c r="H83" s="18" t="n">
+      <c r="H83" s="17" t="n">
         <v>-0.00445393452221665</v>
       </c>
-      <c r="I83" s="22" t="n">
+      <c r="I83" s="21" t="n">
         <f aca="false">AB14</f>
         <v>-0.00422726284027841</v>
       </c>
@@ -13100,22 +13093,22 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="17" t="n">
+      <c r="E84" s="16" t="n">
         <f aca="false">E83+1</f>
         <v>27</v>
       </c>
-      <c r="F84" s="18" t="n">
+      <c r="F84" s="17" t="n">
         <f aca="false">(E84-0.5)/$E$137</f>
         <v>0.33125</v>
       </c>
-      <c r="G84" s="18" t="n">
+      <c r="G84" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F84)</f>
         <v>-0.436464156008116</v>
       </c>
-      <c r="H84" s="18" t="n">
+      <c r="H84" s="17" t="n">
         <v>-0.00437384047547706</v>
       </c>
-      <c r="I84" s="22" t="n">
+      <c r="I84" s="21" t="n">
         <f aca="false">AB15</f>
         <v>-0.00073894655567</v>
       </c>
@@ -13130,22 +13123,22 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="17" t="n">
+      <c r="E85" s="16" t="n">
         <f aca="false">E84+1</f>
         <v>28</v>
       </c>
-      <c r="F85" s="18" t="n">
+      <c r="F85" s="17" t="n">
         <f aca="false">(E85-0.5)/$E$137</f>
         <v>0.34375</v>
       </c>
-      <c r="G85" s="18" t="n">
+      <c r="G85" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F85)</f>
         <v>-0.402250065321725</v>
       </c>
-      <c r="H85" s="18" t="n">
+      <c r="H85" s="17" t="n">
         <v>-0.00434125082450709</v>
       </c>
-      <c r="I85" s="22" t="n">
+      <c r="I85" s="21" t="n">
         <f aca="false">AB16</f>
         <v>-0.00434125082450709</v>
       </c>
@@ -13160,22 +13153,22 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="17" t="n">
+      <c r="E86" s="16" t="n">
         <f aca="false">E85+1</f>
         <v>29</v>
       </c>
-      <c r="F86" s="18" t="n">
+      <c r="F86" s="17" t="n">
         <f aca="false">(E86-0.5)/$E$137</f>
         <v>0.35625</v>
       </c>
-      <c r="G86" s="18" t="n">
+      <c r="G86" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F86)</f>
         <v>-0.368500597097157</v>
       </c>
-      <c r="H86" s="18" t="n">
+      <c r="H86" s="17" t="n">
         <v>-0.00422726284027841</v>
       </c>
-      <c r="I86" s="22" t="n">
+      <c r="I86" s="21" t="n">
         <f aca="false">AB17</f>
         <v>-0.000654822141336137</v>
       </c>
@@ -13190,22 +13183,22 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="17" t="n">
+      <c r="E87" s="16" t="n">
         <f aca="false">E86+1</f>
         <v>30</v>
       </c>
-      <c r="F87" s="18" t="n">
+      <c r="F87" s="17" t="n">
         <f aca="false">(E87-0.5)/$E$137</f>
         <v>0.36875</v>
       </c>
-      <c r="G87" s="18" t="n">
+      <c r="G87" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F87)</f>
         <v>-0.335165825308025</v>
       </c>
-      <c r="H87" s="18" t="n">
+      <c r="H87" s="17" t="n">
         <v>-0.00404253631276452</v>
       </c>
-      <c r="I87" s="22" t="n">
+      <c r="I87" s="21" t="n">
         <f aca="false">AB18</f>
         <v>-0.00437384047547706</v>
       </c>
@@ -13220,214 +13213,214 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="17" t="n">
+      <c r="E88" s="16" t="n">
         <f aca="false">E87+1</f>
         <v>31</v>
       </c>
-      <c r="F88" s="18" t="n">
+      <c r="F88" s="17" t="n">
         <f aca="false">(E88-0.5)/$E$137</f>
         <v>0.38125</v>
       </c>
-      <c r="G88" s="18" t="n">
+      <c r="G88" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F88)</f>
         <v>-0.302199480814762</v>
       </c>
-      <c r="H88" s="18" t="n">
+      <c r="H88" s="17" t="n">
         <v>-0.00404253631276452</v>
       </c>
-      <c r="I88" s="22" t="n">
+      <c r="I88" s="21" t="n">
         <f aca="false">AB19</f>
         <v>-0.00059990404436161</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="17" t="n">
+      <c r="E89" s="16" t="n">
         <f aca="false">E88+1</f>
         <v>32</v>
       </c>
-      <c r="F89" s="18" t="n">
+      <c r="F89" s="17" t="n">
         <f aca="false">(E89-0.5)/$E$137</f>
         <v>0.39375</v>
       </c>
-      <c r="G89" s="18" t="n">
+      <c r="G89" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F89)</f>
         <v>-0.269558410280158</v>
       </c>
-      <c r="H89" s="18" t="n">
+      <c r="H89" s="17" t="n">
         <v>-0.00345642126076306</v>
       </c>
-      <c r="I89" s="22" t="n">
+      <c r="I89" s="21" t="n">
         <f aca="false">AB20</f>
         <v>-0.00445393452221665</v>
       </c>
       <c r="AG89" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="AH89" s="75" t="s">
+      <c r="AH89" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="AI89" s="75" t="n">
+      <c r="AI89" s="74" t="n">
         <v>1.5202488750625</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="17" t="n">
+      <c r="E90" s="16" t="n">
         <f aca="false">E89+1</f>
         <v>33</v>
       </c>
-      <c r="F90" s="18" t="n">
+      <c r="F90" s="17" t="n">
         <f aca="false">(E90-0.5)/$E$137</f>
         <v>0.40625</v>
       </c>
-      <c r="G90" s="18" t="n">
+      <c r="G90" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F90)</f>
         <v>-0.237202109328788</v>
       </c>
-      <c r="H90" s="18" t="n">
+      <c r="H90" s="17" t="n">
         <v>-0.00168116526389273</v>
       </c>
-      <c r="I90" s="22" t="n">
+      <c r="I90" s="21" t="n">
         <f aca="false">AC5</f>
         <v>0.00716187523639478</v>
       </c>
       <c r="AG90" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="AH90" s="75" t="s">
+      <c r="AH90" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AI90" s="75" t="n">
+      <c r="AI90" s="74" t="n">
         <v>1.4966390756069</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="17" t="n">
+      <c r="E91" s="16" t="n">
         <f aca="false">E90+1</f>
         <v>34</v>
       </c>
-      <c r="F91" s="18" t="n">
+      <c r="F91" s="17" t="n">
         <f aca="false">(E91-0.5)/$E$137</f>
         <v>0.41875</v>
       </c>
-      <c r="G91" s="18" t="n">
+      <c r="G91" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F91)</f>
         <v>-0.205092315715208</v>
       </c>
-      <c r="H91" s="18" t="n">
+      <c r="H91" s="17" t="n">
         <v>-0.00161692000412328</v>
       </c>
-      <c r="I91" s="22" t="n">
+      <c r="I91" s="21" t="n">
         <f aca="false">AC6</f>
         <v>-0.00510826639204853</v>
       </c>
       <c r="AG91" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="AH91" s="75" t="s">
+      <c r="AH91" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="AI91" s="75" t="n">
+      <c r="AI91" s="74" t="n">
         <v>1.5089717237931</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="17" t="n">
+      <c r="E92" s="16" t="n">
         <f aca="false">E91+1</f>
         <v>35</v>
       </c>
-      <c r="F92" s="18" t="n">
+      <c r="F92" s="17" t="n">
         <f aca="false">(E92-0.5)/$E$137</f>
         <v>0.43125</v>
       </c>
-      <c r="G92" s="18" t="n">
+      <c r="G92" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F92)</f>
         <v>-0.173192651006423</v>
       </c>
-      <c r="H92" s="18" t="n">
+      <c r="H92" s="17" t="n">
         <v>-0.00159806573102572</v>
       </c>
-      <c r="I92" s="22" t="n">
+      <c r="I92" s="21" t="n">
         <f aca="false">AC7</f>
         <v>0.00743197704890153</v>
       </c>
       <c r="AG92" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="AH92" s="75" t="s">
+      <c r="AH92" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="AI92" s="75" t="n">
+      <c r="AI92" s="74" t="n">
         <v>1.4961391033831</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="17" t="n">
+      <c r="E93" s="16" t="n">
         <f aca="false">E92+1</f>
         <v>36</v>
       </c>
-      <c r="F93" s="18" t="n">
+      <c r="F93" s="17" t="n">
         <f aca="false">(E93-0.5)/$E$137</f>
         <v>0.44375</v>
       </c>
-      <c r="G93" s="18" t="n">
+      <c r="G93" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F93)</f>
         <v>-0.141468301382159</v>
       </c>
-      <c r="H93" s="18" t="n">
+      <c r="H93" s="17" t="n">
         <v>-0.0015667182039677</v>
       </c>
-      <c r="I93" s="22" t="n">
+      <c r="I93" s="21" t="n">
         <f aca="false">AC8</f>
         <v>-0.0055023510718093</v>
       </c>
       <c r="AG93" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="AH93" s="75" t="s">
+      <c r="AH93" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="AI93" s="75" t="n">
+      <c r="AI93" s="74" t="n">
         <v>1.4719737792345</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="17" t="n">
+      <c r="E94" s="16" t="n">
         <f aca="false">E93+1</f>
         <v>37</v>
       </c>
-      <c r="F94" s="18" t="n">
+      <c r="F94" s="17" t="n">
         <f aca="false">(E94-0.5)/$E$137</f>
         <v>0.45625</v>
       </c>
-      <c r="G94" s="18" t="n">
+      <c r="G94" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F94)</f>
         <v>-0.109885729765991</v>
       </c>
-      <c r="H94" s="18" t="n">
+      <c r="H94" s="17" t="n">
         <v>-0.000771196545083563</v>
       </c>
-      <c r="I94" s="22" t="n">
+      <c r="I94" s="21" t="n">
         <f aca="false">AC9</f>
         <v>0.00697066500102839</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="17" t="n">
+      <c r="E95" s="16" t="n">
         <f aca="false">E94+1</f>
         <v>38</v>
       </c>
-      <c r="F95" s="18" t="n">
+      <c r="F95" s="17" t="n">
         <f aca="false">(E95-0.5)/$E$137</f>
         <v>0.46875</v>
       </c>
-      <c r="G95" s="18" t="n">
+      <c r="G95" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F95)</f>
         <v>-0.0784124127331122</v>
       </c>
-      <c r="H95" s="18" t="n">
+      <c r="H95" s="17" t="n">
         <v>-0.000745010141061708</v>
       </c>
-      <c r="I95" s="22" t="n">
+      <c r="I95" s="21" t="n">
         <f aca="false">AC10</f>
         <v>-0.00539957654676471</v>
       </c>
@@ -13442,22 +13435,22 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="17" t="n">
+      <c r="E96" s="16" t="n">
         <f aca="false">E95+1</f>
         <v>39</v>
       </c>
-      <c r="F96" s="18" t="n">
+      <c r="F96" s="17" t="n">
         <f aca="false">(E96-0.5)/$E$137</f>
         <v>0.48125</v>
       </c>
-      <c r="G96" s="18" t="n">
+      <c r="G96" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F96)</f>
         <v>-0.0470165965778142</v>
       </c>
-      <c r="H96" s="18" t="n">
+      <c r="H96" s="17" t="n">
         <v>-0.00073894655567</v>
       </c>
-      <c r="I96" s="22" t="n">
+      <c r="I96" s="21" t="n">
         <f aca="false">AC11</f>
         <v>0.00735569302499717</v>
       </c>
@@ -13472,22 +13465,22 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="17" t="n">
+      <c r="E97" s="16" t="n">
         <f aca="false">E96+1</f>
         <v>40</v>
       </c>
-      <c r="F97" s="18" t="n">
+      <c r="F97" s="17" t="n">
         <f aca="false">(E97-0.5)/$E$137</f>
         <v>0.49375</v>
       </c>
-      <c r="G97" s="18" t="n">
+      <c r="G97" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F97)</f>
         <v>-0.01566706762477</v>
       </c>
-      <c r="H97" s="18" t="n">
+      <c r="H97" s="17" t="n">
         <v>-0.000703178273497279</v>
       </c>
-      <c r="I97" s="22" t="n">
+      <c r="I97" s="21" t="n">
         <f aca="false">AC12</f>
         <v>-0.0055023510718093</v>
       </c>
@@ -13502,22 +13495,22 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="17" t="n">
+      <c r="E98" s="16" t="n">
         <f aca="false">E97+1</f>
         <v>41</v>
       </c>
-      <c r="F98" s="18" t="n">
+      <c r="F98" s="17" t="n">
         <f aca="false">(E98-0.5)/$E$137</f>
         <v>0.50625</v>
       </c>
-      <c r="G98" s="18" t="n">
+      <c r="G98" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F98)</f>
         <v>0.01566706762477</v>
       </c>
-      <c r="H98" s="18" t="n">
+      <c r="H98" s="17" t="n">
         <v>-0.000654822141336137</v>
       </c>
-      <c r="I98" s="22" t="n">
+      <c r="I98" s="21" t="n">
         <f aca="false">AC13</f>
         <v>0.00216215692267432</v>
       </c>
@@ -13532,22 +13525,22 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="17" t="n">
+      <c r="E99" s="16" t="n">
         <f aca="false">E98+1</f>
         <v>42</v>
       </c>
-      <c r="F99" s="18" t="n">
+      <c r="F99" s="17" t="n">
         <f aca="false">(E99-0.5)/$E$137</f>
         <v>0.51875</v>
       </c>
-      <c r="G99" s="18" t="n">
+      <c r="G99" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F99)</f>
         <v>0.0470165965778143</v>
       </c>
-      <c r="H99" s="18" t="n">
+      <c r="H99" s="17" t="n">
         <v>-0.00059990404436161</v>
       </c>
-      <c r="I99" s="22" t="n">
+      <c r="I99" s="21" t="n">
         <f aca="false">AC14</f>
         <v>0.00739767012996606</v>
       </c>
@@ -13562,1949 +13555,1949 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="17" t="n">
+      <c r="E100" s="16" t="n">
         <f aca="false">E99+1</f>
         <v>43</v>
       </c>
-      <c r="F100" s="18" t="n">
+      <c r="F100" s="17" t="n">
         <f aca="false">(E100-0.5)/$E$137</f>
         <v>0.53125</v>
       </c>
-      <c r="G100" s="18" t="n">
+      <c r="G100" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F100)</f>
         <v>0.0784124127331122</v>
       </c>
-      <c r="H100" s="18" t="n">
+      <c r="H100" s="17" t="n">
         <v>-0.000556868293959678</v>
       </c>
-      <c r="I100" s="22" t="n">
+      <c r="I100" s="21" t="n">
         <f aca="false">AC15</f>
         <v>0.00324160579533425</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="17" t="n">
+      <c r="E101" s="16" t="n">
         <f aca="false">E100+1</f>
         <v>44</v>
       </c>
-      <c r="F101" s="18" t="n">
+      <c r="F101" s="17" t="n">
         <f aca="false">(E101-0.5)/$E$137</f>
         <v>0.54375</v>
       </c>
-      <c r="G101" s="18" t="n">
+      <c r="G101" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F101)</f>
         <v>0.109885729765991</v>
       </c>
-      <c r="H101" s="18" t="n">
+      <c r="H101" s="17" t="n">
         <v>2.37609509190773E-005</v>
       </c>
-      <c r="I101" s="22" t="n">
+      <c r="I101" s="21" t="n">
         <f aca="false">AC16</f>
         <v>0.00776811586249537</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="17" t="n">
+      <c r="E102" s="16" t="n">
         <f aca="false">E101+1</f>
         <v>45</v>
       </c>
-      <c r="F102" s="18" t="n">
+      <c r="F102" s="17" t="n">
         <f aca="false">(E102-0.5)/$E$137</f>
         <v>0.55625</v>
       </c>
-      <c r="G102" s="18" t="n">
+      <c r="G102" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F102)</f>
         <v>0.141468301382159</v>
       </c>
-      <c r="H102" s="18" t="n">
+      <c r="H102" s="17" t="n">
         <v>0.00159268993249195</v>
       </c>
-      <c r="I102" s="22" t="n">
+      <c r="I102" s="21" t="n">
         <f aca="false">AC17</f>
         <v>0.00306850430418648</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="17" t="n">
+      <c r="E103" s="16" t="n">
         <f aca="false">E102+1</f>
         <v>46</v>
       </c>
-      <c r="F103" s="18" t="n">
+      <c r="F103" s="17" t="n">
         <f aca="false">(E103-0.5)/$E$137</f>
         <v>0.56875</v>
       </c>
-      <c r="G103" s="18" t="n">
+      <c r="G103" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F103)</f>
         <v>0.173192651006423</v>
       </c>
-      <c r="H103" s="18" t="n">
+      <c r="H103" s="17" t="n">
         <v>0.00188328059425713</v>
       </c>
-      <c r="I103" s="22" t="n">
+      <c r="I103" s="21" t="n">
         <f aca="false">AC18</f>
         <v>0.00749441156502306</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="17" t="n">
+      <c r="E104" s="16" t="n">
         <f aca="false">E103+1</f>
         <v>47</v>
       </c>
-      <c r="F104" s="18" t="n">
+      <c r="F104" s="17" t="n">
         <f aca="false">(E104-0.5)/$E$137</f>
         <v>0.58125</v>
       </c>
-      <c r="G104" s="18" t="n">
+      <c r="G104" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F104)</f>
         <v>0.205092315715209</v>
       </c>
-      <c r="H104" s="18" t="n">
+      <c r="H104" s="17" t="n">
         <v>0.00216215692267432</v>
       </c>
-      <c r="I104" s="22" t="n">
+      <c r="I104" s="21" t="n">
         <f aca="false">AC19</f>
         <v>0.00296411769414484</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="17" t="n">
+      <c r="E105" s="16" t="n">
         <f aca="false">E104+1</f>
         <v>48</v>
       </c>
-      <c r="F105" s="18" t="n">
+      <c r="F105" s="17" t="n">
         <f aca="false">(E105-0.5)/$E$137</f>
         <v>0.59375</v>
       </c>
-      <c r="G105" s="18" t="n">
+      <c r="G105" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F105)</f>
         <v>0.237202109328788</v>
       </c>
-      <c r="H105" s="18" t="n">
+      <c r="H105" s="17" t="n">
         <v>0.00234908640439391</v>
       </c>
-      <c r="I105" s="22" t="n">
+      <c r="I105" s="21" t="n">
         <f aca="false">AC20</f>
         <v>0.00765543216478581</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="17" t="n">
+      <c r="E106" s="16" t="n">
         <f aca="false">E105+1</f>
         <v>49</v>
       </c>
-      <c r="F106" s="18" t="n">
+      <c r="F106" s="17" t="n">
         <f aca="false">(E106-0.5)/$E$137</f>
         <v>0.60625</v>
       </c>
-      <c r="G106" s="18" t="n">
+      <c r="G106" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F106)</f>
         <v>0.269558410280158</v>
       </c>
-      <c r="H106" s="18" t="n">
+      <c r="H106" s="17" t="n">
         <v>0.00236815741037011</v>
       </c>
-      <c r="I106" s="22" t="n">
+      <c r="I106" s="21" t="n">
         <f aca="false">AD5</f>
         <v>0.00563266773422344</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E107" s="17" t="n">
+      <c r="E107" s="16" t="n">
         <f aca="false">E106+1</f>
         <v>50</v>
       </c>
-      <c r="F107" s="18" t="n">
+      <c r="F107" s="17" t="n">
         <f aca="false">(E107-0.5)/$E$137</f>
         <v>0.61875</v>
       </c>
-      <c r="G107" s="18" t="n">
+      <c r="G107" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F107)</f>
         <v>0.302199480814762</v>
       </c>
-      <c r="H107" s="18" t="n">
+      <c r="H107" s="17" t="n">
         <v>0.00296411769414484</v>
       </c>
-      <c r="I107" s="22" t="n">
+      <c r="I107" s="21" t="n">
         <f aca="false">AD6</f>
         <v>0.0158027279699293</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="17" t="n">
+      <c r="E108" s="16" t="n">
         <f aca="false">E107+1</f>
         <v>51</v>
       </c>
-      <c r="F108" s="18" t="n">
+      <c r="F108" s="17" t="n">
         <f aca="false">(E108-0.5)/$E$137</f>
         <v>0.63125</v>
       </c>
-      <c r="G108" s="18" t="n">
+      <c r="G108" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F108)</f>
         <v>0.335165825308025</v>
       </c>
-      <c r="H108" s="18" t="n">
+      <c r="H108" s="17" t="n">
         <v>0.00306850430418648</v>
       </c>
-      <c r="I108" s="22" t="n">
+      <c r="I108" s="21" t="n">
         <f aca="false">AD7</f>
         <v>0.00532931479857168</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="17" t="n">
+      <c r="E109" s="16" t="n">
         <f aca="false">E108+1</f>
         <v>52</v>
       </c>
-      <c r="F109" s="18" t="n">
+      <c r="F109" s="17" t="n">
         <f aca="false">(E109-0.5)/$E$137</f>
         <v>0.64375</v>
       </c>
-      <c r="G109" s="18" t="n">
+      <c r="G109" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F109)</f>
         <v>0.368500597097157</v>
       </c>
-      <c r="H109" s="18" t="n">
+      <c r="H109" s="17" t="n">
         <v>0.00324160579533425</v>
       </c>
-      <c r="I109" s="22" t="n">
+      <c r="I109" s="21" t="n">
         <f aca="false">AD8</f>
         <v>0.0154315557638383</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="17" t="n">
+      <c r="E110" s="16" t="n">
         <f aca="false">E109+1</f>
         <v>53</v>
       </c>
-      <c r="F110" s="18" t="n">
+      <c r="F110" s="17" t="n">
         <f aca="false">(E110-0.5)/$E$137</f>
         <v>0.65625</v>
       </c>
-      <c r="G110" s="18" t="n">
+      <c r="G110" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F110)</f>
         <v>0.402250065321725</v>
       </c>
-      <c r="H110" s="18" t="n">
+      <c r="H110" s="17" t="n">
         <v>0.00532931479857168</v>
       </c>
-      <c r="I110" s="22" t="n">
+      <c r="I110" s="21" t="n">
         <f aca="false">AD9</f>
         <v>0.00582401223749685</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="17" t="n">
+      <c r="E111" s="16" t="n">
         <f aca="false">E110+1</f>
         <v>54</v>
       </c>
-      <c r="F111" s="18" t="n">
+      <c r="F111" s="17" t="n">
         <f aca="false">(E111-0.5)/$E$137</f>
         <v>0.66875</v>
       </c>
-      <c r="G111" s="18" t="n">
+      <c r="G111" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F111)</f>
         <v>0.436464156008116</v>
       </c>
-      <c r="H111" s="18" t="n">
+      <c r="H111" s="17" t="n">
         <v>0.00534838580454788</v>
       </c>
-      <c r="I111" s="22" t="n">
+      <c r="I111" s="21" t="n">
         <f aca="false">AD10</f>
         <v>0.0155114178152131</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="17" t="n">
+      <c r="E112" s="16" t="n">
         <f aca="false">E111+1</f>
         <v>55</v>
       </c>
-      <c r="F112" s="18" t="n">
+      <c r="F112" s="17" t="n">
         <f aca="false">(E112-0.5)/$E$137</f>
         <v>0.68125</v>
       </c>
-      <c r="G112" s="18" t="n">
+      <c r="G112" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F112)</f>
         <v>0.471197085229966</v>
       </c>
-      <c r="H112" s="18" t="n">
+      <c r="H112" s="17" t="n">
         <v>0.00562867166087186</v>
       </c>
-      <c r="I112" s="22" t="n">
+      <c r="I112" s="21" t="n">
         <f aca="false">AD11</f>
         <v>0.00534838580454788</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E113" s="17" t="n">
+      <c r="E113" s="16" t="n">
         <f aca="false">E112+1</f>
         <v>56</v>
       </c>
-      <c r="F113" s="18" t="n">
+      <c r="F113" s="17" t="n">
         <f aca="false">(E113-0.5)/$E$137</f>
         <v>0.69375</v>
       </c>
-      <c r="G113" s="18" t="n">
+      <c r="G113" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F113)</f>
         <v>0.506508106929111</v>
       </c>
-      <c r="H113" s="18" t="n">
+      <c r="H113" s="17" t="n">
         <v>0.00563266773422344</v>
       </c>
-      <c r="I113" s="22" t="n">
+      <c r="I113" s="21" t="n">
         <f aca="false">AD12</f>
         <v>0.0154315557638383</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E114" s="17" t="n">
+      <c r="E114" s="16" t="n">
         <f aca="false">E113+1</f>
         <v>57</v>
       </c>
-      <c r="F114" s="18" t="n">
+      <c r="F114" s="17" t="n">
         <f aca="false">(E114-0.5)/$E$137</f>
         <v>0.70625</v>
       </c>
-      <c r="G114" s="18" t="n">
+      <c r="G114" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F114)</f>
         <v>0.54246240431255</v>
       </c>
-      <c r="H114" s="18" t="n">
+      <c r="H114" s="17" t="n">
         <v>0.00582401223749685</v>
       </c>
-      <c r="I114" s="22" t="n">
+      <c r="I114" s="21" t="n">
         <f aca="false">AD13</f>
         <v>-0.000556868293959678</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E115" s="17" t="n">
+      <c r="E115" s="16" t="n">
         <f aca="false">E114+1</f>
         <v>58</v>
       </c>
-      <c r="F115" s="18" t="n">
+      <c r="F115" s="17" t="n">
         <f aca="false">(E115-0.5)/$E$137</f>
         <v>0.71875</v>
       </c>
-      <c r="G115" s="18" t="n">
+      <c r="G115" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F115)</f>
         <v>0.579132162255556</v>
       </c>
-      <c r="H115" s="18" t="n">
+      <c r="H115" s="17" t="n">
         <v>0.00593312221057574</v>
       </c>
-      <c r="I115" s="22" t="n">
+      <c r="I115" s="21" t="n">
         <f aca="false">AD14</f>
         <v>0.00604137138963401</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="17" t="n">
+      <c r="E116" s="16" t="n">
         <f aca="false">E115+1</f>
         <v>59</v>
       </c>
-      <c r="F116" s="18" t="n">
+      <c r="F116" s="17" t="n">
         <f aca="false">(E116-0.5)/$E$137</f>
         <v>0.73125</v>
       </c>
-      <c r="G116" s="18" t="n">
+      <c r="G116" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F116)</f>
         <v>0.61659786971703</v>
       </c>
-      <c r="H116" s="18" t="n">
+      <c r="H116" s="17" t="n">
         <v>0.00599691677250516</v>
       </c>
-      <c r="I116" s="22" t="n">
+      <c r="I116" s="21" t="n">
         <f aca="false">AD15</f>
         <v>-0.000771196545083563</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="17" t="n">
+      <c r="E117" s="16" t="n">
         <f aca="false">E116+1</f>
         <v>60</v>
       </c>
-      <c r="F117" s="18" t="n">
+      <c r="F117" s="17" t="n">
         <f aca="false">(E117-0.5)/$E$137</f>
         <v>0.74375</v>
       </c>
-      <c r="G117" s="18" t="n">
+      <c r="G117" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F117)</f>
         <v>0.654949917100686</v>
       </c>
-      <c r="H117" s="18" t="n">
+      <c r="H117" s="17" t="n">
         <v>0.00604137138963401</v>
       </c>
-      <c r="I117" s="22" t="n">
+      <c r="I117" s="21" t="n">
         <f aca="false">AD16</f>
         <v>0.00593312221057574</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E118" s="17" t="n">
+      <c r="E118" s="16" t="n">
         <f aca="false">E117+1</f>
         <v>61</v>
       </c>
-      <c r="F118" s="18" t="n">
+      <c r="F118" s="17" t="n">
         <f aca="false">(E118-0.5)/$E$137</f>
         <v>0.75625</v>
       </c>
-      <c r="G118" s="18" t="n">
+      <c r="G118" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F118)</f>
         <v>0.694290575703083</v>
       </c>
-      <c r="H118" s="18" t="n">
+      <c r="H118" s="17" t="n">
         <v>0.00607831255121413</v>
       </c>
-      <c r="I118" s="22" t="n">
+      <c r="I118" s="21" t="n">
         <f aca="false">AD17</f>
         <v>-0.000703178273497279</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="17" t="n">
+      <c r="E119" s="16" t="n">
         <f aca="false">E118+1</f>
         <v>62</v>
       </c>
-      <c r="F119" s="18" t="n">
+      <c r="F119" s="17" t="n">
         <f aca="false">(E119-0.5)/$E$137</f>
         <v>0.76875</v>
       </c>
-      <c r="G119" s="18" t="n">
+      <c r="G119" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F119)</f>
         <v>0.734736477807255</v>
       </c>
-      <c r="H119" s="18" t="n">
+      <c r="H119" s="17" t="n">
         <v>0.00613836193866346</v>
       </c>
-      <c r="I119" s="22" t="n">
+      <c r="I119" s="21" t="n">
         <f aca="false">AD18</f>
         <v>0.00613836193866346</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="17" t="n">
+      <c r="E120" s="16" t="n">
         <f aca="false">E119+1</f>
         <v>63</v>
       </c>
-      <c r="F120" s="18" t="n">
+      <c r="F120" s="17" t="n">
         <f aca="false">(E120-0.5)/$E$137</f>
         <v>0.78125</v>
       </c>
-      <c r="G120" s="18" t="n">
+      <c r="G120" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F120)</f>
         <v>0.776421761147928</v>
       </c>
-      <c r="H120" s="18" t="n">
+      <c r="H120" s="17" t="n">
         <v>0.00619770668762662</v>
       </c>
-      <c r="I120" s="22" t="n">
+      <c r="I120" s="21" t="n">
         <f aca="false">AD19</f>
         <v>-0.000745010141061708</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="17" t="n">
+      <c r="E121" s="16" t="n">
         <f aca="false">E120+1</f>
         <v>64</v>
       </c>
-      <c r="F121" s="18" t="n">
+      <c r="F121" s="17" t="n">
         <f aca="false">(E121-0.5)/$E$137</f>
         <v>0.79375</v>
       </c>
-      <c r="G121" s="18" t="n">
+      <c r="G121" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F121)</f>
         <v>0.819502107568254</v>
       </c>
-      <c r="H121" s="18" t="n">
+      <c r="H121" s="17" t="n">
         <v>0.00622001024213692</v>
       </c>
-      <c r="I121" s="22" t="n">
+      <c r="I121" s="21" t="n">
         <f aca="false">AD20</f>
         <v>0.00622001024213692</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="17" t="n">
+      <c r="E122" s="16" t="n">
         <f aca="false">E121+1</f>
         <v>65</v>
       </c>
-      <c r="F122" s="18" t="n">
+      <c r="F122" s="17" t="n">
         <f aca="false">(E122-0.5)/$E$137</f>
         <v>0.80625</v>
       </c>
-      <c r="G122" s="18" t="n">
+      <c r="G122" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F122)</f>
         <v>0.864160004318308</v>
       </c>
-      <c r="H122" s="18" t="n">
+      <c r="H122" s="17" t="n">
         <v>0.00660490474712883</v>
       </c>
-      <c r="I122" s="22" t="n">
+      <c r="I122" s="21" t="n">
         <f aca="false">AE5</f>
         <v>0.00159268993249195</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="17" t="n">
+      <c r="E123" s="16" t="n">
         <f aca="false">E122+1</f>
         <v>66</v>
       </c>
-      <c r="F123" s="18" t="n">
+      <c r="F123" s="17" t="n">
         <f aca="false">(E123-0.5)/$E$137</f>
         <v>0.81875</v>
       </c>
-      <c r="G123" s="18" t="n">
+      <c r="G123" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F123)</f>
         <v>0.91061170687247</v>
       </c>
-      <c r="H123" s="18" t="n">
+      <c r="H123" s="17" t="n">
         <v>0.006896214901845</v>
       </c>
-      <c r="I123" s="22" t="n">
+      <c r="I123" s="21" t="n">
         <f aca="false">AE6</f>
         <v>0.006896214901845</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E124" s="17" t="n">
+      <c r="E124" s="16" t="n">
         <f aca="false">E123+1</f>
         <v>67</v>
       </c>
-      <c r="F124" s="18" t="n">
+      <c r="F124" s="17" t="n">
         <f aca="false">(E124-0.5)/$E$137</f>
         <v>0.83125</v>
       </c>
-      <c r="G124" s="18" t="n">
+      <c r="G124" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F124)</f>
         <v>0.959116617227602</v>
       </c>
-      <c r="H124" s="18" t="n">
+      <c r="H124" s="17" t="n">
         <v>0.00697066500102839</v>
       </c>
-      <c r="I124" s="22" t="n">
+      <c r="I124" s="21" t="n">
         <f aca="false">AE7</f>
         <v>0.00234908640439391</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="17" t="n">
+      <c r="E125" s="16" t="n">
         <f aca="false">E124+1</f>
         <v>68</v>
       </c>
-      <c r="F125" s="18" t="n">
+      <c r="F125" s="17" t="n">
         <f aca="false">(E125-0.5)/$E$137</f>
         <v>0.84375</v>
       </c>
-      <c r="G125" s="18" t="n">
+      <c r="G125" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F125)</f>
         <v>1.00999016924958</v>
       </c>
-      <c r="H125" s="18" t="n">
+      <c r="H125" s="17" t="n">
         <v>0.00698928056133896</v>
       </c>
-      <c r="I125" s="22" t="n">
+      <c r="I125" s="21" t="n">
         <f aca="false">AE8</f>
         <v>0.00698928056133896</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="17" t="n">
+      <c r="E126" s="16" t="n">
         <f aca="false">E125+1</f>
         <v>69</v>
       </c>
-      <c r="F126" s="18" t="n">
+      <c r="F126" s="17" t="n">
         <f aca="false">(E126-0.5)/$E$137</f>
         <v>0.85625</v>
       </c>
-      <c r="G126" s="18" t="n">
+      <c r="G126" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F126)</f>
         <v>1.06362193833772</v>
       </c>
-      <c r="H126" s="18" t="n">
+      <c r="H126" s="17" t="n">
         <v>0.00698928056133896</v>
       </c>
-      <c r="I126" s="22" t="n">
+      <c r="I126" s="21" t="n">
         <f aca="false">AE9</f>
         <v>0.00188328059425713</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="17" t="n">
+      <c r="E127" s="16" t="n">
         <f aca="false">E126+1</f>
         <v>70</v>
       </c>
-      <c r="F127" s="18" t="n">
+      <c r="F127" s="17" t="n">
         <f aca="false">(E127-0.5)/$E$137</f>
         <v>0.86875</v>
       </c>
-      <c r="G127" s="18" t="n">
+      <c r="G127" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F127)</f>
         <v>1.1205017670747</v>
       </c>
-      <c r="H127" s="18" t="n">
+      <c r="H127" s="17" t="n">
         <v>0.00716187523639478</v>
       </c>
-      <c r="I127" s="22" t="n">
+      <c r="I127" s="21" t="n">
         <f aca="false">AE10</f>
         <v>0.00660490474712883</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="17" t="n">
+      <c r="E128" s="16" t="n">
         <f aca="false">E127+1</f>
         <v>71</v>
       </c>
-      <c r="F128" s="18" t="n">
+      <c r="F128" s="17" t="n">
         <f aca="false">(E128-0.5)/$E$137</f>
         <v>0.88125</v>
       </c>
-      <c r="G128" s="18" t="n">
+      <c r="G128" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F128)</f>
         <v>1.18125862097704</v>
       </c>
-      <c r="H128" s="18" t="n">
+      <c r="H128" s="17" t="n">
         <v>0.00735569302499717</v>
       </c>
-      <c r="I128" s="22" t="n">
+      <c r="I128" s="21" t="n">
         <f aca="false">AE11</f>
         <v>0.00236815741037011</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E129" s="17" t="n">
+      <c r="E129" s="16" t="n">
         <f aca="false">E128+1</f>
         <v>72</v>
       </c>
-      <c r="F129" s="18" t="n">
+      <c r="F129" s="17" t="n">
         <f aca="false">(E129-0.5)/$E$137</f>
         <v>0.89375</v>
       </c>
-      <c r="G129" s="18" t="n">
+      <c r="G129" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F129)</f>
         <v>1.24672049837958</v>
       </c>
-      <c r="H129" s="18" t="n">
+      <c r="H129" s="17" t="n">
         <v>0.00739767012996606</v>
       </c>
-      <c r="I129" s="22" t="n">
+      <c r="I129" s="21" t="n">
         <f aca="false">AE12</f>
         <v>0.00698928056133896</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E130" s="17" t="n">
+      <c r="E130" s="16" t="n">
         <f aca="false">E129+1</f>
         <v>73</v>
       </c>
-      <c r="F130" s="18" t="n">
+      <c r="F130" s="17" t="n">
         <f aca="false">(E130-0.5)/$E$137</f>
         <v>0.90625</v>
       </c>
-      <c r="G130" s="18" t="n">
+      <c r="G130" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F130)</f>
         <v>1.31801089730354</v>
       </c>
-      <c r="H130" s="18" t="n">
+      <c r="H130" s="17" t="n">
         <v>0.00743197704890153</v>
       </c>
-      <c r="I130" s="22" t="n">
+      <c r="I130" s="21" t="n">
         <f aca="false">AE13</f>
         <v>-0.0072577212405055</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E131" s="17" t="n">
+      <c r="E131" s="16" t="n">
         <f aca="false">E130+1</f>
         <v>74</v>
       </c>
-      <c r="F131" s="18" t="n">
+      <c r="F131" s="17" t="n">
         <f aca="false">(E131-0.5)/$E$137</f>
         <v>0.91875</v>
       </c>
-      <c r="G131" s="18" t="n">
+      <c r="G131" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F131)</f>
         <v>1.39671264539045</v>
       </c>
-      <c r="H131" s="18" t="n">
+      <c r="H131" s="17" t="n">
         <v>0.00749441156502306</v>
       </c>
-      <c r="I131" s="22" t="n">
+      <c r="I131" s="21" t="n">
         <f aca="false">AE14</f>
         <v>-0.00161692000412328</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E132" s="17" t="n">
+      <c r="E132" s="16" t="n">
         <f aca="false">E131+1</f>
         <v>75</v>
       </c>
-      <c r="F132" s="18" t="n">
+      <c r="F132" s="17" t="n">
         <f aca="false">(E132-0.5)/$E$137</f>
         <v>0.93125</v>
       </c>
-      <c r="G132" s="18" t="n">
+      <c r="G132" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F132)</f>
         <v>1.48516545690268</v>
       </c>
-      <c r="H132" s="18" t="n">
+      <c r="H132" s="17" t="n">
         <v>0.00765543216478581</v>
       </c>
-      <c r="I132" s="22" t="n">
+      <c r="I132" s="21" t="n">
         <f aca="false">AE15</f>
         <v>-0.00772837946708574</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="17" t="n">
+      <c r="E133" s="16" t="n">
         <f aca="false">E132+1</f>
         <v>76</v>
       </c>
-      <c r="F133" s="18" t="n">
+      <c r="F133" s="17" t="n">
         <f aca="false">(E133-0.5)/$E$137</f>
         <v>0.94375</v>
       </c>
-      <c r="G133" s="18" t="n">
+      <c r="G133" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F133)</f>
         <v>1.58705583229031</v>
       </c>
-      <c r="H133" s="18" t="n">
+      <c r="H133" s="17" t="n">
         <v>0.00776811586249537</v>
       </c>
-      <c r="I133" s="22" t="n">
+      <c r="I133" s="21" t="n">
         <f aca="false">AE16</f>
         <v>-0.0015667182039677</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E134" s="17" t="n">
+      <c r="E134" s="16" t="n">
         <f aca="false">E133+1</f>
         <v>77</v>
       </c>
-      <c r="F134" s="18" t="n">
+      <c r="F134" s="17" t="n">
         <f aca="false">(E134-0.5)/$E$137</f>
         <v>0.95625</v>
       </c>
-      <c r="G134" s="18" t="n">
+      <c r="G134" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F134)</f>
         <v>1.7087352578229</v>
       </c>
-      <c r="H134" s="18" t="n">
+      <c r="H134" s="17" t="n">
         <v>0.0154315557638383</v>
       </c>
-      <c r="I134" s="22" t="n">
+      <c r="I134" s="21" t="n">
         <f aca="false">AE17</f>
         <v>-0.00778881644056725</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E135" s="17" t="n">
+      <c r="E135" s="16" t="n">
         <f aca="false">E134+1</f>
         <v>78</v>
       </c>
-      <c r="F135" s="18" t="n">
+      <c r="F135" s="17" t="n">
         <f aca="false">(E135-0.5)/$E$137</f>
         <v>0.96875</v>
       </c>
-      <c r="G135" s="18" t="n">
+      <c r="G135" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F135)</f>
         <v>1.86273186742165</v>
       </c>
-      <c r="H135" s="18" t="n">
+      <c r="H135" s="17" t="n">
         <v>0.0154315557638383</v>
       </c>
-      <c r="I135" s="22" t="n">
+      <c r="I135" s="21" t="n">
         <f aca="false">AE18</f>
         <v>-0.00168116526389273</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E136" s="17" t="n">
+      <c r="E136" s="16" t="n">
         <f aca="false">E135+1</f>
         <v>79</v>
       </c>
-      <c r="F136" s="18" t="n">
+      <c r="F136" s="17" t="n">
         <f aca="false">(E136-0.5)/$E$137</f>
         <v>0.98125</v>
       </c>
-      <c r="G136" s="18" t="n">
+      <c r="G136" s="17" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F136)</f>
         <v>2.08027845252527</v>
       </c>
-      <c r="H136" s="18" t="n">
+      <c r="H136" s="17" t="n">
         <v>0.0155114178152131</v>
       </c>
-      <c r="I136" s="22" t="n">
+      <c r="I136" s="21" t="n">
         <f aca="false">AE19</f>
         <v>-0.00781691019634823</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E137" s="24" t="n">
+      <c r="E137" s="23" t="n">
         <f aca="false">E136+1</f>
         <v>80</v>
       </c>
-      <c r="F137" s="25" t="n">
+      <c r="F137" s="24" t="n">
         <f aca="false">(E137-0.5)/$E$137</f>
         <v>0.99375</v>
       </c>
-      <c r="G137" s="25" t="n">
+      <c r="G137" s="24" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F137)</f>
         <v>2.49770547441237</v>
       </c>
-      <c r="H137" s="18" t="n">
+      <c r="H137" s="17" t="n">
         <v>0.0158027279699293</v>
       </c>
-      <c r="I137" s="29" t="n">
+      <c r="I137" s="28" t="n">
         <f aca="false">AE20</f>
         <v>-0.00159806573102572</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="65" t="s">
+      <c r="E141" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="F141" s="65"/>
-      <c r="G141" s="65"/>
-      <c r="H141" s="65"/>
-      <c r="I141" s="65"/>
-      <c r="J141" s="65"/>
-      <c r="K141" s="65"/>
+      <c r="F141" s="64"/>
+      <c r="G141" s="64"/>
+      <c r="H141" s="64"/>
+      <c r="I141" s="64"/>
+      <c r="J141" s="64"/>
+      <c r="K141" s="64"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="65"/>
-      <c r="F142" s="65"/>
-      <c r="G142" s="65"/>
-      <c r="H142" s="65"/>
-      <c r="I142" s="65"/>
-      <c r="J142" s="65"/>
-      <c r="K142" s="65"/>
+      <c r="E142" s="64"/>
+      <c r="F142" s="64"/>
+      <c r="G142" s="64"/>
+      <c r="H142" s="64"/>
+      <c r="I142" s="64"/>
+      <c r="J142" s="64"/>
+      <c r="K142" s="64"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="66" t="s">
+      <c r="E145" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F145" s="67" t="s">
+      <c r="F145" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G145" s="68" t="s">
+      <c r="G145" s="67" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="69" t="n">
+      <c r="E146" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="F146" s="70" t="n">
+      <c r="F146" s="69" t="n">
         <f aca="false">U$5</f>
         <v>-0.612140166284626</v>
       </c>
-      <c r="G146" s="44" t="n">
+      <c r="G146" s="43" t="n">
         <f aca="false">AA$5</f>
         <v>-0.00788391253090426</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E147" s="17" t="n">
+      <c r="E147" s="16" t="n">
         <f aca="false">E146+1</f>
         <v>2</v>
       </c>
-      <c r="F147" s="18" t="n">
+      <c r="F147" s="17" t="n">
         <f aca="false">V$5</f>
         <v>-0.610759574125927</v>
       </c>
-      <c r="G147" s="22" t="n">
+      <c r="G147" s="21" t="n">
         <f aca="false">AB$5</f>
         <v>-0.00650332037220602</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E148" s="17" t="n">
+      <c r="E148" s="16" t="n">
         <f aca="false">E147+1</f>
         <v>3</v>
       </c>
-      <c r="F148" s="18" t="n">
+      <c r="F148" s="17" t="n">
         <f aca="false">W$5</f>
         <v>-0.597094378517327</v>
       </c>
-      <c r="G148" s="22" t="n">
+      <c r="G148" s="21" t="n">
         <f aca="false">AC$5</f>
         <v>0.00716187523639478</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="17" t="n">
+      <c r="E149" s="16" t="n">
         <f aca="false">E148+1</f>
         <v>4</v>
       </c>
-      <c r="F149" s="18" t="n">
+      <c r="F149" s="17" t="n">
         <f aca="false">X$5</f>
         <v>-0.598623586019498</v>
       </c>
-      <c r="G149" s="22" t="n">
+      <c r="G149" s="21" t="n">
         <f aca="false">AD$5</f>
         <v>0.00563266773422344</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E150" s="17" t="n">
+      <c r="E150" s="16" t="n">
         <f aca="false">E149+1</f>
         <v>5</v>
       </c>
-      <c r="F150" s="18" t="n">
+      <c r="F150" s="17" t="n">
         <f aca="false">Y$5</f>
         <v>-0.602663563821229</v>
       </c>
-      <c r="G150" s="22" t="n">
+      <c r="G150" s="21" t="n">
         <f aca="false">AE$5</f>
         <v>0.00159268993249195</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E151" s="17" t="n">
+      <c r="E151" s="16" t="n">
         <f aca="false">E150+1</f>
         <v>6</v>
       </c>
-      <c r="F151" s="18" t="n">
+      <c r="F151" s="17" t="n">
         <f aca="false">U$6</f>
         <v>-1.30444517301579</v>
       </c>
-      <c r="G151" s="22" t="n">
+      <c r="G151" s="21" t="n">
         <f aca="false">AA$6</f>
         <v>-0.00462166187962754</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E152" s="17" t="n">
+      <c r="E152" s="16" t="n">
         <f aca="false">E151+1</f>
         <v>7</v>
       </c>
-      <c r="F152" s="18" t="n">
+      <c r="F152" s="17" t="n">
         <f aca="false">V$6</f>
         <v>-1.31279252573626</v>
       </c>
-      <c r="G152" s="22" t="n">
+      <c r="G152" s="21" t="n">
         <f aca="false">AB$6</f>
         <v>-0.0129690146000983</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E153" s="17" t="n">
+      <c r="E153" s="16" t="n">
         <f aca="false">E152+1</f>
         <v>8</v>
       </c>
-      <c r="F153" s="18" t="n">
+      <c r="F153" s="17" t="n">
         <f aca="false">W$6</f>
         <v>-1.30493177752821</v>
       </c>
-      <c r="G153" s="22" t="n">
+      <c r="G153" s="21" t="n">
         <f aca="false">AC$6</f>
         <v>-0.00510826639204853</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E154" s="17" t="n">
+      <c r="E154" s="16" t="n">
         <f aca="false">E153+1</f>
         <v>9</v>
       </c>
-      <c r="F154" s="18" t="n">
+      <c r="F154" s="17" t="n">
         <f aca="false">X$6</f>
         <v>-1.28402078316624</v>
       </c>
-      <c r="G154" s="22" t="n">
+      <c r="G154" s="21" t="n">
         <f aca="false">AD$6</f>
         <v>0.0158027279699293</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E155" s="17" t="n">
+      <c r="E155" s="16" t="n">
         <f aca="false">E154+1</f>
         <v>10</v>
       </c>
-      <c r="F155" s="18" t="n">
+      <c r="F155" s="17" t="n">
         <f aca="false">Y$6</f>
         <v>-1.29292729623432</v>
       </c>
-      <c r="G155" s="22" t="n">
+      <c r="G155" s="21" t="n">
         <f aca="false">AE$6</f>
         <v>0.006896214901845</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E156" s="17" t="n">
+      <c r="E156" s="16" t="n">
         <f aca="false">E155+1</f>
         <v>11</v>
       </c>
-      <c r="F156" s="18" t="n">
+      <c r="F156" s="17" t="n">
         <f aca="false">U$7</f>
         <v>-0.612634300462303</v>
       </c>
-      <c r="G156" s="22" t="n">
+      <c r="G156" s="21" t="n">
         <f aca="false">AA$7</f>
         <v>-0.00839407281807403</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="17" t="n">
+      <c r="E157" s="16" t="n">
         <f aca="false">E156+1</f>
         <v>12</v>
       </c>
-      <c r="F157" s="18" t="n">
+      <c r="F157" s="17" t="n">
         <f aca="false">V$7</f>
         <v>-0.610956533078022</v>
       </c>
-      <c r="G157" s="22" t="n">
+      <c r="G157" s="21" t="n">
         <f aca="false">AB$7</f>
         <v>-0.00671630543379309</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="17" t="n">
+      <c r="E158" s="16" t="n">
         <f aca="false">E157+1</f>
         <v>13</v>
       </c>
-      <c r="F158" s="18" t="n">
+      <c r="F158" s="17" t="n">
         <f aca="false">W$7</f>
         <v>-0.596808250595327</v>
       </c>
-      <c r="G158" s="22" t="n">
+      <c r="G158" s="21" t="n">
         <f aca="false">AC$7</f>
         <v>0.00743197704890153</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="17" t="n">
+      <c r="E159" s="16" t="n">
         <f aca="false">E158+1</f>
         <v>14</v>
       </c>
-      <c r="F159" s="18" t="n">
+      <c r="F159" s="17" t="n">
         <f aca="false">X$7</f>
         <v>-0.598910912845657</v>
       </c>
-      <c r="G159" s="22" t="n">
+      <c r="G159" s="21" t="n">
         <f aca="false">AD$7</f>
         <v>0.00532931479857168</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E160" s="17" t="n">
+      <c r="E160" s="16" t="n">
         <f aca="false">E159+1</f>
         <v>15</v>
       </c>
-      <c r="F160" s="18" t="n">
+      <c r="F160" s="17" t="n">
         <f aca="false">Y$7</f>
         <v>-0.601891141239835</v>
       </c>
-      <c r="G160" s="22" t="n">
+      <c r="G160" s="21" t="n">
         <f aca="false">AE$7</f>
         <v>0.00234908640439391</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E161" s="17" t="n">
+      <c r="E161" s="16" t="n">
         <f aca="false">E160+1</f>
         <v>16</v>
       </c>
-      <c r="F161" s="18" t="n">
+      <c r="F161" s="17" t="n">
         <f aca="false">U$8</f>
         <v>-1.30395911310842</v>
       </c>
-      <c r="G161" s="22" t="n">
+      <c r="G161" s="21" t="n">
         <f aca="false">AA$8</f>
         <v>-0.00404253631276452</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="17" t="n">
+      <c r="E162" s="16" t="n">
         <f aca="false">E161+1</f>
         <v>17</v>
       </c>
-      <c r="F162" s="18" t="n">
+      <c r="F162" s="17" t="n">
         <f aca="false">V$8</f>
         <v>-1.31279252573626</v>
       </c>
-      <c r="G162" s="22" t="n">
+      <c r="G162" s="21" t="n">
         <f aca="false">AB$8</f>
         <v>-0.0128759489406043</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E163" s="17" t="n">
+      <c r="E163" s="16" t="n">
         <f aca="false">E162+1</f>
         <v>18</v>
       </c>
-      <c r="F163" s="18" t="n">
+      <c r="F163" s="17" t="n">
         <f aca="false">W$8</f>
         <v>-1.30541892786747</v>
       </c>
-      <c r="G163" s="22" t="n">
+      <c r="G163" s="21" t="n">
         <f aca="false">AC$8</f>
         <v>-0.0055023510718093</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E164" s="17" t="n">
+      <c r="E164" s="16" t="n">
         <f aca="false">E163+1</f>
         <v>19</v>
       </c>
-      <c r="F164" s="18" t="n">
+      <c r="F164" s="17" t="n">
         <f aca="false">X$8</f>
         <v>-1.28448502103182</v>
       </c>
-      <c r="G164" s="22" t="n">
+      <c r="G164" s="21" t="n">
         <f aca="false">AD$8</f>
         <v>0.0154315557638383</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E165" s="17" t="n">
+      <c r="E165" s="16" t="n">
         <f aca="false">E164+1</f>
         <v>20</v>
       </c>
-      <c r="F165" s="18" t="n">
+      <c r="F165" s="17" t="n">
         <f aca="false">Y$8</f>
         <v>-1.29292729623432</v>
       </c>
-      <c r="G165" s="22" t="n">
+      <c r="G165" s="21" t="n">
         <f aca="false">AE$8</f>
         <v>0.00698928056133896</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E166" s="17" t="n">
+      <c r="E166" s="16" t="n">
         <f aca="false">E165+1</f>
         <v>21</v>
       </c>
-      <c r="F166" s="18" t="n">
+      <c r="F166" s="17" t="n">
         <f aca="false">U$9</f>
         <v>-0.612337752494551</v>
       </c>
-      <c r="G166" s="22" t="n">
+      <c r="G166" s="21" t="n">
         <f aca="false">AA$9</f>
         <v>-0.00817729109556931</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E167" s="17" t="n">
+      <c r="E167" s="16" t="n">
         <f aca="false">E166+1</f>
         <v>22</v>
       </c>
-      <c r="F167" s="18" t="n">
+      <c r="F167" s="17" t="n">
         <f aca="false">V$9</f>
         <v>-0.610661128136195</v>
       </c>
-      <c r="G167" s="22" t="n">
+      <c r="G167" s="21" t="n">
         <f aca="false">AB$9</f>
         <v>-0.00650066673721306</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E168" s="17" t="n">
+      <c r="E168" s="16" t="n">
         <f aca="false">E167+1</f>
         <v>23</v>
       </c>
-      <c r="F168" s="18" t="n">
+      <c r="F168" s="17" t="n">
         <f aca="false">W$9</f>
         <v>-0.597189796397953</v>
       </c>
-      <c r="G168" s="22" t="n">
+      <c r="G168" s="21" t="n">
         <f aca="false">AC$9</f>
         <v>0.00697066500102839</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E169" s="17" t="n">
+      <c r="E169" s="16" t="n">
         <f aca="false">E168+1</f>
         <v>24</v>
       </c>
-      <c r="F169" s="18" t="n">
+      <c r="F169" s="17" t="n">
         <f aca="false">X$9</f>
         <v>-0.598336449161485</v>
       </c>
-      <c r="G169" s="22" t="n">
+      <c r="G169" s="21" t="n">
         <f aca="false">AD$9</f>
         <v>0.00582401223749685</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E170" s="17" t="n">
+      <c r="E170" s="16" t="n">
         <f aca="false">E169+1</f>
         <v>25</v>
       </c>
-      <c r="F170" s="18" t="n">
+      <c r="F170" s="17" t="n">
         <f aca="false">Y$9</f>
         <v>-0.602277180804725</v>
       </c>
-      <c r="G170" s="22" t="n">
+      <c r="G170" s="21" t="n">
         <f aca="false">AE$9</f>
         <v>0.00188328059425713</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E171" s="17" t="n">
+      <c r="E171" s="16" t="n">
         <f aca="false">E170+1</f>
         <v>26</v>
       </c>
-      <c r="F171" s="18" t="n">
+      <c r="F171" s="17" t="n">
         <f aca="false">U$10</f>
         <v>-1.30298862224221</v>
       </c>
-      <c r="G171" s="22" t="n">
+      <c r="G171" s="21" t="n">
         <f aca="false">AA$10</f>
         <v>-0.00345642126076306</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E172" s="17" t="n">
+      <c r="E172" s="16" t="n">
         <f aca="false">E171+1</f>
         <v>27</v>
       </c>
-      <c r="F172" s="18" t="n">
+      <c r="F172" s="17" t="n">
         <f aca="false">V$10</f>
         <v>-1.31279252573626</v>
       </c>
-      <c r="G172" s="22" t="n">
+      <c r="G172" s="21" t="n">
         <f aca="false">AB$10</f>
         <v>-0.0132603247548144</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E173" s="17" t="n">
+      <c r="E173" s="16" t="n">
         <f aca="false">E172+1</f>
         <v>28</v>
       </c>
-      <c r="F173" s="18" t="n">
+      <c r="F173" s="17" t="n">
         <f aca="false">W$10</f>
         <v>-1.30493177752821</v>
       </c>
-      <c r="G173" s="22" t="n">
+      <c r="G173" s="21" t="n">
         <f aca="false">AC$10</f>
         <v>-0.00539957654676471</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E174" s="17" t="n">
+      <c r="E174" s="16" t="n">
         <f aca="false">E173+1</f>
         <v>29</v>
       </c>
-      <c r="F174" s="18" t="n">
+      <c r="F174" s="17" t="n">
         <f aca="false">X$10</f>
         <v>-1.28402078316624</v>
       </c>
-      <c r="G174" s="22" t="n">
+      <c r="G174" s="21" t="n">
         <f aca="false">AD$10</f>
         <v>0.0155114178152131</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E175" s="17" t="n">
+      <c r="E175" s="16" t="n">
         <f aca="false">E174+1</f>
         <v>30</v>
       </c>
-      <c r="F175" s="18" t="n">
+      <c r="F175" s="17" t="n">
         <f aca="false">Y$10</f>
         <v>-1.29292729623432</v>
       </c>
-      <c r="G175" s="22" t="n">
+      <c r="G175" s="21" t="n">
         <f aca="false">AE$10</f>
         <v>0.00660490474712883</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E176" s="17" t="n">
+      <c r="E176" s="16" t="n">
         <f aca="false">E175+1</f>
         <v>31</v>
       </c>
-      <c r="F176" s="18" t="n">
+      <c r="F176" s="17" t="n">
         <f aca="false">U$11</f>
         <v>-0.612634300462303</v>
       </c>
-      <c r="G176" s="22" t="n">
+      <c r="G176" s="21" t="n">
         <f aca="false">AA$11</f>
         <v>-0.00837500181209783</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E177" s="17" t="n">
+      <c r="E177" s="16" t="n">
         <f aca="false">E176+1</f>
         <v>32</v>
       </c>
-      <c r="F177" s="18" t="n">
+      <c r="F177" s="17" t="n">
         <f aca="false">V$11</f>
         <v>-0.610956533078022</v>
       </c>
-      <c r="G177" s="22" t="n">
+      <c r="G177" s="21" t="n">
         <f aca="false">AB$11</f>
         <v>-0.00669723442781689</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E178" s="17" t="n">
+      <c r="E178" s="16" t="n">
         <f aca="false">E177+1</f>
         <v>33</v>
       </c>
-      <c r="F178" s="18" t="n">
+      <c r="F178" s="17" t="n">
         <f aca="false">W$11</f>
         <v>-0.596903605625208</v>
       </c>
-      <c r="G178" s="22" t="n">
+      <c r="G178" s="21" t="n">
         <f aca="false">AC$11</f>
         <v>0.00735569302499717</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E179" s="17" t="n">
+      <c r="E179" s="16" t="n">
         <f aca="false">E178+1</f>
         <v>34</v>
       </c>
-      <c r="F179" s="18" t="n">
+      <c r="F179" s="17" t="n">
         <f aca="false">X$11</f>
         <v>-0.598910912845657</v>
       </c>
-      <c r="G179" s="22" t="n">
+      <c r="G179" s="21" t="n">
         <f aca="false">AD$11</f>
         <v>0.00534838580454788</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E180" s="17" t="n">
+      <c r="E180" s="16" t="n">
         <f aca="false">E179+1</f>
         <v>35</v>
       </c>
-      <c r="F180" s="18" t="n">
+      <c r="F180" s="17" t="n">
         <f aca="false">Y$11</f>
         <v>-0.601891141239835</v>
       </c>
-      <c r="G180" s="22" t="n">
+      <c r="G180" s="21" t="n">
         <f aca="false">AE$11</f>
         <v>0.00236815741037011</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E181" s="17" t="n">
+      <c r="E181" s="16" t="n">
         <f aca="false">E180+1</f>
         <v>36</v>
       </c>
-      <c r="F181" s="18" t="n">
+      <c r="F181" s="17" t="n">
         <f aca="false">U$12</f>
         <v>-1.30395911310842</v>
       </c>
-      <c r="G181" s="22" t="n">
+      <c r="G181" s="21" t="n">
         <f aca="false">AA$12</f>
         <v>-0.00404253631276452</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E182" s="17" t="n">
+      <c r="E182" s="16" t="n">
         <f aca="false">E181+1</f>
         <v>37</v>
       </c>
-      <c r="F182" s="18" t="n">
+      <c r="F182" s="17" t="n">
         <f aca="false">V$12</f>
         <v>-1.31279252573626</v>
       </c>
-      <c r="G182" s="22" t="n">
+      <c r="G182" s="21" t="n">
         <f aca="false">AB$12</f>
         <v>-0.0128759489406043</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E183" s="17" t="n">
+      <c r="E183" s="16" t="n">
         <f aca="false">E182+1</f>
         <v>38</v>
       </c>
-      <c r="F183" s="18" t="n">
+      <c r="F183" s="17" t="n">
         <f aca="false">W$12</f>
         <v>-1.30541892786747</v>
       </c>
-      <c r="G183" s="22" t="n">
+      <c r="G183" s="21" t="n">
         <f aca="false">AC$12</f>
         <v>-0.0055023510718093</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E184" s="17" t="n">
+      <c r="E184" s="16" t="n">
         <f aca="false">E183+1</f>
         <v>39</v>
       </c>
-      <c r="F184" s="18" t="n">
+      <c r="F184" s="17" t="n">
         <f aca="false">X$12</f>
         <v>-1.28448502103182</v>
       </c>
-      <c r="G184" s="22" t="n">
+      <c r="G184" s="21" t="n">
         <f aca="false">AD$12</f>
         <v>0.0154315557638383</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E185" s="17" t="n">
+      <c r="E185" s="16" t="n">
         <f aca="false">E184+1</f>
         <v>40</v>
       </c>
-      <c r="F185" s="18" t="n">
+      <c r="F185" s="17" t="n">
         <f aca="false">Y$12</f>
         <v>-1.29292729623432</v>
       </c>
-      <c r="G185" s="22" t="n">
+      <c r="G185" s="21" t="n">
         <f aca="false">AE$12</f>
         <v>0.00698928056133896</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E186" s="17" t="n">
+      <c r="E186" s="16" t="n">
         <f aca="false">E185+1</f>
         <v>41</v>
       </c>
-      <c r="F186" s="18" t="n">
+      <c r="F186" s="17" t="n">
         <f aca="false">U$13</f>
         <v>0.180786466737645</v>
       </c>
-      <c r="G186" s="22" t="n">
+      <c r="G186" s="21" t="n">
         <f aca="false">AA$13</f>
         <v>0.00562867166087186</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E187" s="17" t="n">
+      <c r="E187" s="16" t="n">
         <f aca="false">E186+1</f>
         <v>42</v>
       </c>
-      <c r="F187" s="18" t="n">
+      <c r="F187" s="17" t="n">
         <f aca="false">V$13</f>
         <v>0.175181556027692</v>
       </c>
-      <c r="G187" s="22" t="n">
+      <c r="G187" s="21" t="n">
         <f aca="false">AB$13</f>
         <v>2.37609509190773E-005</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E188" s="17" t="n">
+      <c r="E188" s="16" t="n">
         <f aca="false">E187+1</f>
         <v>43</v>
       </c>
-      <c r="F188" s="18" t="n">
+      <c r="F188" s="17" t="n">
         <f aca="false">W$13</f>
         <v>0.177319951999448</v>
       </c>
-      <c r="G188" s="22" t="n">
+      <c r="G188" s="21" t="n">
         <f aca="false">AC$13</f>
         <v>0.00216215692267432</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E189" s="17" t="n">
+      <c r="E189" s="16" t="n">
         <f aca="false">E188+1</f>
         <v>44</v>
       </c>
-      <c r="F189" s="18" t="n">
+      <c r="F189" s="17" t="n">
         <f aca="false">X$13</f>
         <v>0.174600926782814</v>
       </c>
-      <c r="G189" s="22" t="n">
+      <c r="G189" s="21" t="n">
         <f aca="false">AD$13</f>
         <v>-0.000556868293959678</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E190" s="17" t="n">
+      <c r="E190" s="16" t="n">
         <f aca="false">E189+1</f>
         <v>45</v>
       </c>
-      <c r="F190" s="18" t="n">
+      <c r="F190" s="17" t="n">
         <f aca="false">Y$13</f>
         <v>0.167900073836268</v>
       </c>
-      <c r="G190" s="22" t="n">
+      <c r="G190" s="21" t="n">
         <f aca="false">AE$13</f>
         <v>-0.0072577212405055</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E191" s="17" t="n">
+      <c r="E191" s="16" t="n">
         <f aca="false">E190+1</f>
         <v>46</v>
       </c>
-      <c r="F191" s="18" t="n">
+      <c r="F191" s="17" t="n">
         <f aca="false">U$14</f>
         <v>-0.533733313546863</v>
       </c>
-      <c r="G191" s="22" t="n">
+      <c r="G191" s="21" t="n">
         <f aca="false">AA$14</f>
         <v>-0.00759485867519882</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E192" s="17" t="n">
+      <c r="E192" s="16" t="n">
         <f aca="false">E191+1</f>
         <v>47</v>
       </c>
-      <c r="F192" s="18" t="n">
+      <c r="F192" s="17" t="n">
         <f aca="false">V$14</f>
         <v>-0.530365717711942</v>
       </c>
-      <c r="G192" s="22" t="n">
+      <c r="G192" s="21" t="n">
         <f aca="false">AB$14</f>
         <v>-0.00422726284027841</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E193" s="17" t="n">
+      <c r="E193" s="16" t="n">
         <f aca="false">E192+1</f>
         <v>48</v>
       </c>
-      <c r="F193" s="18" t="n">
+      <c r="F193" s="17" t="n">
         <f aca="false">W$14</f>
         <v>-0.518740784741698</v>
       </c>
-      <c r="G193" s="22" t="n">
+      <c r="G193" s="21" t="n">
         <f aca="false">AC$14</f>
         <v>0.00739767012996606</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E194" s="17" t="n">
+      <c r="E194" s="16" t="n">
         <f aca="false">E193+1</f>
         <v>49</v>
       </c>
-      <c r="F194" s="18" t="n">
+      <c r="F194" s="17" t="n">
         <f aca="false">X$14</f>
         <v>-0.52009708348203</v>
       </c>
-      <c r="G194" s="22" t="n">
+      <c r="G194" s="21" t="n">
         <f aca="false">AD$14</f>
         <v>0.00604137138963401</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E195" s="17" t="n">
+      <c r="E195" s="16" t="n">
         <f aca="false">E194+1</f>
         <v>50</v>
       </c>
-      <c r="F195" s="18" t="n">
+      <c r="F195" s="17" t="n">
         <f aca="false">Y$14</f>
         <v>-0.527755374875787</v>
       </c>
-      <c r="G195" s="22" t="n">
+      <c r="G195" s="21" t="n">
         <f aca="false">AE$14</f>
         <v>-0.00161692000412328</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E196" s="17" t="n">
+      <c r="E196" s="16" t="n">
         <f aca="false">E195+1</f>
         <v>51</v>
       </c>
-      <c r="F196" s="18" t="n">
+      <c r="F196" s="17" t="n">
         <f aca="false">U$15</f>
         <v>0.181740087209143</v>
       </c>
-      <c r="G196" s="22" t="n">
+      <c r="G196" s="21" t="n">
         <f aca="false">AA$15</f>
         <v>0.00599691677250516</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E197" s="17" t="n">
+      <c r="E197" s="16" t="n">
         <f aca="false">E196+1</f>
         <v>52</v>
       </c>
-      <c r="F197" s="18" t="n">
+      <c r="F197" s="17" t="n">
         <f aca="false">V$15</f>
         <v>0.175004223880968</v>
       </c>
-      <c r="G197" s="22" t="n">
+      <c r="G197" s="21" t="n">
         <f aca="false">AB$15</f>
         <v>-0.00073894655567</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E198" s="17" t="n">
+      <c r="E198" s="16" t="n">
         <f aca="false">E197+1</f>
         <v>53</v>
       </c>
-      <c r="F198" s="18" t="n">
+      <c r="F198" s="17" t="n">
         <f aca="false">W$15</f>
         <v>0.178984776231972</v>
       </c>
-      <c r="G198" s="22" t="n">
+      <c r="G198" s="21" t="n">
         <f aca="false">AC$15</f>
         <v>0.00324160579533425</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E199" s="17" t="n">
+      <c r="E199" s="16" t="n">
         <f aca="false">E198+1</f>
         <v>54</v>
       </c>
-      <c r="F199" s="18" t="n">
+      <c r="F199" s="17" t="n">
         <f aca="false">X$15</f>
         <v>0.174971973891554</v>
       </c>
-      <c r="G199" s="22" t="n">
+      <c r="G199" s="21" t="n">
         <f aca="false">AD$15</f>
         <v>-0.000771196545083563</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E200" s="17" t="n">
+      <c r="E200" s="16" t="n">
         <f aca="false">E199+1</f>
         <v>55</v>
       </c>
-      <c r="F200" s="18" t="n">
+      <c r="F200" s="17" t="n">
         <f aca="false">Y$15</f>
         <v>0.168014790969552</v>
       </c>
-      <c r="G200" s="22" t="n">
+      <c r="G200" s="21" t="n">
         <f aca="false">AE$15</f>
         <v>-0.00772837946708574</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E201" s="17" t="n">
+      <c r="E201" s="16" t="n">
         <f aca="false">E200+1</f>
         <v>56</v>
       </c>
-      <c r="F201" s="18" t="n">
+      <c r="F201" s="17" t="n">
         <f aca="false">U$16</f>
         <v>-0.534063261887067</v>
       </c>
-      <c r="G201" s="22" t="n">
+      <c r="G201" s="21" t="n">
         <f aca="false">AA$16</f>
         <v>-0.00779326904459643</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E202" s="17" t="n">
+      <c r="E202" s="16" t="n">
         <f aca="false">E201+1</f>
         <v>57</v>
       </c>
-      <c r="F202" s="18" t="n">
+      <c r="F202" s="17" t="n">
         <f aca="false">V$16</f>
         <v>-0.530611243666978</v>
       </c>
-      <c r="G202" s="22" t="n">
+      <c r="G202" s="21" t="n">
         <f aca="false">AB$16</f>
         <v>-0.00434125082450709</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E203" s="17" t="n">
+      <c r="E203" s="16" t="n">
         <f aca="false">E202+1</f>
         <v>58</v>
       </c>
-      <c r="F203" s="18" t="n">
+      <c r="F203" s="17" t="n">
         <f aca="false">W$16</f>
         <v>-0.518501876979975</v>
       </c>
-      <c r="G203" s="22" t="n">
+      <c r="G203" s="21" t="n">
         <f aca="false">AC$16</f>
         <v>0.00776811586249537</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E204" s="17" t="n">
+      <c r="E204" s="16" t="n">
         <f aca="false">E203+1</f>
         <v>59</v>
       </c>
-      <c r="F204" s="18" t="n">
+      <c r="F204" s="17" t="n">
         <f aca="false">X$16</f>
         <v>-0.520336870631895</v>
       </c>
-      <c r="G204" s="22" t="n">
+      <c r="G204" s="21" t="n">
         <f aca="false">AD$16</f>
         <v>0.00593312221057574</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E205" s="17" t="n">
+      <c r="E205" s="16" t="n">
         <f aca="false">E204+1</f>
         <v>60</v>
       </c>
-      <c r="F205" s="18" t="n">
+      <c r="F205" s="17" t="n">
         <f aca="false">Y$16</f>
         <v>-0.527836711046438</v>
       </c>
-      <c r="G205" s="22" t="n">
+      <c r="G205" s="21" t="n">
         <f aca="false">AE$16</f>
         <v>-0.0015667182039677</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E206" s="17" t="n">
+      <c r="E206" s="16" t="n">
         <f aca="false">E205+1</f>
         <v>61</v>
       </c>
-      <c r="F206" s="18" t="n">
+      <c r="F206" s="17" t="n">
         <f aca="false">U$17</f>
         <v>0.181914690720243</v>
       </c>
-      <c r="G206" s="22" t="n">
+      <c r="G206" s="21" t="n">
         <f aca="false">AA$17</f>
         <v>0.00607831255121413</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E207" s="17" t="n">
+      <c r="E207" s="16" t="n">
         <f aca="false">E206+1</f>
         <v>62</v>
       </c>
-      <c r="F207" s="18" t="n">
+      <c r="F207" s="17" t="n">
         <f aca="false">V$17</f>
         <v>0.175181556027692</v>
       </c>
-      <c r="G207" s="22" t="n">
+      <c r="G207" s="21" t="n">
         <f aca="false">AB$17</f>
         <v>-0.000654822141336137</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E208" s="17" t="n">
+      <c r="E208" s="16" t="n">
         <f aca="false">E207+1</f>
         <v>63</v>
       </c>
-      <c r="F208" s="18" t="n">
+      <c r="F208" s="17" t="n">
         <f aca="false">W$17</f>
         <v>0.178904882473215</v>
       </c>
-      <c r="G208" s="22" t="n">
+      <c r="G208" s="21" t="n">
         <f aca="false">AC$17</f>
         <v>0.00306850430418648</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E209" s="17" t="n">
+      <c r="E209" s="16" t="n">
         <f aca="false">E208+1</f>
         <v>64</v>
       </c>
-      <c r="F209" s="18" t="n">
+      <c r="F209" s="17" t="n">
         <f aca="false">X$17</f>
         <v>0.175133199895531</v>
       </c>
-      <c r="G209" s="22" t="n">
+      <c r="G209" s="21" t="n">
         <f aca="false">AD$17</f>
         <v>-0.000703178273497279</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E210" s="17" t="n">
+      <c r="E210" s="16" t="n">
         <f aca="false">E209+1</f>
         <v>65</v>
       </c>
-      <c r="F210" s="18" t="n">
+      <c r="F210" s="17" t="n">
         <f aca="false">Y$17</f>
         <v>0.168047561728461</v>
       </c>
-      <c r="G210" s="22" t="n">
+      <c r="G210" s="21" t="n">
         <f aca="false">AE$17</f>
         <v>-0.00778881644056725</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E211" s="17" t="n">
+      <c r="E211" s="16" t="n">
         <f aca="false">E210+1</f>
         <v>66</v>
       </c>
-      <c r="F211" s="18" t="n">
+      <c r="F211" s="17" t="n">
         <f aca="false">U$18</f>
         <v>-0.533733313546863</v>
       </c>
-      <c r="G211" s="22" t="n">
+      <c r="G211" s="21" t="n">
         <f aca="false">AA$18</f>
         <v>-0.00757776776431673</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E212" s="17" t="n">
+      <c r="E212" s="16" t="n">
         <f aca="false">E211+1</f>
         <v>67</v>
       </c>
-      <c r="F212" s="18" t="n">
+      <c r="F212" s="17" t="n">
         <f aca="false">V$18</f>
         <v>-0.530529386258023</v>
       </c>
-      <c r="G212" s="22" t="n">
+      <c r="G212" s="21" t="n">
         <f aca="false">AB$18</f>
         <v>-0.00437384047547706</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E213" s="17" t="n">
+      <c r="E213" s="16" t="n">
         <f aca="false">E212+1</f>
         <v>68</v>
       </c>
-      <c r="F213" s="18" t="n">
+      <c r="F213" s="17" t="n">
         <f aca="false">W$18</f>
         <v>-0.518661134217523</v>
       </c>
-      <c r="G213" s="22" t="n">
+      <c r="G213" s="21" t="n">
         <f aca="false">AC$18</f>
         <v>0.00749441156502306</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E214" s="17" t="n">
+      <c r="E214" s="16" t="n">
         <f aca="false">E213+1</f>
         <v>69</v>
       </c>
-      <c r="F214" s="18" t="n">
+      <c r="F214" s="17" t="n">
         <f aca="false">X$18</f>
         <v>-0.520017183843882</v>
       </c>
-      <c r="G214" s="22" t="n">
+      <c r="G214" s="21" t="n">
         <f aca="false">AD$18</f>
         <v>0.00613836193866346</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E215" s="17" t="n">
+      <c r="E215" s="16" t="n">
         <f aca="false">E214+1</f>
         <v>70</v>
       </c>
-      <c r="F215" s="18" t="n">
+      <c r="F215" s="17" t="n">
         <f aca="false">Y$18</f>
         <v>-0.527836711046438</v>
       </c>
-      <c r="G215" s="22" t="n">
+      <c r="G215" s="21" t="n">
         <f aca="false">AE$18</f>
         <v>-0.00168116526389273</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E216" s="17" t="n">
+      <c r="E216" s="16" t="n">
         <f aca="false">E215+1</f>
         <v>71</v>
       </c>
-      <c r="F216" s="18" t="n">
+      <c r="F216" s="17" t="n">
         <f aca="false">U$19</f>
         <v>0.181914690720243</v>
       </c>
-      <c r="G216" s="22" t="n">
+      <c r="G216" s="21" t="n">
         <f aca="false">AA$19</f>
         <v>0.00619770668762662</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E217" s="17" t="n">
+      <c r="E217" s="16" t="n">
         <f aca="false">E216+1</f>
         <v>72</v>
       </c>
-      <c r="F217" s="18" t="n">
+      <c r="F217" s="17" t="n">
         <f aca="false">V$19</f>
         <v>0.175117079988254</v>
       </c>
-      <c r="G217" s="22" t="n">
+      <c r="G217" s="21" t="n">
         <f aca="false">AB$19</f>
         <v>-0.00059990404436161</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E218" s="17" t="n">
+      <c r="E218" s="16" t="n">
         <f aca="false">E217+1</f>
         <v>73</v>
       </c>
-      <c r="F218" s="18" t="n">
+      <c r="F218" s="17" t="n">
         <f aca="false">W$19</f>
         <v>0.178681101726761</v>
       </c>
-      <c r="G218" s="22" t="n">
+      <c r="G218" s="21" t="n">
         <f aca="false">AC$19</f>
         <v>0.00296411769414484</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E219" s="17" t="n">
+      <c r="E219" s="16" t="n">
         <f aca="false">E218+1</f>
         <v>74</v>
       </c>
-      <c r="F219" s="18" t="n">
+      <c r="F219" s="17" t="n">
         <f aca="false">X$19</f>
         <v>0.174971973891554</v>
       </c>
-      <c r="G219" s="22" t="n">
+      <c r="G219" s="21" t="n">
         <f aca="false">AD$19</f>
         <v>-0.000745010141061708</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E220" s="17" t="n">
+      <c r="E220" s="16" t="n">
         <f aca="false">E219+1</f>
         <v>75</v>
       </c>
-      <c r="F220" s="18" t="n">
+      <c r="F220" s="17" t="n">
         <f aca="false">Y$19</f>
         <v>0.167900073836268</v>
       </c>
-      <c r="G220" s="22" t="n">
+      <c r="G220" s="21" t="n">
         <f aca="false">AE$19</f>
         <v>-0.00781691019634823</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E221" s="17" t="n">
+      <c r="E221" s="16" t="n">
         <f aca="false">E220+1</f>
         <v>76</v>
       </c>
-      <c r="F221" s="18" t="n">
+      <c r="F221" s="17" t="n">
         <f aca="false">U$20</f>
         <v>-0.533980751298442</v>
       </c>
-      <c r="G221" s="22" t="n">
+      <c r="G221" s="21" t="n">
         <f aca="false">AA$20</f>
         <v>-0.00782344215368036</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E222" s="17" t="n">
+      <c r="E222" s="16" t="n">
         <f aca="false">E221+1</f>
         <v>77</v>
       </c>
-      <c r="F222" s="18" t="n">
+      <c r="F222" s="17" t="n">
         <f aca="false">V$20</f>
         <v>-0.530611243666978</v>
       </c>
-      <c r="G222" s="22" t="n">
+      <c r="G222" s="21" t="n">
         <f aca="false">AB$20</f>
         <v>-0.00445393452221665</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E223" s="17" t="n">
+      <c r="E223" s="16" t="n">
         <f aca="false">E222+1</f>
         <v>78</v>
       </c>
-      <c r="F223" s="18" t="n">
+      <c r="F223" s="17" t="n">
         <f aca="false">W$20</f>
         <v>-0.518501876979975</v>
       </c>
-      <c r="G223" s="22" t="n">
+      <c r="G223" s="21" t="n">
         <f aca="false">AC$20</f>
         <v>0.00765543216478581</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E224" s="17" t="n">
+      <c r="E224" s="16" t="n">
         <f aca="false">E223+1</f>
         <v>79</v>
       </c>
-      <c r="F224" s="18" t="n">
+      <c r="F224" s="17" t="n">
         <f aca="false">X$20</f>
         <v>-0.519937298902624</v>
       </c>
-      <c r="G224" s="22" t="n">
+      <c r="G224" s="21" t="n">
         <f aca="false">AD$20</f>
         <v>0.00622001024213692</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E225" s="24" t="n">
+      <c r="E225" s="23" t="n">
         <f aca="false">E224+1</f>
         <v>80</v>
       </c>
-      <c r="F225" s="25" t="n">
+      <c r="F225" s="24" t="n">
         <f aca="false">Y$20</f>
         <v>-0.527755374875787</v>
       </c>
-      <c r="G225" s="29" t="n">
+      <c r="G225" s="28" t="n">
         <f aca="false">AE$20</f>
         <v>-0.00159806573102572</v>
       </c>

--- a/excel/FactorialAnalysis_Throughput.xlsx
+++ b/excel/FactorialAnalysis_Throughput.xlsx
@@ -1103,7 +1103,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1743,11 +1743,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="49706094"/>
-        <c:axId val="57780044"/>
+        <c:axId val="83871853"/>
+        <c:axId val="6037251"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49706094"/>
+        <c:axId val="83871853"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1789,12 +1789,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57780044"/>
+        <c:crossAx val="6037251"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57780044"/>
+        <c:axId val="6037251"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1836,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49706094"/>
+        <c:crossAx val="83871853"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1864,7 +1864,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2452,11 +2452,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="94577709"/>
-        <c:axId val="19787567"/>
+        <c:axId val="77081031"/>
+        <c:axId val="90626808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94577709"/>
+        <c:axId val="77081031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2498,12 +2498,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19787567"/>
+        <c:crossAx val="90626808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19787567"/>
+        <c:axId val="90626808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2545,7 +2545,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94577709"/>
+        <c:crossAx val="77081031"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2639,48 +2639,48 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{3477F28B-D343-47A1-865A-C71FCA758450}">
-  <header guid="{DB0DE62B-4E3E-47F1-9B4C-A28B42090C1C}" dateTime="2021-01-26T16:06:00.000000000Z" userName=" " r:id="rId1" minRId="1" maxRId="15" maxSheetId="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{95955010-3D96-4B27-BC2A-E42D6F5943AA}">
+  <header guid="{91FCEA43-B60C-4872-AC04-26CC4B261FF2}" dateTime="2021-01-26T16:06:00.000000000Z" userName=" " r:id="rId1" minRId="1" maxRId="15" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{6F5D2B03-D338-4567-9742-8341EEF4F638}" dateTime="2021-01-26T16:07:00.000000000Z" userName=" " r:id="rId2" minRId="16" maxRId="65" maxSheetId="2">
+  <header guid="{986E47CE-6530-4190-A8A7-8EEE371D9150}" dateTime="2021-01-26T16:07:00.000000000Z" userName=" " r:id="rId2" minRId="16" maxRId="65" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{43193C1C-1CD2-4C86-90F0-595DBA491B1B}" dateTime="2021-01-26T16:09:00.000000000Z" userName=" " r:id="rId3" minRId="66" maxRId="70" maxSheetId="2">
+  <header guid="{41310214-2A2C-49CC-983D-13F5271EAB39}" dateTime="2021-01-26T16:09:00.000000000Z" userName=" " r:id="rId3" minRId="66" maxRId="70" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{16A00CEC-9FF4-4009-B9B0-AD2E62F11FC3}" dateTime="2021-01-26T16:12:00.000000000Z" userName=" " r:id="rId4" minRId="71" maxRId="150" maxSheetId="2">
+  <header guid="{080B53E9-F857-45AB-8580-DF44DF4F025F}" dateTime="2021-01-26T16:12:00.000000000Z" userName=" " r:id="rId4" minRId="71" maxRId="150" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{3B19B3AA-3DD7-466C-9C77-762955EE110C}" dateTime="2021-01-26T16:13:00.000000000Z" userName=" " r:id="rId5" minRId="151" maxRId="310" maxSheetId="2">
+  <header guid="{D2DC5D1F-1880-473B-A065-0BD5A7C35098}" dateTime="2021-01-26T16:13:00.000000000Z" userName=" " r:id="rId5" minRId="151" maxRId="310" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{AA8A20A3-84B2-4BA8-A8BE-8BCB92E376D1}" dateTime="2021-01-26T16:16:00.000000000Z" userName=" " r:id="rId6" minRId="311" maxRId="315" maxSheetId="2">
+  <header guid="{63CC5E7B-CCE2-4908-AB23-3C57AE07DAE4}" dateTime="2021-01-26T16:16:00.000000000Z" userName=" " r:id="rId6" minRId="311" maxRId="315" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{BFA2E9E6-B55C-4EF8-8D27-0B7AC6F5CB11}" dateTime="2021-01-26T16:20:00.000000000Z" userName=" " r:id="rId7" minRId="316" maxRId="795" maxSheetId="2">
+  <header guid="{59502184-712E-4375-A5AA-7BC90E6AE507}" dateTime="2021-01-26T16:20:00.000000000Z" userName=" " r:id="rId7" minRId="316" maxRId="795" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{98453688-244F-48AA-8AEA-9C75EADFFF81}" dateTime="2021-01-26T16:21:00.000000000Z" userName=" " r:id="rId8" minRId="796" maxRId="880" maxSheetId="2">
+  <header guid="{F0990949-CC0F-47F3-BE83-53BF5060020C}" dateTime="2021-01-26T16:21:00.000000000Z" userName=" " r:id="rId8" minRId="796" maxRId="880" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{3477F28B-D343-47A1-865A-C71FCA758450}" dateTime="2021-01-26T16:22:00.000000000Z" userName=" " r:id="rId9" minRId="881" maxRId="883" maxSheetId="2">
+  <header guid="{95955010-3D96-4B27-BC2A-E42D6F5943AA}" dateTime="2021-01-26T16:22:00.000000000Z" userName=" " r:id="rId9" minRId="881" maxRId="883" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -7527,7 +7527,7 @@
   </sheetPr>
   <dimension ref="B1:AY225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
     </sheetView>
   </sheetViews>
